--- a/BetDatas(1).xlsx
+++ b/BetDatas(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lance\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repository\WorkDocumentOfMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -579,12 +579,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="J123" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.结果为龙虎时，赔率为2.177</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J128" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lance:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2.结果为和时，赔率为9.800</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
   <si>
     <t>LotteryType</t>
   </si>
@@ -1107,10 +1159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和大和小和单和双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大小单双质合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1168,14 +1216,6 @@
   </si>
   <si>
     <t>十个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙虎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1468,12 +1508,165 @@
     <t>含对子的情况未考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和大和双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙虎和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,212,321,312,132,231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>122</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>121</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,6 +1735,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1581,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,9 +1832,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1651,8 +1847,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1932,12 +2143,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T143"/>
+  <dimension ref="A1:T133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M109" sqref="M109"/>
+      <selection pane="bottomLeft" activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1997,13 +2208,13 @@
         <v>17</v>
       </c>
       <c r="M1" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>183</v>
+      <c r="O1" s="18" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2016,45 +2227,45 @@
       <c r="C2" s="1">
         <v>20180517001</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="I2" s="21">
+        <v>179</v>
+      </c>
+      <c r="I2" s="23">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>93</v>
-      </c>
-      <c r="J2" s="21">
+        <v>13</v>
+      </c>
+      <c r="J2" s="23">
         <v>19.600000000000001</v>
       </c>
-      <c r="K2" s="21">
-        <v>12212</v>
+      <c r="K2" s="23">
+        <v>32145</v>
       </c>
       <c r="L2" s="1">
         <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H2,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="23">
         <f ca="1">SUM(L2:L6)*I2*J2</f>
-        <v>9114</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>140</v>
+        <v>1274</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="P2" s="15">
         <f>FIND(LEFT(K2,1),H2,1)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q2" s="1" t="b">
         <f>LEN(K2)&lt;&gt;0</f>
@@ -2063,111 +2274,111 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H3,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N3" s="21"/>
-      <c r="O3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="25"/>
       <c r="P3" s="1" t="str">
         <f>MID(K2,2,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,3,1),H4,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="25"/>
       <c r="P4" s="1" t="str">
         <f>MID(K2,3,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,4,1),H5,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="1" t="str">
         <f>MID(K2,4,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="1">
         <f>IF(AND(ISNUMBER(FIND(RIGHT(K2,1),H6,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="1" t="str">
         <f>RIGHT(K2,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2176,48 +2387,48 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21">
+      <c r="I7" s="23"/>
+      <c r="J7" s="23">
         <v>196</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="1">
         <f>IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21">
+      <c r="M7" s="23"/>
+      <c r="N7" s="23">
         <f ca="1">IF(IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,"0")+IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,"0")=2,I2*J7*1,0)</f>
-        <v>18228</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>141</v>
+        <v>2548</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="1">
         <f>IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
@@ -2226,29 +2437,29 @@
       </c>
       <c r="H9" s="4" t="str">
         <f ca="1">","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>,80,35,86,61</v>
-      </c>
-      <c r="I9" s="21"/>
+        <v>,75,78,41,99</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="1">
         <v>196</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="9">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="21"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="2">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),I2*J9,0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2256,32 +2467,32 @@
         <v>30</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I10" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="1">
         <v>196</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),I2*J10,0)</f>
-        <v>18228</v>
+        <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),I2*J10,0)</f>
+        <v>0</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R10" s="15" t="str">
         <f ca="1">RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>32648</v>
+        <v>50068</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2289,28 +2500,28 @@
         <v>32</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="I11" s="21"/>
+        <v>135</v>
+      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="1">
         <v>196</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="1">
         <f>IF(ISNUMBER(FIND(IF(LEFT(K2,1)&gt;MID(K2,2,1),LEFT(K2,1)-MID(K2,2,1),MID(K2,2,1)-LEFT(K2,1)),H11,1)),1,0)</f>
         <v>1</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">IF(ISNUMBER(FIND(MAX(LEFT(K2,1),MID(K2,2,1))-MIN(LEFT(K2,1),MID(K2,2,1)),H11,1)),I2*J11*1,0)</f>
-        <v>18228</v>
+        <v>2548</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2323,27 +2534,27 @@
         <f>0&amp;123456789</f>
         <v>0123456789</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="1">
         <v>98</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="8">
         <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,I2*J12,0),0)</f>
-        <v>9114</v>
+        <v>1274</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2351,28 +2562,28 @@
         <v>28</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="21"/>
+        <v>140</v>
+      </c>
+      <c r="I13" s="23"/>
       <c r="J13" s="1">
         <v>98</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="1" t="str">
         <f>LEFT(K2,2)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N13" s="1">
         <f>IF(EXACT(LEFT(K2,1),MID(K2,2,1)),0,IF(OR(ISNUMBER(FIND(","&amp;LEFT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;LEFT(K2,1)&amp;",",H13,1))),I2*J13,0))</f>
         <v>0</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2380,30 +2591,30 @@
         <v>30</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="21"/>
+        <v>149</v>
+      </c>
+      <c r="I14" s="23"/>
       <c r="J14" s="1">
         <v>98</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="1" t="str">
         <f>LEFT(K2,2)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="8">
-        <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H14,1)),I2*J14,0),0)</f>
-        <v>9114</v>
+        <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H14,1)),I2*J14,0),0)</f>
+        <v>0</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2411,19 +2622,19 @@
         <v>38</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="21"/>
+        <v>141</v>
+      </c>
+      <c r="I15" s="23"/>
       <c r="J15" s="1">
         <v>98</v>
       </c>
-      <c r="K15" s="21"/>
+      <c r="K15" s="23"/>
       <c r="N15" s="1">
         <f ca="1">IF(AND(OR(ISNUMBER(FIND(LEFT(K2,1),H15,1)),ISNUMBER(FIND(MID(K2,2,1),H15,1))),LEFT(K2,1)&lt;&gt;MID(K2,2,1)),I2*J15,0)</f>
-        <v>9114</v>
+        <v>1274</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="1" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H15,1)),ISNUMBER(FIND(MID(K2,2,1),H15,1)))</f>
@@ -2432,75 +2643,75 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="24" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23">
+        <v>196</v>
+      </c>
+      <c r="K16" s="23"/>
+      <c r="N16" s="23">
+        <f>IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H17,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H16,1)),1,0)=2,I2*J16*1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="4:20" x14ac:dyDescent="0.15">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21">
-        <v>196</v>
-      </c>
-      <c r="K16" s="21"/>
-      <c r="N16" s="21">
-        <f ca="1">IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H17,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H16,1)),1,0)=2,I2*J16*1,0)</f>
-        <v>18228</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="9" t="s">
-        <v>148</v>
-      </c>
       <c r="H17" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="21"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="1">
         <v>196</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="23"/>
       <c r="N18" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;RIGHT(K2,2),H18,1)),I2*J18,0)</f>
         <v>0</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="4:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
@@ -2508,24 +2719,24 @@
         <v>30</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="21"/>
+        <v>146</v>
+      </c>
+      <c r="I19" s="23"/>
       <c r="J19" s="1">
         <v>196</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="23"/>
       <c r="N19" s="8">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(RIGHT(K2,1),MID(K2,4,1))&amp;",",H19,1)),I2*J19,0)</f>
-        <v>18228</v>
+        <v>2548</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
       <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2533,24 +2744,24 @@
         <v>32</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="21"/>
+        <v>147</v>
+      </c>
+      <c r="I20" s="23"/>
       <c r="J20" s="1">
         <v>196</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="23"/>
       <c r="N20" s="8">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,4,1),RIGHT(K2,1))-MIN(MID(K2,4,1),RIGHT(K2,1)),H20,1)),I2*J20*1,0)</f>
         <v>0</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D21" s="23"/>
-      <c r="E21" s="23" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2562,44 +2773,44 @@
       <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="1">
         <v>98</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="23"/>
       <c r="N21" s="8">
         <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H21,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H21,1)),1,0)=2,I2*J21,0),0)</f>
-        <v>9114</v>
+        <v>1274</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="21"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1">
         <v>98</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="23"/>
       <c r="N22" s="12">
-        <f>IF(EXACT(RIGHT(K2,1),MID(K2,4,1)),0,IF(OR(ISNUMBER(FIND(","&amp;RIGHT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;RIGHT(K2,1)&amp;MID(K2,4,1)&amp;",",H13,1))),I2*J13,0))</f>
-        <v>0</v>
+        <f ca="1">IF(EXACT(RIGHT(K2,1),MID(K2,4,1)),0,IF(OR(ISNUMBER(FIND(","&amp;RIGHT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;RIGHT(K2,1)&amp;MID(K2,4,1)&amp;",",H13,1))),I2*J13,0))</f>
+        <v>1274</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2607,28 +2818,28 @@
         <v>30</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="21"/>
+        <v>148</v>
+      </c>
+      <c r="I23" s="23"/>
       <c r="J23" s="1">
         <v>98</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="1" t="str">
         <f>RIGHT(K2,2)</f>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N23" s="8">
         <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,4,1),RIGHT(K2,1))&amp;",",H23,1)),I2*J23,0),0)</f>
-        <v>9114</v>
+        <v>1274</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2636,97 +2847,97 @@
         <v>38</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" s="21"/>
+        <v>150</v>
+      </c>
+      <c r="I24" s="23"/>
       <c r="J24" s="1">
         <v>98</v>
       </c>
-      <c r="K24" s="21"/>
+      <c r="K24" s="23"/>
       <c r="N24" s="8">
         <f ca="1">IF(AND(OR(ISNUMBER(FIND(RIGHT(K2,1),H24,1)),ISNUMBER(FIND(MID(K2,4,1),H24,1))),RIGHT(K2,1)&lt;&gt;MID(K2,4,1)),I2*J24,0)</f>
-        <v>9114</v>
+        <v>1274</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21">
+        <v>163</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23">
         <v>1960</v>
       </c>
-      <c r="K25" s="21"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="1" t="b">
         <f>ISNUMBER(FIND(LEFT(K2,1),H25,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="21">
-        <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H25,1)),ISNUMBER(FIND(MID(K2,2,1),H26,1)),ISNUMBER(FIND(MID(K2,3,1),H27,1))),I2*J25,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>140</v>
+        <v>1</v>
+      </c>
+      <c r="N25" s="23">
+        <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H25,1)),ISNUMBER(FIND(MID(K2,2,1),H26,1)),ISNUMBER(FIND(MID(K2,3,1),H27,1))),I2*J25,0)</f>
+        <v>25480</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H26,1))</f>
         <v>1</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="25"/>
     </row>
     <row r="27" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+        <v>162</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H27,1))</f>
         <v>1</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="25"/>
     </row>
     <row r="28" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2736,22 +2947,22 @@
       <c r="H28" s="4">
         <v>123</v>
       </c>
-      <c r="I28" s="21"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1">
         <v>1960</v>
       </c>
-      <c r="K28" s="21"/>
+      <c r="K28" s="23"/>
       <c r="N28" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;LEFT(K2,3),H28,1)),I2*J28,0)</f>
         <v>0</v>
       </c>
       <c r="O28" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="4:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2759,24 +2970,24 @@
         <v>30</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I29" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="1">
         <v>1960</v>
       </c>
-      <c r="K29" s="21"/>
+      <c r="K29" s="23"/>
       <c r="N29" s="8">
-        <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H29,1)),I2*J29,0)</f>
-        <v>0</v>
+        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H29,1)),I2*J29,0)</f>
+        <v>25480</v>
       </c>
       <c r="O29" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2784,24 +2995,24 @@
         <v>32</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="I30" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="I30" s="23"/>
       <c r="J30" s="1">
         <v>1960</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="23"/>
       <c r="N30" s="8">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1))-MIN(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1)),H30,1)),I2*J30*1,0)</f>
         <v>0</v>
       </c>
       <c r="O30" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="4:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D31" s="23"/>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2811,35 +3022,35 @@
         <v>30</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="I31" s="21"/>
+        <v>153</v>
+      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K31" s="21"/>
+      <c r="K31" s="23"/>
       <c r="M31" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="8">
-        <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31*2,0),IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0)))</f>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31*2,0),IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0)))</f>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O31" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="1">
-        <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0),0)</f>
-        <v>0</v>
+        <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0),0)</f>
+        <v>4246.6450000000004</v>
       </c>
       <c r="R31" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1" t="b">
         <f>AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1" t="b">
         <f>AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))</f>
@@ -2847,8 +3058,8 @@
       </c>
     </row>
     <row r="32" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="3" t="s">
         <v>43</v>
       </c>
@@ -2856,36 +3067,36 @@
         <v>43</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="I32" s="21"/>
+        <v>154</v>
+      </c>
+      <c r="I32" s="23"/>
       <c r="J32" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K32" s="21"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="1" t="b">
         <f>AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1)),M32)</f>
         <v>0</v>
       </c>
       <c r="M32" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="8">
         <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1))),I2*J32,0),0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="1">
         <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1))),I2*J32,0),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="3" t="s">
         <v>44</v>
       </c>
@@ -2893,54 +3104,85 @@
         <v>44</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" s="21"/>
+        <v>168</v>
+      </c>
+      <c r="I33" s="23"/>
       <c r="J33" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K33" s="21"/>
+      <c r="K33" s="23"/>
       <c r="M33" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" s="1">
         <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),0,IF(AND(ISNUMBER(FIND(LEFT(K2,1),H33,1)),ISNUMBER(FIND(MID(K2,2,1),H33,1)),ISNUMBER(FIND(MID(K2,3,1),H33,1))),I2*J33,0))</f>
         <v>0</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P33" s="1">
-        <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H33,1)),ISNUMBER(FIND(MID(K2,2,1),H33,1)),ISNUMBER(FIND(MID(K2,3,1),H33,1))),I2*J33,0)</f>
-        <v>30379.38</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
+        <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H33,1)),ISNUMBER(FIND(MID(K2,2,1),H33,1)),ISNUMBER(FIND(MID(K2,3,1),H33,1))),I2*J33,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
       <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="17">
-        <v>123321312132231</v>
-      </c>
-      <c r="I34" s="21"/>
+      <c r="H34" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="23"/>
       <c r="J34" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K34" s="21"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="1" t="b">
+        <f>AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
+  ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H34,1))),
+  AND(LEFT(K2,1)+MID(K2,2,1)+MID(K2,3,1)&lt;&gt;MID(K2,3,1)*3))</f>
+        <v>1</v>
+      </c>
       <c r="M34" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <f ca="1">IF(AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
+  ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H34,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H34,1))),
+  AND(LEFT(K2,1)+MID(K2,2,1)+MID(K2,3,1)&lt;&gt;MID(K2,3,1)*3)),
+ IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),
+  I2*J34*2,I2*J34
+ ),0
+)</f>
+        <v>4246.6450000000004</v>
+      </c>
+      <c r="O34" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="P34" s="1" t="b">
+        <f>AND(LEFT(K2,1)+MID(K2,2,1)+MID(K2,3,1)&lt;&gt;MID(K2,3,1)*3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="3" t="s">
         <v>37</v>
       </c>
@@ -2948,71 +3190,106 @@
         <v>38</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="I35" s="23"/>
       <c r="J35" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K35" s="21"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="15" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1)))</f>
         <v>1</v>
       </c>
       <c r="M35" s="15" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="1">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1))),IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),I2*J35*2,I2*J35),0)</f>
-        <v>60759.69</v>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O35" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="21"/>
+      <c r="H36" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" s="23"/>
       <c r="J36" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K36" s="21"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <f>IF(AND(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),
+  OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H36,1)),
+  ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H36,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H36,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H36,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H36,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H36,1)))),
+  I2*J36,0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I37" s="21"/>
+      <c r="H37" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K37" s="21"/>
+      <c r="K37" s="23"/>
       <c r="M37" s="15" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D38" s="23"/>
-      <c r="E38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1">
+        <f ca="1">IF(AND(AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1),LEFT(K2,1)&lt;&gt;MID(K2,3,1)),OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H37,1)),
+  ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H37,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H37,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H37,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H37,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H37,1)))),
+ I2*J37,0)</f>
+        <v>4246.58</v>
+      </c>
+      <c r="O37" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D38" s="24"/>
+      <c r="E38" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -3024,26 +3301,26 @@
       <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1">
         <v>7.23</v>
       </c>
-      <c r="K38" s="21"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="15" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1)))</f>
         <v>1</v>
       </c>
       <c r="N38" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1))),I2*J38,0)</f>
-        <v>672.39</v>
+        <v>93.990000000000009</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="3" t="s">
         <v>50</v>
       </c>
@@ -3053,99 +3330,99 @@
       <c r="H39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="1">
         <v>36.29</v>
       </c>
-      <c r="K39" s="21"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="1" t="b">
         <f>OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1))))</f>
         <v>1</v>
       </c>
       <c r="N39" s="1">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1)))),I2*J39,0)</f>
-        <v>3374.97</v>
+        <v>471.77</v>
       </c>
       <c r="O39" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21">
+      <c r="I40" s="23"/>
+      <c r="J40" s="23">
         <v>1960</v>
       </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="18" t="b">
+      <c r="K40" s="23"/>
+      <c r="L40" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H40,1))</f>
         <v>0</v>
       </c>
-      <c r="N40" s="21">
+      <c r="N40" s="23">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H40,1)),ISNUMBER(FIND(MID(K2,3,1),H41,1)),ISNUMBER(FIND(MID(K2,4,1),H42,1))),I2*J40,0)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
+      <c r="O40" s="25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
       <c r="G41" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="18" t="b">
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H41,1))</f>
         <v>1</v>
       </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="22"/>
-    </row>
-    <row r="42" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="25"/>
+    </row>
+    <row r="42" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
       <c r="G42" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="18" t="b">
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H42,1))</f>
         <v>1</v>
       </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="22"/>
-    </row>
-    <row r="43" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="25"/>
+    </row>
+    <row r="43" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="6" t="s">
         <v>41</v>
       </c>
@@ -3155,11 +3432,11 @@
       <c r="H43" s="4">
         <v>456</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="23"/>
       <c r="J43" s="2">
         <v>1960</v>
       </c>
-      <c r="K43" s="21"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;MID(K2,2,3)&amp;",",H43,1))</f>
         <v>0</v>
@@ -3169,16 +3446,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P43" s="1" t="str">
         <f>MID(K2,2,3)</f>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="4:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="6" t="s">
         <v>29</v>
       </c>
@@ -3186,13 +3463,13 @@
         <v>30</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I44" s="21"/>
+        <v>165</v>
+      </c>
+      <c r="I44" s="23"/>
       <c r="J44" s="2">
         <v>1960</v>
       </c>
-      <c r="K44" s="21"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H29,1))</f>
         <v>0</v>
@@ -3202,16 +3479,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P44" s="1">
         <f>SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
       <c r="F45" s="6" t="s">
         <v>32</v>
       </c>
@@ -3219,28 +3496,28 @@
         <v>32</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="I45" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="I45" s="23"/>
       <c r="J45" s="2">
         <v>1960</v>
       </c>
-      <c r="K45" s="21"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="1" t="b">
         <f>ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="15">
-        <f ca="1">IF(ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1)),I2*J45*1,0)</f>
-        <v>182280</v>
+        <f>IF(ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1)),I2*J45*1,0)</f>
+        <v>0</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="4:16" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="23"/>
-      <c r="E46" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -3252,26 +3529,26 @@
       <c r="H46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="21"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K46" s="21"/>
+      <c r="K46" s="23"/>
       <c r="M46" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="15">
-        <f>IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46*2,0),IF(MID(K2,2,1)&lt;&gt;MID(K2,3,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46,0)))</f>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46*2,0),IF(MID(K2,2,1)&lt;&gt;MID(K2,3,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46,0)))</f>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O46" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="6" t="s">
         <v>43</v>
       </c>
@@ -3279,32 +3556,32 @@
         <v>43</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I47" s="21"/>
+        <v>167</v>
+      </c>
+      <c r="I47" s="23"/>
       <c r="J47" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K47" s="21"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="1" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1)),M47)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="15">
-        <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1))),I2*J47,0),0)</f>
-        <v>60759.69</v>
+        <f>IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1))),I2*J47,0),0)</f>
+        <v>0</v>
       </c>
       <c r="O47" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="4:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="6" t="s">
         <v>44</v>
       </c>
@@ -3314,42 +3591,65 @@
       <c r="H48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="21"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K48" s="21"/>
+      <c r="K48" s="23"/>
       <c r="M48" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" s="15">
-        <f>IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,2,1),H48,1)),ISNUMBER(FIND(MID(K2,3,1),H48,1)),ISNUMBER(FIND(MID(K2,4,1),H48,1))),I2*J48,0))</f>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,2,1),H48,1)),ISNUMBER(FIND(MID(K2,3,1),H48,1)),ISNUMBER(FIND(MID(K2,4,1),H48,1))),I2*J48,0))</f>
+        <v>4246.58</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="H49" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="23"/>
       <c r="J49" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K49" s="21"/>
-      <c r="O49"/>
+      <c r="K49" s="23"/>
+      <c r="M49" s="1" t="b">
+        <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H49,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H49,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;MID(K2,4,1),H49,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,2)&amp;MID(K2,2,1),H49,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,2,2),H49,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H49,1))),
+  AND(MID(K2,2,1)+MID(K2,3,1)+MID(K2,4,1)&lt;&gt;MID(K2,3,1)*3)),
+ IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),
+  I2*J49*2,I2*J49
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="50" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="6" t="s">
         <v>37</v>
       </c>
@@ -3359,56 +3659,92 @@
       <c r="H50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="I50" s="23"/>
       <c r="J50" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K50" s="21"/>
+      <c r="K50" s="23"/>
       <c r="M50" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H50,1)),ISNUMBER(FIND(MID(K2,3,1),H50,1)),ISNUMBER(FIND(MID(K2,4,1),H50,1))),IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),I2*J50*2,I2*J50),0)</f>
-        <v>60759.69</v>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O50" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="H51" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I51" s="23"/>
       <c r="J51" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K51" s="21"/>
+      <c r="K51" s="23"/>
+      <c r="N51" s="20">
+        <f>IF(AND(
+ OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H51,1)),
+ ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H51,1)),
+ ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;MID(K2,4,1),H51,1)),
+ ISNUMBER(FIND(","&amp;MID(K2,3,2)&amp;MID(K2,2,1),H51,1)),
+ ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,2,2),H51,1)),
+ ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H51,1))),
+ OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))),
+ I2*J51,0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="52" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
       <c r="F52" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I52" s="21"/>
+      <c r="H52" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I52" s="23"/>
       <c r="J52" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K52" s="21"/>
+      <c r="K52" s="23"/>
+      <c r="N52" s="1">
+        <f ca="1">IF(AND(AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,2,1)&lt;&gt;MID(K2,4,1)),
+  OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H52,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H52,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;MID(K2,4,1),H52,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,2)&amp;MID(K2,2,1),H52,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,2,2),H52,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H52,1)))),
+  I2*J52,0)</f>
+        <v>4246.58</v>
+      </c>
+      <c r="O52" s="21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D53" s="23"/>
-      <c r="E53" s="23" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3420,22 +3756,22 @@
       <c r="H53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="21"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="2">
         <v>7.23</v>
       </c>
-      <c r="K53" s="21"/>
+      <c r="K53" s="23"/>
       <c r="N53" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H53,1)),ISNUMBER(FIND(MID(K2,3,1),H53,1)),ISNUMBER(FIND(MID(K2,4,1),H53,1))),I2*J53,0)</f>
-        <v>672.39</v>
+        <v>93.990000000000009</v>
       </c>
       <c r="O53" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
       <c r="F54" s="6" t="s">
         <v>50</v>
       </c>
@@ -3445,105 +3781,105 @@
       <c r="H54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="21"/>
+      <c r="I54" s="23"/>
       <c r="J54" s="2">
         <v>36.29</v>
       </c>
-      <c r="K54" s="21"/>
+      <c r="K54" s="23"/>
       <c r="N54" s="1">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,4,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,4,1),H54,1)))),I2*J54,0)</f>
-        <v>3374.97</v>
+        <v>471.77</v>
       </c>
       <c r="O54" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="23" t="s">
+      <c r="E55" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="23" t="s">
+      <c r="F55" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21">
+      <c r="I55" s="23"/>
+      <c r="J55" s="23">
         <v>1960</v>
       </c>
-      <c r="K55" s="21"/>
-      <c r="N55" s="21">
+      <c r="K55" s="23"/>
+      <c r="N55" s="23">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,3,1),H55,1)),ISNUMBER(FIND(MID(K2,4,1),H56,1)),ISNUMBER(FIND(MID(K2,5,1),H57,1))),I2*J55,0)</f>
-        <v>182280</v>
-      </c>
-      <c r="O55" s="22" t="s">
-        <v>140</v>
+        <v>25480</v>
+      </c>
+      <c r="O55" s="25" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
       <c r="G56" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="22"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="25"/>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
       <c r="G57" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="N57" s="21"/>
-      <c r="O57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="N57" s="23"/>
+      <c r="O57" s="25"/>
     </row>
     <row r="58" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="21"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="2">
         <v>1960</v>
       </c>
-      <c r="K58" s="21"/>
+      <c r="K58" s="23"/>
       <c r="N58" s="15">
         <f>IF(ISNUMBER(FIND(","&amp;MID(K2,3,3)&amp;",",H58,1)),I2*J58,0)</f>
         <v>0</v>
       </c>
       <c r="O58" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="4:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
       <c r="F59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3553,22 +3889,22 @@
       <c r="H59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="21"/>
+      <c r="I59" s="23"/>
       <c r="J59" s="2">
         <v>1960</v>
       </c>
-      <c r="K59" s="21"/>
+      <c r="K59" s="23"/>
       <c r="N59" s="15">
-        <f>IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H59,1)),I2*J59,0)</f>
-        <v>0</v>
+        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H59,1)),I2*J59,0)</f>
+        <v>25480</v>
       </c>
       <c r="O59" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="6" t="s">
         <v>32</v>
       </c>
@@ -3578,22 +3914,22 @@
       <c r="H60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="21"/>
+      <c r="I60" s="23"/>
       <c r="J60" s="2">
         <v>1960</v>
       </c>
-      <c r="K60" s="21"/>
+      <c r="K60" s="23"/>
       <c r="N60" s="15">
         <f ca="1">IF(ISNUMBER(FIND(MAX(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))-MIN(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),H60,1)),I2*J60*1,0)</f>
-        <v>182280</v>
+        <v>25480</v>
       </c>
       <c r="O60" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="4:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
+      <c r="D61" s="24"/>
+      <c r="E61" s="24" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3605,22 +3941,22 @@
       <c r="H61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="21"/>
+      <c r="I61" s="23"/>
       <c r="J61" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K61" s="21"/>
+      <c r="K61" s="23"/>
       <c r="N61" s="15">
-        <f>IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61*2,0),IF(MID(K2,3,1)&lt;&gt;MID(K2,4,1)&lt;&gt;MID(K2,5,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61,0)))</f>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61*2,0),IF(MID(K2,3,1)&lt;&gt;MID(K2,4,1)&lt;&gt;MID(K2,5,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61,0)))</f>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O61" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
       <c r="F62" s="6" t="s">
         <v>43</v>
       </c>
@@ -3630,22 +3966,22 @@
       <c r="H62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="21"/>
+      <c r="I62" s="23"/>
       <c r="J62" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K62" s="21"/>
+      <c r="K62" s="23"/>
       <c r="N62" s="15">
-        <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(AND(ISNUMBER(FIND(MID(K2,3,1),H62,1)),ISNUMBER(FIND(MID(K2,4,1),H62,1)),ISNUMBER(FIND(MID(K2,5,1),H62,1))),I2*J62,0),0)</f>
-        <v>60759.69</v>
+        <f>IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(AND(ISNUMBER(FIND(MID(K2,3,1),H62,1)),ISNUMBER(FIND(MID(K2,4,1),H62,1)),ISNUMBER(FIND(MID(K2,5,1),H62,1))),I2*J62,0),0)</f>
+        <v>0</v>
       </c>
       <c r="O62" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
       <c r="F63" s="6" t="s">
         <v>44</v>
       </c>
@@ -3655,39 +3991,57 @@
       <c r="H63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="21"/>
+      <c r="I63" s="23"/>
       <c r="J63" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K63" s="21"/>
+      <c r="K63" s="23"/>
       <c r="N63" s="15">
-        <f>IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,3,1),H63,1)),ISNUMBER(FIND(MID(K2,4,1),H63,1)),ISNUMBER(FIND(MID(K2,5,1),H63,1))),I2*J63,0))</f>
-        <v>0</v>
+        <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,3,1),H63,1)),ISNUMBER(FIND(MID(K2,4,1),H63,1)),ISNUMBER(FIND(MID(K2,5,1),H63,1))),I2*J63,0))</f>
+        <v>4246.58</v>
       </c>
       <c r="O63" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
       <c r="F64" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="21"/>
+      <c r="H64" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="I64" s="23"/>
       <c r="J64" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K64" s="21"/>
-      <c r="N64" s="15"/>
-      <c r="O64"/>
+      <c r="K64" s="23"/>
+      <c r="N64" s="15">
+        <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H64,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H64,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,5,1),H64,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,2)&amp;MID(K2,3,1),H64,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,3,2),H64,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H64,1))),
+  AND(MID(K2,3,1)+MID(K2,4,1)+MID(K2,5,1)&lt;&gt;MID(K2,3,1)*3)),
+ IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),
+  I2*J64*2,I2*J64
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="21" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
@@ -3697,56 +4051,98 @@
       <c r="H65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="21"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K65" s="21"/>
+      <c r="K65" s="23"/>
       <c r="N65" s="15">
-        <f>IF(OR(ISNUMBER(FIND(MID(K2,3,1),H65,1)),ISNUMBER(FIND(MID(K2,4,1),H65,1)),ISNUMBER(FIND(MID(K2,5,1),H65,1))),IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),I17*J65*2,I2*J65),0)</f>
-        <v>0</v>
+        <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H65,1)),ISNUMBER(FIND(MID(K2,4,1),H65,1)),ISNUMBER(FIND(MID(K2,5,1),H65,1))),IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),I17*J65*2,I2*J65),0)</f>
+        <v>4246.6450000000004</v>
       </c>
       <c r="O65" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="4:18" ht="15" x14ac:dyDescent="0.15">
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
       <c r="F66" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I66" s="21"/>
+      <c r="H66" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I66" s="23"/>
       <c r="J66" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K66" s="21"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
+      <c r="K66" s="23"/>
+      <c r="N66" s="20">
+        <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H66,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H66,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,5,1),H66,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,2)&amp;MID(K2,3,1),H66,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,3,2),H66,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H66,1))),
+  OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)))),
+ I2*J66,0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>11356</v>
+      </c>
+      <c r="R66" s="27" t="str">
+        <f>IF(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))&lt;5,"有","无")</f>
+        <v>有</v>
+      </c>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D67" s="23"/>
-      <c r="E67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
       <c r="F67" s="6" t="s">
         <v>47</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I67" s="21"/>
+      <c r="H67" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I67" s="23"/>
       <c r="J67" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K67" s="21"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
+      <c r="K67" s="23"/>
+      <c r="N67" s="20">
+        <f>IF(AND(AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1),MID(K2,3,1)&lt;&gt;MID(K2,5,1)),
+  OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H67,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H67,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,5,1),H67,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,4,2)&amp;MID(K2,3,1),H67,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,3,2),H67,1)),
+  ISNUMBER(FIND(","&amp;MID(K2,5,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H67,1)))),
+  I2*J67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q67" s="1">
+        <f>SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D68" s="23"/>
-      <c r="E68" s="23" t="s">
+      <c r="D68" s="24"/>
+      <c r="E68" s="24" t="s">
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -3758,22 +4154,22 @@
       <c r="H68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="21"/>
+      <c r="I68" s="23"/>
       <c r="J68" s="2">
         <v>7.23</v>
       </c>
-      <c r="K68" s="21"/>
-      <c r="N68" s="15">
+      <c r="K68" s="23"/>
+      <c r="N68" s="20">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H68,1)),ISNUMBER(FIND(MID(K2,4,1),H68,1)),ISNUMBER(FIND(MID(K2,5,1),H68,1))),I2*J68,0)</f>
-        <v>672.39</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>139</v>
+        <v>93.990000000000009</v>
+      </c>
+      <c r="O68" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="6" t="s">
         <v>50</v>
       </c>
@@ -3783,118 +4179,118 @@
       <c r="H69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="21"/>
+      <c r="I69" s="23"/>
       <c r="J69" s="2">
         <v>36.29</v>
       </c>
-      <c r="K69" s="21"/>
-      <c r="N69" s="15">
+      <c r="K69" s="23"/>
+      <c r="N69" s="20">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,5,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,5,1),H69,1)))),I2*J69,0)</f>
-        <v>3374.97</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>139</v>
+        <v>471.77</v>
+      </c>
+      <c r="O69" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="E70" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="22" t="s">
         <v>55</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21">
+        <v>175</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23">
         <v>19600</v>
       </c>
-      <c r="K70" s="21"/>
+      <c r="K70" s="23"/>
       <c r="L70" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H70,1))</f>
         <v>1</v>
       </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="21">
+      <c r="M70" s="17"/>
+      <c r="N70" s="23">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H70,1)),ISNUMBER(FIND(MID(K2,3,1),H71,1)),ISNUMBER(FIND(MID(K2,4,1),H72,1)),ISNUMBER(FIND(RIGHT(K2,1),H73,1))),I2*J70,0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="22" t="s">
-        <v>179</v>
+      <c r="O70" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
       <c r="L71" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H71,1))</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="21"/>
-      <c r="O71" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="M71" s="17"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="25"/>
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
+        <v>172</v>
+      </c>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H72,1))</f>
-        <v>1</v>
-      </c>
-      <c r="M72" s="18"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="17"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="25"/>
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
       <c r="G73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
+        <v>173</v>
+      </c>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
       <c r="L73" s="15" t="b">
         <f>ISNUMBER(FIND(RIGHT(K2,1),H73,1))</f>
         <v>1</v>
       </c>
-      <c r="N73" s="21"/>
-      <c r="O73" s="22"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="25"/>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
       <c r="F74" s="9" t="s">
         <v>56</v>
       </c>
@@ -3904,26 +4300,26 @@
       <c r="H74" s="4">
         <v>7113</v>
       </c>
-      <c r="I74" s="21"/>
+      <c r="I74" s="23"/>
       <c r="J74" s="2">
         <v>19600</v>
       </c>
-      <c r="K74" s="21"/>
+      <c r="K74" s="23"/>
       <c r="L74" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;RIGHT(K2,4)&amp;",",H74,1))</f>
         <v>0</v>
       </c>
-      <c r="N74" s="15">
+      <c r="N74" s="20">
         <f>IF(ISNUMBER(FIND(","&amp;RIGHT(K2,4)&amp;",",H74,1)),I2*J74,0)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="14" t="s">
-        <v>139</v>
+      <c r="O74" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D75" s="20"/>
-      <c r="E75" s="20" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -3933,32 +4329,32 @@
         <v>60</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="I75" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="I75" s="23"/>
       <c r="J75" s="1">
         <v>816.66</v>
       </c>
-      <c r="K75" s="21"/>
+      <c r="K75" s="23"/>
       <c r="L75" s="15" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1)))</f>
         <v>1</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="20">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1))),I2*J75,0)</f>
-        <v>75949.37999999999</v>
-      </c>
-      <c r="O75" s="14" t="s">
-        <v>179</v>
+        <v>10616.58</v>
+      </c>
+      <c r="O75" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="P75" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22" t="s">
         <v>61</v>
       </c>
       <c r="G76" s="9" t="s">
@@ -3967,16 +4363,16 @@
       <c r="H76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21">
+      <c r="I76" s="23"/>
+      <c r="J76" s="23">
         <v>1633.33</v>
       </c>
-      <c r="K76" s="21"/>
-      <c r="M76" s="21" t="b">
+      <c r="K76" s="23"/>
+      <c r="M76" s="23" t="b">
         <f>EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="21">
+      <c r="N76" s="23">
         <f>IF(
  EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1),
   IF(
@@ -4024,30 +4420,30 @@
  )</f>
         <v>0</v>
       </c>
-      <c r="O76" s="22" t="s">
-        <v>181</v>
+      <c r="O76" s="25" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
       <c r="G77" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="22"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="25"/>
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="9" t="s">
         <v>64</v>
       </c>
@@ -4057,11 +4453,11 @@
       <c r="H78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="21"/>
+      <c r="I78" s="23"/>
       <c r="J78" s="1">
         <v>3266.66</v>
       </c>
-      <c r="K78" s="21"/>
+      <c r="K78" s="23"/>
       <c r="N78" s="15">
         <f>IF(
  OR(
@@ -4079,15 +4475,15 @@
         <v>0</v>
       </c>
       <c r="O78" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P78" s="15"/>
       <c r="R78" s="15"/>
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="9" t="s">
@@ -4096,13 +4492,13 @@
       <c r="H79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="21"/>
-      <c r="J79" s="21">
+      <c r="I79" s="23"/>
+      <c r="J79" s="23">
         <v>4900</v>
       </c>
-      <c r="K79" s="21"/>
-      <c r="N79" s="21">
-        <f ca="1">IF(
+      <c r="K79" s="23"/>
+      <c r="N79" s="23">
+        <f>IF(
  OR(
   AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),
   AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)=MID(K2,5,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),
@@ -4118,34 +4514,34 @@
   ),I2*J79,0
  ),0
 )</f>
-        <v>455700</v>
-      </c>
-      <c r="O79" s="22" t="s">
-        <v>181</v>
+        <v>0</v>
+      </c>
+      <c r="O79" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="P79" s="15"/>
       <c r="R79" s="15"/>
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
       <c r="G80" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="21"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="22"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="25"/>
       <c r="P80" s="15"/>
     </row>
     <row r="81" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D81" s="20"/>
-      <c r="E81" s="20" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="22" t="s">
         <v>68</v>
       </c>
       <c r="F81" s="9" t="s">
@@ -4157,23 +4553,23 @@
       <c r="H81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="21"/>
+      <c r="I81" s="23"/>
       <c r="J81" s="1">
         <v>5.69</v>
       </c>
-      <c r="K81" s="21"/>
+      <c r="K81" s="23"/>
       <c r="N81" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H81,1)),ISNUMBER(FIND(MID(K2,3,1),H81,1)),ISNUMBER(FIND(MID(K2,4,1),H81,1)),ISNUMBER(FIND(MID(K2,5,1),H81,1))),I2*J81,0)</f>
-        <v>529.17000000000007</v>
+        <v>73.97</v>
       </c>
       <c r="O81" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P81" s="15"/>
     </row>
     <row r="82" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
       <c r="F82" s="9" t="s">
         <v>70</v>
       </c>
@@ -4183,11 +4579,11 @@
       <c r="H82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="21"/>
+      <c r="I82" s="23"/>
       <c r="J82" s="1">
         <v>20.12</v>
       </c>
-      <c r="K82" s="21"/>
+      <c r="K82" s="23"/>
       <c r="N82" s="15">
         <f ca="1">IF(
  OR(
@@ -4199,21 +4595,21 @@
   AND(ISNUMBER(FIND(MID(K2,4,1),H82,1)),ISNUMBER(FIND(MID(K2,5,1),H82,1)))
  ),I2*J69,0
 )</f>
-        <v>3374.97</v>
+        <v>471.77</v>
       </c>
       <c r="O82" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P82" s="15"/>
     </row>
     <row r="83" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D83" s="20" t="s">
+      <c r="D83" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="22" t="s">
         <v>74</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4222,91 +4618,91 @@
       <c r="H83" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="21"/>
-      <c r="J83" s="21">
+      <c r="I83" s="23"/>
+      <c r="J83" s="23">
         <v>196000</v>
       </c>
-      <c r="K83" s="21"/>
-      <c r="N83" s="21">
+      <c r="K83" s="23"/>
+      <c r="N83" s="23">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H83,1)),ISNUMBER(FIND(MID(K2,2,1),H84,1)),ISNUMBER(FIND(MID(K2,3,1),H85,1)),ISNUMBER(FIND(MID(K2,4,1),H86,1)),ISNUMBER(FIND(RIGHT(K2,1),H87,1))),I2*J83,0)</f>
-        <v>18228000</v>
-      </c>
-      <c r="O83" s="22" t="s">
-        <v>184</v>
+        <v>2548000</v>
+      </c>
+      <c r="O83" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="P83" s="15"/>
     </row>
     <row r="84" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
       <c r="G84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="21"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="22"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="N84" s="23"/>
+      <c r="O84" s="25"/>
       <c r="P84" s="15"/>
     </row>
     <row r="85" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
       <c r="G85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="21"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="22"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="25"/>
       <c r="P85" s="15"/>
     </row>
     <row r="86" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
       <c r="G86" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="21"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="22"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="25"/>
       <c r="P86" s="15"/>
     </row>
     <row r="87" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
       <c r="G87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="21"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="22"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="25"/>
       <c r="P87" s="15"/>
     </row>
     <row r="88" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
       <c r="F88" s="9" t="s">
         <v>75</v>
       </c>
@@ -4314,25 +4710,25 @@
         <v>76</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="I88" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="I88" s="23"/>
       <c r="J88" s="1">
         <v>196000</v>
       </c>
-      <c r="K88" s="21"/>
+      <c r="K88" s="23"/>
       <c r="N88" s="15">
-        <f ca="1">IF(ISNUMBER(FIND(","&amp;K2&amp;",",H88,1)),I2*J88,0)</f>
-        <v>18228000</v>
+        <f>IF(ISNUMBER(FIND(","&amp;K2&amp;",",H88,1)),I2*J88,0)</f>
+        <v>0</v>
       </c>
       <c r="O88" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P88" s="15"/>
     </row>
     <row r="89" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D89" s="20"/>
-      <c r="E89" s="20" t="s">
+      <c r="D89" s="22"/>
+      <c r="E89" s="22" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -4344,24 +4740,24 @@
       <c r="H89" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="21"/>
+      <c r="I89" s="23"/>
       <c r="J89" s="1">
         <v>1633.33</v>
       </c>
-      <c r="K89" s="21"/>
+      <c r="K89" s="23"/>
       <c r="N89" s="15">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H89,1)),ISNUMBER(FIND(MID(K2,2,1),H89,1)),ISNUMBER(FIND(MID(K2,3,1),H89,1)),ISNUMBER(FIND(MID(K2,4,1),H89,1)),ISNUMBER(FIND(MID(K2,5,1),H89,1))),I2*J89,0)</f>
-        <v>151899.69</v>
+        <v>21233.29</v>
       </c>
       <c r="O89" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P89" s="15"/>
     </row>
     <row r="90" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D90" s="20"/>
-      <c r="E90" s="20"/>
-      <c r="F90" s="20" t="s">
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G90" s="9" t="s">
@@ -4370,40 +4766,50 @@
       <c r="H90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21">
+      <c r="I90" s="23"/>
+      <c r="J90" s="23">
         <v>3266.66</v>
       </c>
-      <c r="K90" s="21"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="15"/>
+      <c r="K90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23">
+        <v>66666</v>
+      </c>
+      <c r="P90" s="15" t="str">
+        <f>IF(MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),-MID(O90,{1,2,3,4,5},1)))=1,"组六","组三")</f>
+        <v>组三</v>
+      </c>
+      <c r="Q90" s="1">
+        <f>MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),-MID(O90,{1,2,3,4,5},1)))</f>
+        <v>5</v>
+      </c>
       <c r="R90" s="1">
         <v>11112</v>
       </c>
     </row>
     <row r="91" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="21"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="O91" s="21"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
       <c r="R91" s="1">
         <v>11121</v>
       </c>
     </row>
     <row r="92" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20" t="s">
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="9" t="s">
@@ -4412,38 +4818,40 @@
       <c r="H92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="21"/>
-      <c r="J92" s="21">
+      <c r="I92" s="23"/>
+      <c r="J92" s="23">
         <v>6533.33</v>
       </c>
-      <c r="K92" s="21"/>
-      <c r="O92" s="21"/>
+      <c r="K92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
       <c r="R92" s="1">
         <v>11211</v>
       </c>
     </row>
     <row r="93" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="21"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="O93" s="21"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
       <c r="R93" s="1">
         <v>12111</v>
       </c>
     </row>
     <row r="94" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20" t="s">
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G94" s="9" t="s">
@@ -4452,35 +4860,37 @@
       <c r="H94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="21"/>
-      <c r="J94" s="21">
+      <c r="I94" s="23"/>
+      <c r="J94" s="23">
         <v>9800</v>
       </c>
-      <c r="K94" s="21"/>
-      <c r="O94" s="21"/>
+      <c r="K94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
       <c r="R94" s="1">
         <v>21111</v>
       </c>
     </row>
     <row r="95" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
       <c r="G95" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="21"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="O95" s="21"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
     </row>
     <row r="96" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20" t="s">
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22" t="s">
         <v>82</v>
       </c>
       <c r="G96" s="9" t="s">
@@ -4489,32 +4899,34 @@
       <c r="H96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="21"/>
-      <c r="J96" s="21">
+      <c r="I96" s="23"/>
+      <c r="J96" s="23">
         <v>19600</v>
       </c>
-      <c r="K96" s="21"/>
-      <c r="O96" s="21"/>
-    </row>
-    <row r="97" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
+      <c r="K96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
       <c r="G97" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I97" s="21"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="O97" s="21"/>
-    </row>
-    <row r="98" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-      <c r="F98" s="20" t="s">
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22" t="s">
         <v>83</v>
       </c>
       <c r="G98" s="9" t="s">
@@ -4523,31 +4935,33 @@
       <c r="H98" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="21"/>
-      <c r="J98" s="21">
+      <c r="I98" s="23"/>
+      <c r="J98" s="23">
         <v>39200</v>
       </c>
-      <c r="K98" s="21"/>
-      <c r="O98" s="21"/>
-    </row>
-    <row r="99" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
+      <c r="K98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
       <c r="G99" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="21"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="O99" s="21"/>
-    </row>
-    <row r="100" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D100" s="20"/>
-      <c r="E100" s="20" t="s">
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="23"/>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D100" s="22"/>
+      <c r="E100" s="22" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -4559,22 +4973,22 @@
       <c r="H100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="21"/>
+      <c r="I100" s="23"/>
       <c r="J100" s="1">
         <v>4.78</v>
       </c>
-      <c r="K100" s="21"/>
+      <c r="K100" s="23"/>
       <c r="N100" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H100,1)),ISNUMBER(FIND(MID(K2,2,1),H100,1)),ISNUMBER(FIND(MID(K2,3,1),H100,1)),ISNUMBER(FIND(MID(K2,4,1),H100,1)),ISNUMBER(FIND(MID(K2,5,1),H100,1))),I2*J100,0)</f>
-        <v>444.54</v>
+        <v>62.14</v>
       </c>
       <c r="O100" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="101" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="9" t="s">
         <v>91</v>
       </c>
@@ -4584,11 +4998,11 @@
       <c r="H101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I101" s="21"/>
+      <c r="I101" s="23"/>
       <c r="J101" s="1">
         <v>13.36</v>
       </c>
-      <c r="K101" s="21"/>
+      <c r="K101" s="23"/>
       <c r="N101" s="10">
         <f ca="1">IF(
   SUM(IF(ISNUMBER(FIND(MID(K2,1,1),H101,1)),1,0),
@@ -4597,18 +5011,18 @@
    IF(ISNUMBER(FIND(MID(K2,4,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,5,1),H101,1)),1,0)
   )&gt;=2,I2*J101,0)</f>
-        <v>1242.48</v>
+        <v>173.68</v>
       </c>
       <c r="O101" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P101" s="16" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
       <c r="F102" s="9" t="s">
         <v>92</v>
       </c>
@@ -4618,16 +5032,16 @@
       <c r="H102" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="21"/>
+      <c r="I102" s="23"/>
       <c r="J102" s="1">
         <v>45.05</v>
       </c>
-      <c r="K102" s="21"/>
+      <c r="K102" s="23"/>
       <c r="N102" s="10"/>
     </row>
-    <row r="103" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D103" s="20"/>
-      <c r="E103" s="20" t="s">
+    <row r="103" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D103" s="22"/>
+      <c r="E103" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -4639,22 +5053,22 @@
       <c r="H103" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="21"/>
+      <c r="I103" s="23"/>
       <c r="J103" s="1">
         <v>4.78</v>
       </c>
-      <c r="K103" s="21"/>
+      <c r="K103" s="23"/>
       <c r="N103" s="1">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H103,1)),ISNUMBER(FIND(MID(K2,2,1),H103,1)),ISNUMBER(FIND(MID(K2,3,1),H103,1)),ISNUMBER(FIND(MID(K2,4,1),H103,1)),ISNUMBER(FIND(MID(K2,5,1),H103,1))),I2*J103,0)</f>
-        <v>444.54</v>
+        <v>62.14</v>
       </c>
       <c r="O103" s="14" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="104" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
       <c r="F104" s="9" t="s">
         <v>96</v>
       </c>
@@ -4664,15 +5078,15 @@
       <c r="H104" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="21"/>
+      <c r="I104" s="23"/>
       <c r="J104" s="1">
         <v>24.06</v>
       </c>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
+      <c r="K104" s="23"/>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
       <c r="F105" s="9" t="s">
         <v>97</v>
       </c>
@@ -4682,15 +5096,15 @@
       <c r="H105" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I105" s="21"/>
+      <c r="I105" s="23"/>
       <c r="J105" s="1">
         <v>228.97</v>
       </c>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
+      <c r="K105" s="23"/>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="9" t="s">
         <v>98</v>
       </c>
@@ -4700,94 +5114,178 @@
       <c r="H106" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="21"/>
+      <c r="I106" s="23"/>
       <c r="J106" s="1">
         <v>4260.8599999999997</v>
       </c>
-      <c r="K106" s="21"/>
+      <c r="K106" s="23"/>
       <c r="P106" s="16"/>
     </row>
-    <row r="107" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="107" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D107" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="E107" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="20" t="s">
+      <c r="F107" s="22" t="s">
         <v>101</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>102</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I107" s="21"/>
-      <c r="J107" s="21">
+        <v>187</v>
+      </c>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23">
         <v>7.84</v>
       </c>
-      <c r="K107" s="21"/>
+      <c r="K107" s="23"/>
       <c r="L107" s="15" t="b">
-        <f>AND(INT((LEFT(K2,1)))&lt;=4,ISNUMBER(FIND("小",H107,1)))</f>
-        <v>1</v>
+        <f>IF(INT(LEFT(K2,1))&lt;5,
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("单",H107,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("双",H107,1))),TRUE,FALSE)),
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H107,1)),ISNUMBER(FIND("单",H107,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H107,1)),ISNUMBER(FIND("双",H107,1))),TRUE,FALSE))
+)</f>
+        <v>0</v>
       </c>
       <c r="M107" s="16"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="21"/>
-    </row>
-    <row r="108" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
+      <c r="N107" s="22">
+        <f>IF(IF(INT(LEFT(K2,1))&lt;5,
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("单",H107,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("双",H107,1))),1,0)),
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H107,1)),ISNUMBER(FIND("单",H107,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H107,1)),ISNUMBER(FIND("双",H107,1))),1,0))
+)+IF(INT(MID(K2,2,1))&lt;5,
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H108,1)),ISNUMBER(FIND("单",H108,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H108,1)),ISNUMBER(FIND("双",H108,1))),1,0)),
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H108,1)),ISNUMBER(FIND("单",H108,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H108,1)),ISNUMBER(FIND("双",H108,1))),1,0))
+)=2,I2*J107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O107" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="P107" s="20"/>
+      <c r="Q107" s="20"/>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="9" t="s">
         <v>103</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I108" s="21"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
+        <v>188</v>
+      </c>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
       <c r="L108" s="1" t="b">
-        <f>AND(INT((LEFT(K2,1)))&lt;=4,ISNUMBER(FIND("小",H108,1)))</f>
+        <f>IF(INT(MID(K2,2,1))&lt;5,
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H108,1)),ISNUMBER(FIND("单",H108,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H108,1)),ISNUMBER(FIND("双",H108,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H108,1)),ISNUMBER(FIND("单",H108,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H108,1)),ISNUMBER(FIND("双",H108,1))),TRUE,FALSE))
+)</f>
         <v>1</v>
       </c>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
-    </row>
-    <row r="109" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E109" s="20"/>
-      <c r="F109" s="20" t="s">
+      <c r="N108" s="22"/>
+      <c r="O108" s="25"/>
+      <c r="Q108" s="20"/>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E109" s="22"/>
+      <c r="F109" s="22" t="s">
         <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>106</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I109" s="21"/>
-      <c r="J109" s="21">
+        <v>191</v>
+      </c>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23">
         <v>7.84</v>
       </c>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="1" t="b">
+        <f>IF(INT(MID(K2,4,1))&lt;5,
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("单",H109,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("双",H109,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H109,1)),ISNUMBER(FIND("单",H109,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H109,1)),ISNUMBER(FIND("双",H109,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N109" s="23">
+        <f>IF(IF(INT(MID(K2,4,1))&lt;5,
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("单",H109,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("双",H109,1))),1,0)),
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H109,1)),ISNUMBER(FIND("单",H109,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H109,1)),ISNUMBER(FIND("双",H109,1))),1,0))
+)+IF(INT(MID(K2,5,1))&lt;5,
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H110,1)),ISNUMBER(FIND("单",H110,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H110,1)),ISNUMBER(FIND("双",H110,1))),1,0)),
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("单",H110,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("双",H110,1))),1,0))
+)=2,I2*J109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O109" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="P109" s="20"/>
+      <c r="Q109" s="20"/>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
       <c r="G110" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="I110" s="21"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E111" s="20"/>
-      <c r="F111" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="1" t="b">
+        <f>IF(INT(MID(K2,5,1))&lt;5,
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H110,1)),ISNUMBER(FIND("单",H110,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H110,1)),ISNUMBER(FIND("双",H110,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("单",H110,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("双",H110,1))),TRUE,FALSE))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="23"/>
+      <c r="O110" s="25"/>
+      <c r="Q110" s="20"/>
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E111" s="22"/>
+      <c r="F111" s="22" t="s">
         <v>108</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -4796,41 +5294,106 @@
       <c r="H111" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I111" s="21"/>
-      <c r="J111" s="21">
+      <c r="I111" s="23"/>
+      <c r="J111" s="23">
         <v>15.68</v>
       </c>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="4:16" x14ac:dyDescent="0.15">
-      <c r="E112" s="20"/>
-      <c r="F112" s="20"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="1" t="b">
+        <f>IF(INT(LEFT(K2,1))&lt;5,
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("单",H111,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("双",H111,1))),TRUE,FALSE)),
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H111,1)),ISNUMBER(FIND("单",H111,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H111,1)),ISNUMBER(FIND("双",H111,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N111" s="23">
+        <f ca="1">IF(IF(INT(LEFT(K2,1))&lt;5,
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("单",H111,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("双",H111,1))),1,0)),
+ IF(MOD(LEFT(K2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H111,1)),ISNUMBER(FIND("单",H111,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H111,1)),ISNUMBER(FIND("双",H111,1))),1,0))
+)+IF(INT(MID(K2,2,1))&lt;5,
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H112,1)),ISNUMBER(FIND("单",H112,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H112,1)),ISNUMBER(FIND("双",H112,1))),1,0)),
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H112,1)),ISNUMBER(FIND("单",H112,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H112,1)),ISNUMBER(FIND("双",H112,1))),1,0))
+)+IF(INT(MID(K2,3,1))&lt;5,
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H113,1)),ISNUMBER(FIND("单",H113,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H113,1)),ISNUMBER(FIND("双",H113,1))),1,0)),
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("单",H113,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("双",H113,1))),1,0))
+)=3,I2*J111,0)</f>
+        <v>203.84</v>
+      </c>
+      <c r="O111" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
       <c r="G112" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I112" s="21"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E113" s="20"/>
-      <c r="F113" s="20"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="20" t="b">
+        <f>IF(INT(MID(K2,2,1))&lt;5,
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H112,1)),ISNUMBER(FIND("单",H112,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H112,1)),ISNUMBER(FIND("双",H112,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H112,1)),ISNUMBER(FIND("单",H112,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H112,1)),ISNUMBER(FIND("双",H112,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N112" s="23"/>
+      <c r="O112" s="25"/>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
       <c r="G113" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I113" s="21"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E114" s="20"/>
-      <c r="F114" s="20" t="s">
+      <c r="I113" s="23"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="23"/>
+      <c r="L113" s="1" t="b">
+        <f>IF(INT(MID(K2,3,1))&lt;5,
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H113,1)),ISNUMBER(FIND("单",H113,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H113,1)),ISNUMBER(FIND("双",H113,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("单",H113,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("双",H113,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N113" s="23"/>
+      <c r="O113" s="25"/>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E114" s="22"/>
+      <c r="F114" s="22" t="s">
         <v>52</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -4839,472 +5402,644 @@
       <c r="H114" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I114" s="21"/>
-      <c r="J114" s="21">
+      <c r="I114" s="23"/>
+      <c r="J114" s="23">
         <v>15.68</v>
       </c>
-      <c r="K114" s="21"/>
-    </row>
-    <row r="115" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="20" t="b">
+        <f>IF(INT(MID(K2,3,1))&lt;5,
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("单",H114,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("双",H114,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H114,1)),ISNUMBER(FIND("单",H114,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H114,1)),ISNUMBER(FIND("双",H114,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N114" s="23">
+        <f ca="1">IF(IF(INT(MID(K2,3,1))&lt;5,
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("单",H114,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("双",H114,1))),1,0)),
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H114,1)),ISNUMBER(FIND("单",H114,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H114,1)),ISNUMBER(FIND("双",H114,1))),1,0))
+)+IF(INT(MID(K2,4,1))&lt;5,
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H115,1)),ISNUMBER(FIND("单",H115,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H115,1)),ISNUMBER(FIND("双",H115,1))),1,0)),
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H115,1)),ISNUMBER(FIND("单",H115,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H115,1)),ISNUMBER(FIND("双",H115,1))),1,0))
+)+IF(INT(MID(K2,5,1))&lt;5,
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H116,1)),ISNUMBER(FIND("单",H116,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H116,1)),ISNUMBER(FIND("双",H116,1))),1,0)),
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("单",H116,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("双",H116,1))),1,0))
+)=3,I2*J114,0)</f>
+        <v>203.84</v>
+      </c>
+      <c r="O114" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
       <c r="G115" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
+      <c r="I115" s="23"/>
+      <c r="J115" s="23"/>
+      <c r="K115" s="23"/>
+      <c r="L115" s="20" t="b">
+        <f>IF(INT(MID(K2,4,1))&lt;5,
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H115,1)),ISNUMBER(FIND("单",H115,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H115,1)),ISNUMBER(FIND("双",H115,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H115,1)),ISNUMBER(FIND("单",H115,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H115,1)),ISNUMBER(FIND("双",H115,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N115" s="23"/>
+      <c r="O115" s="25"/>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
       <c r="G116" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I116" s="21"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D117" s="21" t="s">
+      <c r="I116" s="23"/>
+      <c r="J116" s="23"/>
+      <c r="K116" s="23"/>
+      <c r="L116" s="20" t="b">
+        <f>IF(INT(MID(K2,5,1))&lt;5,
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("小",H116,1)),ISNUMBER(FIND("单",H116,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("小",H116,1)),ISNUMBER(FIND("双",H116,1))),TRUE,FALSE)),
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("单",H116,1))),TRUE,FALSE),
+   IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("双",H116,1))),TRUE,FALSE))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="N116" s="23"/>
+      <c r="O116" s="25"/>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D117" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="E117" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F117" s="20" t="s">
+      <c r="E117" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F117" s="22" t="s">
         <v>114</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H117" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I117" s="21"/>
-      <c r="J117" s="21">
+      <c r="H117" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="I117" s="23"/>
+      <c r="J117" s="23">
         <v>1.96</v>
       </c>
-      <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D118" s="21"/>
-      <c r="E118" s="20"/>
-      <c r="F118" s="20"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="1">
+        <f>IF(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&lt;23,
+ IF(MOD(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),2)=1,
+  IF(OR(ISNUMBER(FIND("和小",H117,1)),ISNUMBER(FIND("和单",H117,1))),1,0),
+  IF(OR(ISNUMBER(FIND("和小",H117,1)),ISNUMBER(FIND("和双",H117,1))),1,0)),
+ IF(MOD(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),2)=1,
+  IF(OR(ISNUMBER(FIND("和大",H117,1)),ISNUMBER(FIND("和单",H117,1))),1,0),
+  IF(OR(ISNUMBER(FIND("和大",H117,1)),ISNUMBER(FIND("和双",H117,1))),1,0))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23">
+        <f ca="1">IF(SUM(L117:L122)&gt;0,SUM(L117:L122)*I2*J117,0)</f>
+        <v>101.92</v>
+      </c>
+      <c r="O117" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D118" s="23"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I118" s="21"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D119" s="21"/>
-      <c r="E119" s="20"/>
-      <c r="F119" s="20"/>
+        <v>194</v>
+      </c>
+      <c r="I118" s="23"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="23"/>
+      <c r="L118" s="1">
+        <f>IF(INT(LEFT(K2,1))&lt;5,
+  IF(MOD(MID(K2,1,1),2)=1,
+   IF(OR(MID(K2,1,1)=1,MID(K2,1,1)=2,MID(K2,1,1)=3,MID(K2,1,1)=5,MID(K2,1,1)=7),
+    IF(OR(ISNUMBER(FIND("小",H118,1)),ISNUMBER(FIND("单",H118,1)),ISNUMBER(FIND("质",H118,1))),1,0),
+    IF(OR(ISNUMBER(FIND("小",H118,1)),ISNUMBER(FIND("单",H118,1)),ISNUMBER(FIND("合",H118,1))),1,0)),
+   IF(OR(MID(K2,1,1)=1,MID(K2,1,1)=2,MID(K2,1,1)=3,MID(K2,1,1)=5,MID(K2,1,1)=7),
+    IF(OR(ISNUMBER(FIND("小",H118,1)),ISNUMBER(FIND("双",H118,1)),ISNUMBER(FIND("质",H118,1))),1,0),
+    IF(OR(ISNUMBER(FIND("小",H118,1)),ISNUMBER(FIND("双",H118,1)),ISNUMBER(FIND("合",H118,1))),1,0))),
+  IF(MOD(MID(K2,1,1),2)=1,
+   IF(OR(MID(K2,1,1)=1,MID(K2,1,1)=2,MID(K2,1,1)=3,MID(K2,1,1)=5,MID(K2,1,1)=7),
+    IF(OR(ISNUMBER(FIND("大",H118,1)),ISNUMBER(FIND("单",H118,1)),ISNUMBER(FIND("质",H118,1))),1,0),
+    IF(OR(ISNUMBER(FIND("大",H118,1)),ISNUMBER(FIND("单",H118,1)),ISNUMBER(FIND("合",H118,1))),1,0)),
+   IF(OR(MID(K2,1,1)=1,MID(K2,1,1)=2,MID(K2,1,1)=3,MID(K2,1,1)=5,MID(K2,1,1)=7),
+    IF(OR(ISNUMBER(FIND("大",H118,1)),ISNUMBER(FIND("双",H118,1)),ISNUMBER(FIND("质",H118,1))),1,0),
+    IF(OR(ISNUMBER(FIND("大",H118,1)),ISNUMBER(FIND("双",H118,1)),ISNUMBER(FIND("合",H118,1))),1,0)))
+ )</f>
+        <v>1</v>
+      </c>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="25"/>
+    </row>
+    <row r="119" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D119" s="23"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
       <c r="G119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D120" s="21"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
+        <v>195</v>
+      </c>
+      <c r="I119" s="23"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="23"/>
+      <c r="L119" s="1">
+        <f>IF(INT(MID(K2,2,1))&lt;5,
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(MID(K2,2,1)=1,MID(K2,2,1)=2,MID(K2,2,1)=3,MID(K2,2,1)=5,MID(K2,2,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H119,1)),ISNUMBER(FIND("单",H119,1)),ISNUMBER(FIND("质",H119,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H119,1)),ISNUMBER(FIND("单",H119,1)),ISNUMBER(FIND("合",H119,1))),1,0)),
+  IF(OR(MID(K2,2,1)=1,MID(K2,2,1)=2,MID(K2,2,1)=3,MID(K2,2,1)=5,MID(K2,2,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("质",H119,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("合",H119,1))),1,0))),
+ IF(MOD(MID(K2,2,1),2)=1,
+  IF(OR(MID(K2,2,1)=1,MID(K2,2,1)=2,MID(K2,2,1)=3,MID(K2,2,1)=5,MID(K2,2,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("单",H119,1)),ISNUMBER(FIND("质",H119,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("单",H119,1)),ISNUMBER(FIND("合",H119,1))),1,0)),
+  IF(OR(MID(K2,2,1)=1,MID(K2,2,1)=2,MID(K2,2,1)=3,MID(K2,2,1)=5,MID(K2,2,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("质",H119,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("合",H119,1))),1,0)))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="25"/>
+    </row>
+    <row r="120" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D120" s="23"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
       <c r="G120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I120" s="21"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
+        <v>117</v>
+      </c>
+      <c r="I120" s="23"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="23"/>
+      <c r="L120" s="1">
+        <f>IF(INT(MID(K2,3,1))&lt;5,
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(MID(K2,3,1)=1,MID(K2,3,1)=2,MID(K2,3,1)=3,MID(K2,3,1)=5,MID(K2,3,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H120,1)),ISNUMBER(FIND("单",H120,1)),ISNUMBER(FIND("质",H120,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H120,1)),ISNUMBER(FIND("单",H120,1)),ISNUMBER(FIND("合",H120,1))),1,0)),
+  IF(OR(MID(K2,3,1)=1,MID(K2,3,1)=2,MID(K2,3,1)=3,MID(K2,3,1)=5,MID(K2,3,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H120,1)),ISNUMBER(FIND("双",H120,1)),ISNUMBER(FIND("质",H120,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H120,1)),ISNUMBER(FIND("双",H120,1)),ISNUMBER(FIND("合",H120,1))),1,0))),
+ IF(MOD(MID(K2,3,1),2)=1,
+  IF(OR(MID(K2,3,1)=1,MID(K2,3,1)=2,MID(K2,3,1)=3,MID(K2,3,1)=5,MID(K2,3,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H120,1)),ISNUMBER(FIND("单",H120,1)),ISNUMBER(FIND("质",H120,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H120,1)),ISNUMBER(FIND("单",H120,1)),ISNUMBER(FIND("合",H120,1))),1,0)),
+  IF(OR(MID(K2,3,1)=1,MID(K2,3,1)=2,MID(K2,3,1)=3,MID(K2,3,1)=5,MID(K2,3,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H120,1)),ISNUMBER(FIND("双",H120,1)),ISNUMBER(FIND("质",H120,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H120,1)),ISNUMBER(FIND("双",H120,1)),ISNUMBER(FIND("合",H120,1))),1,0)))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="25"/>
+    </row>
+    <row r="121" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D121" s="23"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
       <c r="G121" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I121" s="21"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
+        <v>186</v>
+      </c>
+      <c r="I121" s="23"/>
+      <c r="J121" s="23"/>
+      <c r="K121" s="23"/>
+      <c r="L121" s="1">
+        <f>IF(INT(MID(K2,4,1))&lt;5,
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(MID(K2,4,1)=1,MID(K2,4,1)=2,MID(K2,4,1)=3,MID(K2,4,1)=5,MID(K2,4,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H121,1)),ISNUMBER(FIND("单",H121,1)),ISNUMBER(FIND("质",H121,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H121,1)),ISNUMBER(FIND("单",H121,1)),ISNUMBER(FIND("合",H121,1))),1,0)),
+  IF(OR(MID(K2,4,1)=1,MID(K2,4,1)=2,MID(K2,4,1)=3,MID(K2,4,1)=5,MID(K2,4,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H121,1)),ISNUMBER(FIND("双",H121,1)),ISNUMBER(FIND("质",H121,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H121,1)),ISNUMBER(FIND("双",H121,1)),ISNUMBER(FIND("合",H121,1))),1,0))),
+ IF(MOD(MID(K2,4,1),2)=1,
+  IF(OR(MID(K2,4,1)=1,MID(K2,4,1)=2,MID(K2,4,1)=3,MID(K2,4,1)=5,MID(K2,4,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H121,1)),ISNUMBER(FIND("单",H121,1)),ISNUMBER(FIND("质",H121,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H121,1)),ISNUMBER(FIND("单",H121,1)),ISNUMBER(FIND("合",H121,1))),1,0)),
+  IF(OR(MID(K2,4,1)=1,MID(K2,4,1)=2,MID(K2,4,1)=3,MID(K2,4,1)=5,MID(K2,4,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H121,1)),ISNUMBER(FIND("双",H121,1)),ISNUMBER(FIND("质",H121,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H121,1)),ISNUMBER(FIND("双",H121,1)),ISNUMBER(FIND("合",H121,1))),1,0)))
+)</f>
+        <v>1</v>
+      </c>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="25"/>
+    </row>
+    <row r="122" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D122" s="23"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
       <c r="G122" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H122" s="10" t="s">
+      <c r="H122" s="10"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="23"/>
+      <c r="L122" s="1">
+        <f>IF(INT(MID(K2,5,1))&lt;5,
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(MID(K2,5,1)=1,MID(K2,5,1)=2,MID(K2,5,1)=3,MID(K2,5,1)=5,MID(K2,5,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H122,1)),ISNUMBER(FIND("单",H122,1)),ISNUMBER(FIND("质",H122,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H122,1)),ISNUMBER(FIND("单",H122,1)),ISNUMBER(FIND("合",H122,1))),1,0)),
+  IF(OR(MID(K2,5,1)=1,MID(K2,5,1)=2,MID(K2,5,1)=3,MID(K2,5,1)=5,MID(K2,5,1)=7),
+   IF(OR(ISNUMBER(FIND("小",H122,1)),ISNUMBER(FIND("双",H122,1)),ISNUMBER(FIND("质",H122,1))),1,0),
+   IF(OR(ISNUMBER(FIND("小",H122,1)),ISNUMBER(FIND("双",H122,1)),ISNUMBER(FIND("合",H122,1))),1,0))),
+ IF(MOD(MID(K2,5,1),2)=1,
+  IF(OR(MID(K2,5,1)=1,MID(K2,5,1)=2,MID(K2,5,1)=3,MID(K2,5,1)=5,MID(K2,5,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H122,1)),ISNUMBER(FIND("单",H122,1)),ISNUMBER(FIND("质",H122,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H122,1)),ISNUMBER(FIND("单",H122,1)),ISNUMBER(FIND("合",H122,1))),1,0)),
+  IF(OR(MID(K2,5,1)=1,MID(K2,5,1)=2,MID(K2,5,1)=3,MID(K2,5,1)=5,MID(K2,5,1)=7),
+   IF(OR(ISNUMBER(FIND("大",H122,1)),ISNUMBER(FIND("双",H122,1)),ISNUMBER(FIND("质",H122,1))),1,0),
+   IF(OR(ISNUMBER(FIND("大",H122,1)),ISNUMBER(FIND("双",H122,1)),ISNUMBER(FIND("合",H122,1))),1,0)))
+)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+      <c r="O122" s="25"/>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D123" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="I122" s="21"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D123" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" s="20" t="s">
+      <c r="E123" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F123" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F123" s="20" t="s">
+      <c r="G123" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="H123" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I123" s="23"/>
+      <c r="J123" s="23">
+        <v>2.177</v>
+      </c>
+      <c r="K123" s="23"/>
+      <c r="L123" s="1">
+        <f>IF(LEFT(K2,1)=MID(K2,2,1),IF(ISNUMBER(FIND("和",H123,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,2,1),IF(ISNUMBER(FIND("龙",H123,1)),1,0),IF(ISNUMBER(FIND("虎",H123,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N123" s="22">
+        <f ca="1">IF(SUM(L123:L132)&gt;0,IF(SUM(L123:L132)=1000,I2*J128*10,IF(SUM(L123:L132)&gt;=100,LEFT(SUM(L123:L132),1)*I2*J128+RIGHT(SUM(L123:L132),1)*I2*J123,SUM(L123:L132)*J123*I2)),0)</f>
+        <v>283.01</v>
+      </c>
+      <c r="O123" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H123" s="10" t="s">
+      <c r="H124" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I124" s="23"/>
+      <c r="J124" s="23"/>
+      <c r="K124" s="23"/>
+      <c r="L124" s="1">
+        <f>IF(LEFT(K2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H124,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H124,1)),1,0),IF(ISNUMBER(FIND("虎",H124,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N124" s="23"/>
+      <c r="O124" s="25"/>
+    </row>
+    <row r="125" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I125" s="23"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="23"/>
+      <c r="L125" s="1">
+        <f>IF(LEFT(K2,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H125,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H125,1)),1,0),IF(ISNUMBER(FIND("虎",H125,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N125" s="23"/>
+      <c r="O125" s="25"/>
+    </row>
+    <row r="126" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
+      <c r="G126" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H126" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I126" s="23"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="23"/>
+      <c r="L126" s="1">
+        <f>IF(LEFT(K2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H126,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H126,1)),1,0),IF(ISNUMBER(FIND("虎",H126,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N126" s="23"/>
+      <c r="O126" s="25"/>
+    </row>
+    <row r="127" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I127" s="23"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="23"/>
+      <c r="L127" s="1">
+        <f>IF(MID(K2,2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H127,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H127,1)),1,0),IF(ISNUMBER(FIND("虎",H127,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N127" s="23"/>
+      <c r="O127" s="25"/>
+    </row>
+    <row r="128" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K128" s="23"/>
+      <c r="L128" s="1">
+        <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H128,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H128,1)),1,0),IF(ISNUMBER(FIND("虎",H128,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N128" s="23"/>
+      <c r="O128" s="25"/>
+    </row>
+    <row r="129" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
+      <c r="G129" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="1">
+        <f>IF(MID(K2,2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H129,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H129,1)),1,0),IF(ISNUMBER(FIND("虎",H129,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N129" s="23"/>
+      <c r="O129" s="25"/>
+    </row>
+    <row r="130" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="20">
+        <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H130,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H130,1)),1,0),IF(ISNUMBER(FIND("虎",H130,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N130" s="23"/>
+      <c r="O130" s="25"/>
+    </row>
+    <row r="131" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H131" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="1">
+        <f>IF(MID(K2,3,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H131,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H131,1)),1,0),IF(ISNUMBER(FIND("虎",H131,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N131" s="23"/>
+      <c r="O131" s="25"/>
+    </row>
+    <row r="132" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="1">
+        <f>IF(MID(K2,4,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H132,1)),100,0),IF(MID(K2,4,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H132,1)),1,0),IF(ISNUMBER(FIND("虎",H132,1)),1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="N132" s="23"/>
+      <c r="O132" s="25"/>
+    </row>
+    <row r="133" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D133" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="I123" s="21"/>
-      <c r="J123" s="21">
-        <v>2.177</v>
-      </c>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D124" s="20"/>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I124" s="21"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I125" s="21"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D126" s="20"/>
-      <c r="E126" s="20"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H126" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I126" s="21"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D127" s="20"/>
-      <c r="E127" s="20"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H127" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I127" s="21"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H128" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I128" s="21"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-    </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D129" s="20"/>
-      <c r="E129" s="20"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H129" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I129" s="21"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D130" s="20"/>
-      <c r="E130" s="20"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H130" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I130" s="21"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I131" s="21"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="21"/>
-    </row>
-    <row r="132" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="I132" s="21"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-    </row>
-    <row r="133" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20" t="s">
-        <v>122</v>
-      </c>
       <c r="G133" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H133" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="I133" s="21"/>
-      <c r="J133" s="21">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K133" s="21"/>
-    </row>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I134" s="21"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-    </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D135" s="20"/>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I135" s="21"/>
-      <c r="J135" s="21"/>
-      <c r="K135" s="21"/>
-    </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I136" s="21"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-    </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D137" s="20"/>
-      <c r="E137" s="20"/>
-      <c r="F137" s="20"/>
-      <c r="G137" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H137" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I137" s="21"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-    </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D138" s="20"/>
-      <c r="E138" s="20"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H138" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I138" s="21"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-    </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H139" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I139" s="21"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-    </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H140" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I140" s="21"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="21"/>
-    </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="H141" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I141" s="21"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="21"/>
-    </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D142" s="20"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="20"/>
-      <c r="G142" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="H142" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I142" s="21"/>
-      <c r="J142" s="21"/>
-      <c r="K142" s="21"/>
-    </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.15">
-      <c r="D143" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G143" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="H143" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I143" s="21"/>
-      <c r="J143" s="1">
+      <c r="I133" s="23"/>
+      <c r="J133" s="1">
         <v>98000</v>
       </c>
-      <c r="K143" s="21"/>
+      <c r="K133" s="23"/>
+      <c r="N133" s="1">
+        <f ca="1">IF(SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))=LEFT(K2,1)*5,I2*J133,0)</f>
+        <v>1274000</v>
+      </c>
+      <c r="O133" s="21" t="s">
+        <v>192</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="F133:F142"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="J117:J122"/>
-    <mergeCell ref="J123:J132"/>
-    <mergeCell ref="E123:E142"/>
-    <mergeCell ref="D123:D142"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="F123:F132"/>
-    <mergeCell ref="E89:E99"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="D83:D106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E107:E116"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="F114:F116"/>
+  <mergeCells count="124">
+    <mergeCell ref="N123:N132"/>
+    <mergeCell ref="O123:O132"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="N111:N113"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="N114:N116"/>
+    <mergeCell ref="O114:O116"/>
+    <mergeCell ref="O111:O113"/>
+    <mergeCell ref="N117:N122"/>
+    <mergeCell ref="M117:M122"/>
+    <mergeCell ref="O117:O122"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N83:N87"/>
+    <mergeCell ref="O83:O87"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="D25:D39"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="K2:K133"/>
+    <mergeCell ref="I2:I133"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="O70:O73"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="D70:D82"/>
     <mergeCell ref="F83:F87"/>
     <mergeCell ref="J83:J87"/>
@@ -5329,65 +6064,30 @@
     <mergeCell ref="D55:D69"/>
     <mergeCell ref="E55:E60"/>
     <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="E31:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="D25:D39"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="K2:K143"/>
-    <mergeCell ref="I2:I143"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J133:J142"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="O70:O73"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N83:N87"/>
-    <mergeCell ref="O83:O87"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="E89:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="D83:D106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E107:E116"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="E123:E132"/>
+    <mergeCell ref="D123:D132"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="F123:F132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/BetDatas(1).xlsx
+++ b/BetDatas(1).xlsx
@@ -1847,23 +1847,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2143,12 +2143,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T133"/>
+  <dimension ref="A1:R133"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="P81" sqref="P81"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2227,13 +2227,13 @@
       <c r="C2" s="1">
         <v>20180517001</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2242,143 +2242,139 @@
       <c r="H2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="25">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>13</v>
-      </c>
-      <c r="J2" s="23">
+        <v>27</v>
+      </c>
+      <c r="J2" s="25">
         <v>19.600000000000001</v>
       </c>
-      <c r="K2" s="23">
+      <c r="K2" s="25">
         <v>32145</v>
       </c>
       <c r="L2" s="1">
         <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H2,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="25">
         <f ca="1">SUM(L2:L6)*I2*J2</f>
-        <v>1274</v>
-      </c>
-      <c r="O2" s="25" t="s">
+        <v>2646</v>
+      </c>
+      <c r="O2" s="26" t="s">
         <v>137</v>
       </c>
       <c r="P2" s="15">
         <f>FIND(LEFT(K2,1),H2,1)</f>
         <v>7</v>
       </c>
-      <c r="Q2" s="1" t="b">
-        <f>LEN(K2)&lt;&gt;0</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
       <c r="L3" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H3,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="1" t="str">
         <f>MID(K2,2,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
       <c r="L4" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,3,1),H4,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="O4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1" t="str">
         <f>MID(K2,3,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,4,1),H5,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="1" t="str">
         <f>MID(K2,4,1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
       <c r="L6" s="1">
         <f>IF(AND(ISNUMBER(FIND(RIGHT(K2,1),H6,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="1" t="str">
         <f>RIGHT(K2,1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2387,48 +2383,48 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
         <v>196</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="25"/>
       <c r="L7" s="1">
         <f>IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25">
         <f ca="1">IF(IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,"0")+IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,"0")=2,I2*J7*1,0)</f>
-        <v>2548</v>
-      </c>
-      <c r="O7" s="25" t="s">
+        <v>5292</v>
+      </c>
+      <c r="O7" s="26" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
       <c r="L8" s="1">
         <f>IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
@@ -2437,18 +2433,18 @@
       </c>
       <c r="H9" s="4" t="str">
         <f ca="1">","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>,75,78,41,99</v>
-      </c>
-      <c r="I9" s="23"/>
+        <v>,69,05,34,03</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="J9" s="1">
         <v>196</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="25"/>
       <c r="L9" s="9">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="23"/>
+      <c r="M9" s="25"/>
       <c r="N9" s="2">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),I2*J9,0)</f>
         <v>0</v>
@@ -2458,8 +2454,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2469,11 +2465,11 @@
       <c r="H10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="1">
         <v>196</v>
       </c>
-      <c r="K10" s="23"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),1,0)</f>
         <v>0</v>
@@ -2485,14 +2481,11 @@
       <c r="O10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R10" s="15" t="str">
-        <f ca="1">RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>50068</v>
-      </c>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2502,26 +2495,26 @@
       <c r="H11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="1">
         <v>196</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="1">
         <f>IF(ISNUMBER(FIND(IF(LEFT(K2,1)&gt;MID(K2,2,1),LEFT(K2,1)-MID(K2,2,1),MID(K2,2,1)-LEFT(K2,1)),H11,1)),1,0)</f>
         <v>1</v>
       </c>
       <c r="N11" s="1">
         <f ca="1">IF(ISNUMBER(FIND(MAX(LEFT(K2,1),MID(K2,2,1))-MIN(LEFT(K2,1),MID(K2,2,1)),H11,1)),I2*J11*1,0)</f>
-        <v>2548</v>
+        <v>5292</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D12" s="24"/>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2534,18 +2527,18 @@
         <f>0&amp;123456789</f>
         <v>0123456789</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="25"/>
       <c r="J12" s="1">
         <v>98</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="8">
         <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="N12" s="1">
         <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,I2*J12,0),0)</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>136</v>
@@ -2553,8 +2546,8 @@
       <c r="P12" s="16"/>
     </row>
     <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2564,11 +2557,11 @@
       <c r="H13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="1">
         <v>98</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="1" t="str">
         <f>LEFT(K2,2)</f>
         <v>32</v>
@@ -2582,8 +2575,8 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2593,11 +2586,11 @@
       <c r="H14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="25"/>
       <c r="J14" s="1">
         <v>98</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="1" t="str">
         <f>LEFT(K2,2)</f>
         <v>32</v>
@@ -2613,8 +2606,8 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2624,32 +2617,28 @@
       <c r="H15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="1">
         <v>98</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="25"/>
       <c r="N15" s="1">
         <f ca="1">IF(AND(OR(ISNUMBER(FIND(LEFT(K2,1),H15,1)),ISNUMBER(FIND(MID(K2,2,1),H15,1))),LEFT(K2,1)&lt;&gt;MID(K2,2,1)),I2*J15,0)</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q15" s="1" t="b">
-        <f>OR(ISNUMBER(FIND(LEFT(K2,1),H15,1)),ISNUMBER(FIND(MID(K2,2,1),H15,1)))</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="27" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -2658,49 +2647,49 @@
       <c r="H16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25">
         <v>196</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="N16" s="23">
+      <c r="K16" s="25"/>
+      <c r="N16" s="25">
         <f>IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H17,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H16,1)),1,0)=2,I2*J16*1,0)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="25"/>
-    </row>
-    <row r="18" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="1">
         <v>196</v>
       </c>
-      <c r="K18" s="23"/>
+      <c r="K18" s="25"/>
       <c r="N18" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;RIGHT(K2,2),H18,1)),I2*J18,0)</f>
         <v>0</v>
@@ -2709,9 +2698,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="4:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
+    <row r="19" spans="4:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
@@ -2721,22 +2710,22 @@
       <c r="H19" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="25"/>
       <c r="J19" s="1">
         <v>196</v>
       </c>
-      <c r="K19" s="23"/>
+      <c r="K19" s="25"/>
       <c r="N19" s="8">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(RIGHT(K2,1),MID(K2,4,1))&amp;",",H19,1)),I2*J19,0)</f>
-        <v>2548</v>
+        <v>5292</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2746,11 +2735,11 @@
       <c r="H20" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="25"/>
       <c r="J20" s="1">
         <v>196</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="25"/>
       <c r="N20" s="8">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,4,1),RIGHT(K2,1))-MIN(MID(K2,4,1),RIGHT(K2,1)),H20,1)),I2*J20*1,0)</f>
         <v>0</v>
@@ -2759,9 +2748,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D21" s="24"/>
-      <c r="E21" s="24" t="s">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2773,44 +2762,44 @@
       <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="1">
         <v>98</v>
       </c>
-      <c r="K21" s="23"/>
+      <c r="K21" s="25"/>
       <c r="N21" s="8">
         <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H21,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H21,1)),1,0)=2,I2*J21,0),0)</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+    <row r="22" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="25"/>
       <c r="J22" s="1">
         <v>98</v>
       </c>
-      <c r="K22" s="23"/>
+      <c r="K22" s="25"/>
       <c r="N22" s="12">
         <f ca="1">IF(EXACT(RIGHT(K2,1),MID(K2,4,1)),0,IF(OR(ISNUMBER(FIND(","&amp;RIGHT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;RIGHT(K2,1)&amp;MID(K2,4,1)&amp;",",H13,1))),I2*J13,0))</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2820,26 +2809,26 @@
       <c r="H23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="25"/>
       <c r="J23" s="1">
         <v>98</v>
       </c>
-      <c r="K23" s="23"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="1" t="str">
         <f>RIGHT(K2,2)</f>
         <v>45</v>
       </c>
       <c r="N23" s="8">
         <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,4,1),RIGHT(K2,1))&amp;",",H23,1)),I2*J23,0),0)</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2849,27 +2838,27 @@
       <c r="H24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="25"/>
       <c r="J24" s="1">
         <v>98</v>
       </c>
-      <c r="K24" s="23"/>
+      <c r="K24" s="25"/>
       <c r="N24" s="8">
         <f ca="1">IF(AND(OR(ISNUMBER(FIND(RIGHT(K2,1),H24,1)),ISNUMBER(FIND(MID(K2,4,1),H24,1))),RIGHT(K2,1)&lt;&gt;MID(K2,4,1)),I2*J24,0)</f>
-        <v>1274</v>
+        <v>2646</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D25" s="24" t="s">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2878,66 +2867,66 @@
       <c r="H25" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25">
         <v>1960</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="1" t="b">
         <f>ISNUMBER(FIND(LEFT(K2,1),H25,1))</f>
         <v>1</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="25">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H25,1)),ISNUMBER(FIND(MID(K2,2,1),H26,1)),ISNUMBER(FIND(MID(K2,3,1),H27,1))),I2*J25,0)</f>
-        <v>25480</v>
-      </c>
-      <c r="O25" s="25" t="s">
+        <v>52920</v>
+      </c>
+      <c r="O25" s="26" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H26,1))</f>
         <v>1</v>
       </c>
-      <c r="N26" s="23"/>
-      <c r="O26" s="25"/>
-    </row>
-    <row r="27" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
       <c r="L27" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H27,1))</f>
         <v>1</v>
       </c>
-      <c r="N27" s="23"/>
-      <c r="O27" s="25"/>
-    </row>
-    <row r="28" spans="4:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+    </row>
+    <row r="28" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2947,11 +2936,11 @@
       <c r="H28" s="4">
         <v>123</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="25"/>
       <c r="J28" s="1">
         <v>1960</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="25"/>
       <c r="N28" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;LEFT(K2,3),H28,1)),I2*J28,0)</f>
         <v>0</v>
@@ -2960,9 +2949,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="4:20" ht="27" x14ac:dyDescent="0.15">
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+    <row r="29" spans="4:15" ht="27" x14ac:dyDescent="0.15">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2972,22 +2961,22 @@
       <c r="H29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="25"/>
       <c r="J29" s="1">
         <v>1960</v>
       </c>
-      <c r="K29" s="23"/>
+      <c r="K29" s="25"/>
       <c r="N29" s="8">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H29,1)),I2*J29,0)</f>
-        <v>25480</v>
+        <v>52920</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2997,11 +2986,11 @@
       <c r="H30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="1">
         <v>1960</v>
       </c>
-      <c r="K30" s="23"/>
+      <c r="K30" s="25"/>
       <c r="N30" s="8">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1))-MIN(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1)),H30,1)),I2*J30*1,0)</f>
         <v>0</v>
@@ -3010,9 +2999,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="4:20" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D31" s="24"/>
-      <c r="E31" s="24" t="s">
+    <row r="31" spans="4:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3024,42 +3013,26 @@
       <c r="H31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="25"/>
       <c r="J31" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K31" s="23"/>
+      <c r="K31" s="25"/>
       <c r="M31" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
       <c r="N31" s="8">
         <f ca="1">IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31*2,0),IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0)))</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q31" s="1">
-        <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0),0)</f>
-        <v>4246.6450000000004</v>
-      </c>
-      <c r="R31" s="1" t="b">
-        <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="1" t="b">
-        <f>AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1))</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="1" t="b">
-        <f>AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:20" x14ac:dyDescent="0.15">
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="3" t="s">
         <v>43</v>
       </c>
@@ -3069,11 +3042,11 @@
       <c r="H32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="25"/>
       <c r="J32" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K32" s="23"/>
+      <c r="K32" s="25"/>
       <c r="L32" s="1" t="b">
         <f>AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1)),M32)</f>
         <v>0</v>
@@ -3089,14 +3062,10 @@
       <c r="O32" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="Q32" s="1">
-        <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1))),I2*J32,0),0)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="3" t="s">
         <v>44</v>
       </c>
@@ -3106,11 +3075,11 @@
       <c r="H33" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="25"/>
       <c r="J33" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K33" s="23"/>
+      <c r="K33" s="25"/>
       <c r="M33" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
@@ -3122,28 +3091,24 @@
       <c r="O33" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="P33" s="1">
-        <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H33,1)),ISNUMBER(FIND(MID(K2,2,1),H33,1)),ISNUMBER(FIND(MID(K2,3,1),H33,1))),I2*J33,0)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="25"/>
       <c r="J34" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K34" s="23"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="1" t="b">
         <f>AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
   ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H34,1)),
@@ -3170,19 +3135,15 @@
   I2*J34*2,I2*J34
  ),0
 )</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O34" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="P34" s="1" t="b">
-        <f>AND(LEFT(K2,1)+MID(K2,2,1)+MID(K2,3,1)&lt;&gt;MID(K2,3,1)*3)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3192,11 +3153,11 @@
       <c r="H35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="25"/>
       <c r="J35" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K35" s="23"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="15" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1)))</f>
         <v>1</v>
@@ -3207,15 +3168,15 @@
       </c>
       <c r="N35" s="1">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1))),IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),I2*J35*2,I2*J35),0)</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O35" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="3" t="s">
         <v>46</v>
       </c>
@@ -3225,11 +3186,11 @@
       <c r="H36" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="25"/>
       <c r="J36" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K36" s="23"/>
+      <c r="K36" s="25"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
@@ -3252,8 +3213,8 @@
       </c>
     </row>
     <row r="37" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="3" t="s">
         <v>47</v>
       </c>
@@ -3263,11 +3224,11 @@
       <c r="H37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="25"/>
       <c r="J37" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K37" s="23"/>
+      <c r="K37" s="25"/>
       <c r="M37" s="15" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
@@ -3280,7 +3241,7 @@
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H37,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H37,1)))),
  I2*J37,0)</f>
-        <v>4246.58</v>
+        <v>8819.8200000000015</v>
       </c>
       <c r="O37" s="21" t="s">
         <v>136</v>
@@ -3288,8 +3249,8 @@
       <c r="Q37" s="19"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D38" s="24"/>
-      <c r="E38" s="24" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27" t="s">
         <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -3301,26 +3262,26 @@
       <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="25"/>
       <c r="J38" s="1">
         <v>7.23</v>
       </c>
-      <c r="K38" s="23"/>
+      <c r="K38" s="25"/>
       <c r="L38" s="15" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1)))</f>
         <v>1</v>
       </c>
       <c r="N38" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1))),I2*J38,0)</f>
-        <v>93.990000000000009</v>
+        <v>195.21</v>
       </c>
       <c r="O38" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="3" t="s">
         <v>50</v>
       </c>
@@ -3330,31 +3291,31 @@
       <c r="H39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="25"/>
       <c r="J39" s="1">
         <v>36.29</v>
       </c>
-      <c r="K39" s="23"/>
+      <c r="K39" s="25"/>
       <c r="L39" s="1" t="b">
         <f>OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1))))</f>
         <v>1</v>
       </c>
       <c r="N39" s="1">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1)))),I2*J39,0)</f>
-        <v>471.77</v>
+        <v>979.82999999999993</v>
       </c>
       <c r="O39" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="E40" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G40" s="16" t="s">
@@ -3363,66 +3324,66 @@
       <c r="H40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23">
+      <c r="I40" s="25"/>
+      <c r="J40" s="25">
         <v>1960</v>
       </c>
-      <c r="K40" s="23"/>
+      <c r="K40" s="25"/>
       <c r="L40" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H40,1))</f>
         <v>0</v>
       </c>
-      <c r="N40" s="23">
+      <c r="N40" s="25">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H40,1)),ISNUMBER(FIND(MID(K2,3,1),H41,1)),ISNUMBER(FIND(MID(K2,4,1),H42,1))),I2*J40,0)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="16" t="s">
         <v>158</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
       <c r="L41" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H41,1))</f>
         <v>1</v>
       </c>
-      <c r="N41" s="23"/>
-      <c r="O41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
     </row>
     <row r="42" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="16" t="s">
         <v>159</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
       <c r="L42" s="17" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H42,1))</f>
         <v>1</v>
       </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
     </row>
     <row r="43" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="6" t="s">
         <v>41</v>
       </c>
@@ -3432,11 +3393,11 @@
       <c r="H43" s="4">
         <v>456</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="25"/>
       <c r="J43" s="2">
         <v>1960</v>
       </c>
-      <c r="K43" s="23"/>
+      <c r="K43" s="25"/>
       <c r="L43" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;MID(K2,2,3)&amp;",",H43,1))</f>
         <v>0</v>
@@ -3448,14 +3409,10 @@
       <c r="O43" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="P43" s="1" t="str">
-        <f>MID(K2,2,3)</f>
-        <v>214</v>
-      </c>
     </row>
     <row r="44" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="6" t="s">
         <v>29</v>
       </c>
@@ -3465,11 +3422,11 @@
       <c r="H44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="25"/>
       <c r="J44" s="2">
         <v>1960</v>
       </c>
-      <c r="K44" s="23"/>
+      <c r="K44" s="25"/>
       <c r="L44" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H29,1))</f>
         <v>0</v>
@@ -3481,14 +3438,10 @@
       <c r="O44" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="P44" s="1">
-        <f>SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))</f>
-        <v>7</v>
-      </c>
     </row>
     <row r="45" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="6" t="s">
         <v>32</v>
       </c>
@@ -3498,11 +3451,11 @@
       <c r="H45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="25"/>
       <c r="J45" s="2">
         <v>1960</v>
       </c>
-      <c r="K45" s="23"/>
+      <c r="K45" s="25"/>
       <c r="L45" s="1" t="b">
         <f>ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1))</f>
         <v>0</v>
@@ -3516,8 +3469,8 @@
       </c>
     </row>
     <row r="46" spans="4:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="24"/>
-      <c r="E46" s="24" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -3529,26 +3482,26 @@
       <c r="H46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="23"/>
+      <c r="I46" s="25"/>
       <c r="J46" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K46" s="23"/>
+      <c r="K46" s="25"/>
       <c r="M46" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
         <v>0</v>
       </c>
       <c r="N46" s="15">
         <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46*2,0),IF(MID(K2,2,1)&lt;&gt;MID(K2,3,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46,0)))</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O46" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="6" t="s">
         <v>43</v>
       </c>
@@ -3558,11 +3511,11 @@
       <c r="H47" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="23"/>
+      <c r="I47" s="25"/>
       <c r="J47" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K47" s="23"/>
+      <c r="K47" s="25"/>
       <c r="L47" s="1" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1)),M47)</f>
         <v>0</v>
@@ -3580,8 +3533,8 @@
       </c>
     </row>
     <row r="48" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="6" t="s">
         <v>44</v>
       </c>
@@ -3591,26 +3544,26 @@
       <c r="H48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="23"/>
+      <c r="I48" s="25"/>
       <c r="J48" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K48" s="23"/>
+      <c r="K48" s="25"/>
       <c r="M48" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
         <v>0</v>
       </c>
       <c r="N48" s="15">
         <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,2,1),H48,1)),ISNUMBER(FIND(MID(K2,3,1),H48,1)),ISNUMBER(FIND(MID(K2,4,1),H48,1))),I2*J48,0))</f>
-        <v>4246.58</v>
+        <v>8819.8200000000015</v>
       </c>
       <c r="O48" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="6" t="s">
         <v>45</v>
       </c>
@@ -3620,11 +3573,11 @@
       <c r="H49" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="I49" s="23"/>
+      <c r="I49" s="25"/>
       <c r="J49" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K49" s="23"/>
+      <c r="K49" s="25"/>
       <c r="M49" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
         <v>0</v>
@@ -3648,8 +3601,8 @@
       </c>
     </row>
     <row r="50" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="6" t="s">
         <v>37</v>
       </c>
@@ -3659,26 +3612,26 @@
       <c r="H50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="23"/>
+      <c r="I50" s="25"/>
       <c r="J50" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K50" s="23"/>
+      <c r="K50" s="25"/>
       <c r="M50" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
         <v>0</v>
       </c>
       <c r="N50" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H50,1)),ISNUMBER(FIND(MID(K2,3,1),H50,1)),ISNUMBER(FIND(MID(K2,4,1),H50,1))),IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),I2*J50*2,I2*J50),0)</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O50" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="51" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="6" t="s">
         <v>46</v>
       </c>
@@ -3688,11 +3641,11 @@
       <c r="H51" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="I51" s="23"/>
+      <c r="I51" s="25"/>
       <c r="J51" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K51" s="23"/>
+      <c r="K51" s="25"/>
       <c r="N51" s="20">
         <f>IF(AND(
  OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H51,1)),
@@ -3711,8 +3664,8 @@
       </c>
     </row>
     <row r="52" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="6" t="s">
         <v>47</v>
       </c>
@@ -3722,11 +3675,11 @@
       <c r="H52" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="I52" s="23"/>
+      <c r="I52" s="25"/>
       <c r="J52" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K52" s="23"/>
+      <c r="K52" s="25"/>
       <c r="N52" s="1">
         <f ca="1">IF(AND(AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,2,1)&lt;&gt;MID(K2,4,1)),
   OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H52,1)),
@@ -3736,15 +3689,15 @@
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,2,2),H52,1)),
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H52,1)))),
   I2*J52,0)</f>
-        <v>4246.58</v>
+        <v>8819.8200000000015</v>
       </c>
       <c r="O52" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D53" s="24"/>
-      <c r="E53" s="24" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3756,22 +3709,22 @@
       <c r="H53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="23"/>
+      <c r="I53" s="25"/>
       <c r="J53" s="2">
         <v>7.23</v>
       </c>
-      <c r="K53" s="23"/>
+      <c r="K53" s="25"/>
       <c r="N53" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H53,1)),ISNUMBER(FIND(MID(K2,3,1),H53,1)),ISNUMBER(FIND(MID(K2,4,1),H53,1))),I2*J53,0)</f>
-        <v>93.990000000000009</v>
+        <v>195.21</v>
       </c>
       <c r="O53" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="6" t="s">
         <v>50</v>
       </c>
@@ -3781,27 +3734,27 @@
       <c r="H54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="23"/>
+      <c r="I54" s="25"/>
       <c r="J54" s="2">
         <v>36.29</v>
       </c>
-      <c r="K54" s="23"/>
+      <c r="K54" s="25"/>
       <c r="N54" s="1">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,4,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,4,1),H54,1)))),I2*J54,0)</f>
-        <v>471.77</v>
+        <v>979.82999999999993</v>
       </c>
       <c r="O54" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="24" t="s">
+      <c r="E55" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="24" t="s">
+      <c r="F55" s="27" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="16" t="s">
@@ -3810,65 +3763,65 @@
       <c r="H55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23">
+      <c r="I55" s="25"/>
+      <c r="J55" s="25">
         <v>1960</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="N55" s="23">
+      <c r="K55" s="25"/>
+      <c r="N55" s="25">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,3,1),H55,1)),ISNUMBER(FIND(MID(K2,4,1),H56,1)),ISNUMBER(FIND(MID(K2,5,1),H57,1))),I2*J55,0)</f>
-        <v>25480</v>
-      </c>
-      <c r="O55" s="25" t="s">
+        <v>52920</v>
+      </c>
+      <c r="O55" s="26" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="16" t="s">
         <v>170</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="26"/>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
       <c r="G57" s="16" t="s">
         <v>171</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="26"/>
     </row>
     <row r="58" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="23"/>
+      <c r="I58" s="25"/>
       <c r="J58" s="2">
         <v>1960</v>
       </c>
-      <c r="K58" s="23"/>
+      <c r="K58" s="25"/>
       <c r="N58" s="15">
         <f>IF(ISNUMBER(FIND(","&amp;MID(K2,3,3)&amp;",",H58,1)),I2*J58,0)</f>
         <v>0</v>
@@ -3878,8 +3831,8 @@
       </c>
     </row>
     <row r="59" spans="4:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3889,22 +3842,22 @@
       <c r="H59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="23"/>
+      <c r="I59" s="25"/>
       <c r="J59" s="2">
         <v>1960</v>
       </c>
-      <c r="K59" s="23"/>
+      <c r="K59" s="25"/>
       <c r="N59" s="15">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H59,1)),I2*J59,0)</f>
-        <v>25480</v>
+        <v>52920</v>
       </c>
       <c r="O59" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="6" t="s">
         <v>32</v>
       </c>
@@ -3914,22 +3867,22 @@
       <c r="H60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="23"/>
+      <c r="I60" s="25"/>
       <c r="J60" s="2">
         <v>1960</v>
       </c>
-      <c r="K60" s="23"/>
+      <c r="K60" s="25"/>
       <c r="N60" s="15">
         <f ca="1">IF(ISNUMBER(FIND(MAX(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))-MIN(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),H60,1)),I2*J60*1,0)</f>
-        <v>25480</v>
+        <v>52920</v>
       </c>
       <c r="O60" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="4:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D61" s="24"/>
-      <c r="E61" s="24" t="s">
+      <c r="D61" s="27"/>
+      <c r="E61" s="27" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3941,22 +3894,22 @@
       <c r="H61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="23"/>
+      <c r="I61" s="25"/>
       <c r="J61" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K61" s="23"/>
+      <c r="K61" s="25"/>
       <c r="N61" s="15">
         <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61*2,0),IF(MID(K2,3,1)&lt;&gt;MID(K2,4,1)&lt;&gt;MID(K2,5,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61,0)))</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O61" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="6" t="s">
         <v>43</v>
       </c>
@@ -3966,11 +3919,11 @@
       <c r="H62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="23"/>
+      <c r="I62" s="25"/>
       <c r="J62" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K62" s="23"/>
+      <c r="K62" s="25"/>
       <c r="N62" s="15">
         <f>IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(AND(ISNUMBER(FIND(MID(K2,3,1),H62,1)),ISNUMBER(FIND(MID(K2,4,1),H62,1)),ISNUMBER(FIND(MID(K2,5,1),H62,1))),I2*J62,0),0)</f>
         <v>0</v>
@@ -3980,8 +3933,8 @@
       </c>
     </row>
     <row r="63" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="6" t="s">
         <v>44</v>
       </c>
@@ -3991,22 +3944,22 @@
       <c r="H63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="23"/>
+      <c r="I63" s="25"/>
       <c r="J63" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K63" s="23"/>
+      <c r="K63" s="25"/>
       <c r="N63" s="15">
         <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,3,1),H63,1)),ISNUMBER(FIND(MID(K2,4,1),H63,1)),ISNUMBER(FIND(MID(K2,5,1),H63,1))),I2*J63,0))</f>
-        <v>4246.58</v>
+        <v>8819.8200000000015</v>
       </c>
       <c r="O63" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="6" t="s">
         <v>45</v>
       </c>
@@ -4016,11 +3969,11 @@
       <c r="H64" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="I64" s="23"/>
+      <c r="I64" s="25"/>
       <c r="J64" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K64" s="23"/>
+      <c r="K64" s="25"/>
       <c r="N64" s="15">
         <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H64,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H64,1)),
@@ -4040,8 +3993,8 @@
       </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
@@ -4051,22 +4004,22 @@
       <c r="H65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="23"/>
+      <c r="I65" s="25"/>
       <c r="J65" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K65" s="23"/>
+      <c r="K65" s="25"/>
       <c r="N65" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H65,1)),ISNUMBER(FIND(MID(K2,4,1),H65,1)),ISNUMBER(FIND(MID(K2,5,1),H65,1))),IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),I17*J65*2,I2*J65),0)</f>
-        <v>4246.6450000000004</v>
+        <v>8819.9549999999999</v>
       </c>
       <c r="O65" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66" spans="4:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="6" t="s">
         <v>46</v>
       </c>
@@ -4076,11 +4029,11 @@
       <c r="H66" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I66" s="23"/>
+      <c r="I66" s="25"/>
       <c r="J66" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K66" s="23"/>
+      <c r="K66" s="25"/>
       <c r="N66" s="20">
         <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H66,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H66,1)),
@@ -4097,16 +4050,16 @@
         <v>136</v>
       </c>
       <c r="Q66" s="1">
-        <v>11356</v>
-      </c>
-      <c r="R66" s="27" t="str">
+        <v>12351</v>
+      </c>
+      <c r="R66" s="23" t="str">
         <f>IF(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))&lt;5,"有","无")</f>
         <v>有</v>
       </c>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="6" t="s">
         <v>47</v>
       </c>
@@ -4116,11 +4069,11 @@
       <c r="H67" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I67" s="23"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K67" s="23"/>
+      <c r="K67" s="25"/>
       <c r="N67" s="20">
         <f>IF(AND(AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1),MID(K2,3,1)&lt;&gt;MID(K2,5,1)),
   OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H67,1)),
@@ -4141,8 +4094,8 @@
       </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D68" s="24"/>
-      <c r="E68" s="24" t="s">
+      <c r="D68" s="27"/>
+      <c r="E68" s="27" t="s">
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -4154,22 +4107,22 @@
       <c r="H68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="23"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="2">
         <v>7.23</v>
       </c>
-      <c r="K68" s="23"/>
+      <c r="K68" s="25"/>
       <c r="N68" s="20">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H68,1)),ISNUMBER(FIND(MID(K2,4,1),H68,1)),ISNUMBER(FIND(MID(K2,5,1),H68,1))),I2*J68,0)</f>
-        <v>93.990000000000009</v>
+        <v>195.21</v>
       </c>
       <c r="O68" s="21" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="6" t="s">
         <v>50</v>
       </c>
@@ -4179,27 +4132,31 @@
       <c r="H69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="23"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="2">
         <v>36.29</v>
       </c>
-      <c r="K69" s="23"/>
+      <c r="K69" s="25"/>
       <c r="N69" s="20">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,5,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,5,1),H69,1)))),I2*J69,0)</f>
-        <v>471.77</v>
+        <v>979.82999999999993</v>
       </c>
       <c r="O69" s="21" t="s">
         <v>136</v>
       </c>
+      <c r="R69" s="1">
+        <f>SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="22" t="s">
+      <c r="E70" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="F70" s="24" t="s">
         <v>55</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4208,89 +4165,89 @@
       <c r="H70" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23">
+      <c r="I70" s="25"/>
+      <c r="J70" s="25">
         <v>19600</v>
       </c>
-      <c r="K70" s="23"/>
+      <c r="K70" s="25"/>
       <c r="L70" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H70,1))</f>
         <v>1</v>
       </c>
       <c r="M70" s="17"/>
-      <c r="N70" s="23">
+      <c r="N70" s="25">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H70,1)),ISNUMBER(FIND(MID(K2,3,1),H71,1)),ISNUMBER(FIND(MID(K2,4,1),H72,1)),ISNUMBER(FIND(RIGHT(K2,1),H73,1))),I2*J70,0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="25" t="s">
+      <c r="O70" s="26" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
       <c r="L71" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H71,1))</f>
         <v>1</v>
       </c>
       <c r="M71" s="17"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="26"/>
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="15" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H72,1))</f>
         <v>0</v>
       </c>
       <c r="M72" s="17"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="26"/>
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
       <c r="G73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
       <c r="L73" s="15" t="b">
         <f>ISNUMBER(FIND(RIGHT(K2,1),H73,1))</f>
         <v>1</v>
       </c>
-      <c r="N73" s="23"/>
-      <c r="O73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="26"/>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="9" t="s">
         <v>56</v>
       </c>
@@ -4300,11 +4257,11 @@
       <c r="H74" s="4">
         <v>7113</v>
       </c>
-      <c r="I74" s="23"/>
+      <c r="I74" s="25"/>
       <c r="J74" s="2">
         <v>19600</v>
       </c>
-      <c r="K74" s="23"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;RIGHT(K2,4)&amp;",",H74,1))</f>
         <v>0</v>
@@ -4318,8 +4275,8 @@
       </c>
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D75" s="22"/>
-      <c r="E75" s="22" t="s">
+      <c r="D75" s="24"/>
+      <c r="E75" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -4331,18 +4288,18 @@
       <c r="H75" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="I75" s="23"/>
+      <c r="I75" s="25"/>
       <c r="J75" s="1">
         <v>816.66</v>
       </c>
-      <c r="K75" s="23"/>
+      <c r="K75" s="25"/>
       <c r="L75" s="15" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1)))</f>
         <v>1</v>
       </c>
       <c r="N75" s="20">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1))),I2*J75,0)</f>
-        <v>10616.58</v>
+        <v>22049.82</v>
       </c>
       <c r="O75" s="21" t="s">
         <v>176</v>
@@ -4352,9 +4309,9 @@
       </c>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22" t="s">
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24" t="s">
         <v>61</v>
       </c>
       <c r="G76" s="9" t="s">
@@ -4363,16 +4320,16 @@
       <c r="H76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23">
+      <c r="I76" s="25"/>
+      <c r="J76" s="25">
         <v>1633.33</v>
       </c>
-      <c r="K76" s="23"/>
-      <c r="M76" s="23" t="b">
+      <c r="K76" s="25"/>
+      <c r="M76" s="25" t="b">
         <f>EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N76" s="25">
         <f>IF(
  EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1),
   IF(
@@ -4420,30 +4377,30 @@
  )</f>
         <v>0</v>
       </c>
-      <c r="O76" s="25" t="s">
+      <c r="O76" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
       <c r="G77" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="26"/>
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
       <c r="F78" s="9" t="s">
         <v>64</v>
       </c>
@@ -4453,11 +4410,11 @@
       <c r="H78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="23"/>
+      <c r="I78" s="25"/>
       <c r="J78" s="1">
         <v>3266.66</v>
       </c>
-      <c r="K78" s="23"/>
+      <c r="K78" s="25"/>
       <c r="N78" s="15">
         <f>IF(
  OR(
@@ -4481,9 +4438,9 @@
       <c r="R78" s="15"/>
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="9" t="s">
@@ -4492,12 +4449,12 @@
       <c r="H79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23">
+      <c r="I79" s="25"/>
+      <c r="J79" s="25">
         <v>4900</v>
       </c>
-      <c r="K79" s="23"/>
-      <c r="N79" s="23">
+      <c r="K79" s="25"/>
+      <c r="N79" s="25">
         <f>IF(
  OR(
   AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),
@@ -4516,32 +4473,32 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O79" s="25" t="s">
+      <c r="O79" s="26" t="s">
         <v>178</v>
       </c>
       <c r="P79" s="15"/>
       <c r="R79" s="15"/>
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
       <c r="G80" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="N80" s="25"/>
+      <c r="O80" s="26"/>
       <c r="P80" s="15"/>
     </row>
-    <row r="81" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D81" s="22"/>
-      <c r="E81" s="22" t="s">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D81" s="24"/>
+      <c r="E81" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F81" s="9" t="s">
@@ -4553,23 +4510,23 @@
       <c r="H81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="23"/>
+      <c r="I81" s="25"/>
       <c r="J81" s="1">
         <v>5.69</v>
       </c>
-      <c r="K81" s="23"/>
+      <c r="K81" s="25"/>
       <c r="N81" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H81,1)),ISNUMBER(FIND(MID(K2,3,1),H81,1)),ISNUMBER(FIND(MID(K2,4,1),H81,1)),ISNUMBER(FIND(MID(K2,5,1),H81,1))),I2*J81,0)</f>
-        <v>73.97</v>
+        <v>153.63000000000002</v>
       </c>
       <c r="O81" s="14" t="s">
         <v>176</v>
       </c>
       <c r="P81" s="15"/>
     </row>
-    <row r="82" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
+    <row r="82" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
       <c r="F82" s="9" t="s">
         <v>70</v>
       </c>
@@ -4579,11 +4536,11 @@
       <c r="H82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="23"/>
+      <c r="I82" s="25"/>
       <c r="J82" s="1">
         <v>20.12</v>
       </c>
-      <c r="K82" s="23"/>
+      <c r="K82" s="25"/>
       <c r="N82" s="15">
         <f ca="1">IF(
  OR(
@@ -4595,21 +4552,21 @@
   AND(ISNUMBER(FIND(MID(K2,4,1),H82,1)),ISNUMBER(FIND(MID(K2,5,1),H82,1)))
  ),I2*J69,0
 )</f>
-        <v>471.77</v>
+        <v>979.82999999999993</v>
       </c>
       <c r="O82" s="14" t="s">
         <v>181</v>
       </c>
       <c r="P82" s="15"/>
     </row>
-    <row r="83" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D83" s="22" t="s">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D83" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="F83" s="24" t="s">
         <v>74</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4618,91 +4575,91 @@
       <c r="H83" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23">
+      <c r="I83" s="25"/>
+      <c r="J83" s="25">
         <v>196000</v>
       </c>
-      <c r="K83" s="23"/>
-      <c r="N83" s="23">
+      <c r="K83" s="25"/>
+      <c r="N83" s="25">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H83,1)),ISNUMBER(FIND(MID(K2,2,1),H84,1)),ISNUMBER(FIND(MID(K2,3,1),H85,1)),ISNUMBER(FIND(MID(K2,4,1),H86,1)),ISNUMBER(FIND(RIGHT(K2,1),H87,1))),I2*J83,0)</f>
-        <v>2548000</v>
-      </c>
-      <c r="O83" s="25" t="s">
+        <v>5292000</v>
+      </c>
+      <c r="O83" s="26" t="s">
         <v>181</v>
       </c>
       <c r="P83" s="15"/>
     </row>
-    <row r="84" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
+    <row r="84" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
       <c r="G84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="N84" s="23"/>
-      <c r="O84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="26"/>
       <c r="P84" s="15"/>
     </row>
-    <row r="85" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
+    <row r="85" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
       <c r="G85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="26"/>
       <c r="P85" s="15"/>
     </row>
-    <row r="86" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
+    <row r="86" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
       <c r="G86" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="26"/>
       <c r="P86" s="15"/>
     </row>
-    <row r="87" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
+    <row r="87" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
       <c r="G87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="26"/>
       <c r="P87" s="15"/>
     </row>
-    <row r="88" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
+    <row r="88" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
       <c r="F88" s="9" t="s">
         <v>75</v>
       </c>
@@ -4712,11 +4669,11 @@
       <c r="H88" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I88" s="23"/>
+      <c r="I88" s="25"/>
       <c r="J88" s="1">
         <v>196000</v>
       </c>
-      <c r="K88" s="23"/>
+      <c r="K88" s="25"/>
       <c r="N88" s="15">
         <f>IF(ISNUMBER(FIND(","&amp;K2&amp;",",H88,1)),I2*J88,0)</f>
         <v>0</v>
@@ -4726,9 +4683,9 @@
       </c>
       <c r="P88" s="15"/>
     </row>
-    <row r="89" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D89" s="22"/>
-      <c r="E89" s="22" t="s">
+    <row r="89" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D89" s="24"/>
+      <c r="E89" s="24" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -4740,24 +4697,24 @@
       <c r="H89" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="23"/>
+      <c r="I89" s="25"/>
       <c r="J89" s="1">
         <v>1633.33</v>
       </c>
-      <c r="K89" s="23"/>
+      <c r="K89" s="25"/>
       <c r="N89" s="15">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H89,1)),ISNUMBER(FIND(MID(K2,2,1),H89,1)),ISNUMBER(FIND(MID(K2,3,1),H89,1)),ISNUMBER(FIND(MID(K2,4,1),H89,1)),ISNUMBER(FIND(MID(K2,5,1),H89,1))),I2*J89,0)</f>
-        <v>21233.29</v>
+        <v>44099.909999999996</v>
       </c>
       <c r="O89" s="14" t="s">
         <v>181</v>
       </c>
       <c r="P89" s="15"/>
     </row>
-    <row r="90" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22" t="s">
+    <row r="90" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24" t="s">
         <v>79</v>
       </c>
       <c r="G90" s="9" t="s">
@@ -4766,50 +4723,44 @@
       <c r="H90" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23">
+      <c r="I90" s="25"/>
+      <c r="J90" s="25">
         <v>3266.66</v>
       </c>
-      <c r="K90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23">
-        <v>66666</v>
+      <c r="K90" s="25"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="25">
+        <v>65146</v>
       </c>
       <c r="P90" s="15" t="str">
-        <f>IF(MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),-MID(O90,{1,2,3,4,5},1)))=1,"组六","组三")</f>
+        <f>IF(MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),{0,1,2,3,4,5,6,7,8,9}))=1,"组六","组三")</f>
         <v>组三</v>
       </c>
       <c r="Q90" s="1">
         <f>MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),-MID(O90,{1,2,3,4,5},1)))</f>
-        <v>5</v>
-      </c>
-      <c r="R90" s="1">
-        <v>11112</v>
-      </c>
-    </row>
-    <row r="91" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
       <c r="G91" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="R91" s="1">
-        <v>11121</v>
-      </c>
-    </row>
-    <row r="92" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22" t="s">
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+    </row>
+    <row r="92" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="9" t="s">
@@ -4818,40 +4769,34 @@
       <c r="H92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23">
+      <c r="I92" s="25"/>
+      <c r="J92" s="25">
         <v>6533.33</v>
       </c>
-      <c r="K92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="R92" s="1">
-        <v>11211</v>
-      </c>
-    </row>
-    <row r="93" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
+      <c r="K92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+    </row>
+    <row r="93" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
       <c r="G93" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
-      <c r="R93" s="1">
-        <v>12111</v>
-      </c>
-    </row>
-    <row r="94" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22" t="s">
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+    </row>
+    <row r="94" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24" t="s">
         <v>81</v>
       </c>
       <c r="G94" s="9" t="s">
@@ -4860,37 +4805,34 @@
       <c r="H94" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23">
+      <c r="I94" s="25"/>
+      <c r="J94" s="25">
         <v>9800</v>
       </c>
-      <c r="K94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="R94" s="1">
-        <v>21111</v>
-      </c>
-    </row>
-    <row r="95" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
+      <c r="K94" s="25"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="25"/>
+    </row>
+    <row r="95" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
       <c r="G95" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-    </row>
-    <row r="96" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22" t="s">
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="25"/>
+    </row>
+    <row r="96" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24" t="s">
         <v>82</v>
       </c>
       <c r="G96" s="9" t="s">
@@ -4899,34 +4841,34 @@
       <c r="H96" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23">
+      <c r="I96" s="25"/>
+      <c r="J96" s="25">
         <v>19600</v>
       </c>
-      <c r="K96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
+      <c r="K96" s="25"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="25"/>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
       <c r="G97" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="N97" s="25"/>
+      <c r="O97" s="25"/>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22" t="s">
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24" t="s">
         <v>83</v>
       </c>
       <c r="G98" s="9" t="s">
@@ -4935,33 +4877,33 @@
       <c r="H98" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23">
+      <c r="I98" s="25"/>
+      <c r="J98" s="25">
         <v>39200</v>
       </c>
-      <c r="K98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
+      <c r="K98" s="25"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="25"/>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
       <c r="G99" s="9" t="s">
         <v>89</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="23"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="25"/>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D100" s="22"/>
-      <c r="E100" s="22" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="24" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -4973,22 +4915,22 @@
       <c r="H100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="23"/>
+      <c r="I100" s="25"/>
       <c r="J100" s="1">
         <v>4.78</v>
       </c>
-      <c r="K100" s="23"/>
+      <c r="K100" s="25"/>
       <c r="N100" s="15">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H100,1)),ISNUMBER(FIND(MID(K2,2,1),H100,1)),ISNUMBER(FIND(MID(K2,3,1),H100,1)),ISNUMBER(FIND(MID(K2,4,1),H100,1)),ISNUMBER(FIND(MID(K2,5,1),H100,1))),I2*J100,0)</f>
-        <v>62.14</v>
+        <v>129.06</v>
       </c>
       <c r="O100" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
       <c r="F101" s="9" t="s">
         <v>91</v>
       </c>
@@ -4998,11 +4940,11 @@
       <c r="H101" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I101" s="23"/>
+      <c r="I101" s="25"/>
       <c r="J101" s="1">
         <v>13.36</v>
       </c>
-      <c r="K101" s="23"/>
+      <c r="K101" s="25"/>
       <c r="N101" s="10">
         <f ca="1">IF(
   SUM(IF(ISNUMBER(FIND(MID(K2,1,1),H101,1)),1,0),
@@ -5011,7 +4953,7 @@
    IF(ISNUMBER(FIND(MID(K2,4,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,5,1),H101,1)),1,0)
   )&gt;=2,I2*J101,0)</f>
-        <v>173.68</v>
+        <v>360.71999999999997</v>
       </c>
       <c r="O101" s="16" t="s">
         <v>184</v>
@@ -5021,8 +4963,8 @@
       </c>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
       <c r="F102" s="9" t="s">
         <v>92</v>
       </c>
@@ -5032,16 +4974,16 @@
       <c r="H102" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="23"/>
+      <c r="I102" s="25"/>
       <c r="J102" s="1">
         <v>45.05</v>
       </c>
-      <c r="K102" s="23"/>
+      <c r="K102" s="25"/>
       <c r="N102" s="10"/>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D103" s="22"/>
-      <c r="E103" s="22" t="s">
+      <c r="D103" s="24"/>
+      <c r="E103" s="24" t="s">
         <v>94</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -5053,22 +4995,22 @@
       <c r="H103" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="23"/>
+      <c r="I103" s="25"/>
       <c r="J103" s="1">
         <v>4.78</v>
       </c>
-      <c r="K103" s="23"/>
+      <c r="K103" s="25"/>
       <c r="N103" s="1">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H103,1)),ISNUMBER(FIND(MID(K2,2,1),H103,1)),ISNUMBER(FIND(MID(K2,3,1),H103,1)),ISNUMBER(FIND(MID(K2,4,1),H103,1)),ISNUMBER(FIND(MID(K2,5,1),H103,1))),I2*J103,0)</f>
-        <v>62.14</v>
+        <v>129.06</v>
       </c>
       <c r="O103" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
       <c r="F104" s="9" t="s">
         <v>96</v>
       </c>
@@ -5078,15 +5020,15 @@
       <c r="H104" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="23"/>
+      <c r="I104" s="25"/>
       <c r="J104" s="1">
         <v>24.06</v>
       </c>
-      <c r="K104" s="23"/>
+      <c r="K104" s="25"/>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
       <c r="F105" s="9" t="s">
         <v>97</v>
       </c>
@@ -5096,15 +5038,15 @@
       <c r="H105" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I105" s="23"/>
+      <c r="I105" s="25"/>
       <c r="J105" s="1">
         <v>228.97</v>
       </c>
-      <c r="K105" s="23"/>
+      <c r="K105" s="25"/>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
       <c r="F106" s="9" t="s">
         <v>98</v>
       </c>
@@ -5114,21 +5056,21 @@
       <c r="H106" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="23"/>
+      <c r="I106" s="25"/>
       <c r="J106" s="1">
         <v>4260.8599999999997</v>
       </c>
-      <c r="K106" s="23"/>
+      <c r="K106" s="25"/>
       <c r="P106" s="16"/>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D107" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="F107" s="24" t="s">
         <v>101</v>
       </c>
       <c r="G107" s="9" t="s">
@@ -5137,11 +5079,11 @@
       <c r="H107" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23">
+      <c r="I107" s="25"/>
+      <c r="J107" s="25">
         <v>7.84</v>
       </c>
-      <c r="K107" s="23"/>
+      <c r="K107" s="25"/>
       <c r="L107" s="15" t="b">
         <f>IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
@@ -5154,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="16"/>
-      <c r="N107" s="22">
+      <c r="N107" s="24">
         <f>IF(IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("单",H107,1))),1,0),
@@ -5172,24 +5114,24 @@
 )=2,I2*J107,0)</f>
         <v>0</v>
       </c>
-      <c r="O107" s="25" t="s">
+      <c r="O107" s="26" t="s">
         <v>190</v>
       </c>
       <c r="P107" s="20"/>
       <c r="Q107" s="20"/>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
       <c r="G108" s="9" t="s">
         <v>103</v>
       </c>
       <c r="H108" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
       <c r="L108" s="1" t="b">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
@@ -5201,13 +5143,13 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N108" s="22"/>
-      <c r="O108" s="25"/>
+      <c r="N108" s="24"/>
+      <c r="O108" s="26"/>
       <c r="Q108" s="20"/>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E109" s="22"/>
-      <c r="F109" s="22" t="s">
+      <c r="E109" s="24"/>
+      <c r="F109" s="24" t="s">
         <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
@@ -5216,11 +5158,11 @@
       <c r="H109" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23">
+      <c r="I109" s="25"/>
+      <c r="J109" s="25">
         <v>7.84</v>
       </c>
-      <c r="K109" s="23"/>
+      <c r="K109" s="25"/>
       <c r="L109" s="1" t="b">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
@@ -5232,7 +5174,7 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N109" s="23">
+      <c r="N109" s="25">
         <f>IF(IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("单",H109,1))),1,0),
@@ -5250,24 +5192,24 @@
 )=2,I2*J109,0)</f>
         <v>0</v>
       </c>
-      <c r="O109" s="25" t="s">
+      <c r="O109" s="26" t="s">
         <v>192</v>
       </c>
       <c r="P109" s="20"/>
       <c r="Q109" s="20"/>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
       <c r="G110" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
       <c r="L110" s="1" t="b">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
@@ -5279,13 +5221,13 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="N110" s="23"/>
-      <c r="O110" s="25"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="26"/>
       <c r="Q110" s="20"/>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E111" s="22"/>
-      <c r="F111" s="22" t="s">
+      <c r="E111" s="24"/>
+      <c r="F111" s="24" t="s">
         <v>108</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -5294,11 +5236,11 @@
       <c r="H111" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23">
+      <c r="I111" s="25"/>
+      <c r="J111" s="25">
         <v>15.68</v>
       </c>
-      <c r="K111" s="23"/>
+      <c r="K111" s="25"/>
       <c r="L111" s="1" t="b">
         <f>IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
@@ -5310,7 +5252,7 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N111" s="23">
+      <c r="N111" s="25">
         <f ca="1">IF(IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("单",H111,1))),1,0),
@@ -5333,24 +5275,24 @@
   IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("单",H113,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("双",H113,1))),1,0))
 )=3,I2*J111,0)</f>
-        <v>203.84</v>
-      </c>
-      <c r="O111" s="25" t="s">
+        <v>423.36</v>
+      </c>
+      <c r="O111" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
       <c r="G112" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
       <c r="L112" s="20" t="b">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
@@ -5362,21 +5304,21 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N112" s="23"/>
-      <c r="O112" s="25"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="26"/>
     </row>
     <row r="113" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
       <c r="G113" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
       <c r="L113" s="1" t="b">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
@@ -5388,12 +5330,12 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N113" s="23"/>
-      <c r="O113" s="25"/>
+      <c r="N113" s="25"/>
+      <c r="O113" s="26"/>
     </row>
     <row r="114" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E114" s="22"/>
-      <c r="F114" s="22" t="s">
+      <c r="E114" s="24"/>
+      <c r="F114" s="24" t="s">
         <v>52</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -5402,11 +5344,11 @@
       <c r="H114" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23">
+      <c r="I114" s="25"/>
+      <c r="J114" s="25">
         <v>15.68</v>
       </c>
-      <c r="K114" s="23"/>
+      <c r="K114" s="25"/>
       <c r="L114" s="20" t="b">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
@@ -5418,7 +5360,7 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N114" s="23">
+      <c r="N114" s="25">
         <f ca="1">IF(IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("单",H114,1))),1,0),
@@ -5441,24 +5383,24 @@
   IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("单",H116,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("双",H116,1))),1,0))
 )=3,I2*J114,0)</f>
-        <v>203.84</v>
-      </c>
-      <c r="O114" s="25" t="s">
+        <v>423.36</v>
+      </c>
+      <c r="O114" s="26" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="115" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
       <c r="G115" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="23"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
       <c r="L115" s="20" t="b">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
@@ -5470,21 +5412,21 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N115" s="23"/>
-      <c r="O115" s="25"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="26"/>
     </row>
     <row r="116" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
       <c r="G116" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
       <c r="L116" s="20" t="b">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
@@ -5496,17 +5438,17 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N116" s="23"/>
-      <c r="O116" s="25"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="26"/>
     </row>
     <row r="117" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D117" s="23" t="s">
+      <c r="D117" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="E117" s="22" t="s">
+      <c r="E117" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="F117" s="24" t="s">
         <v>114</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -5515,11 +5457,11 @@
       <c r="H117" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23">
+      <c r="I117" s="25"/>
+      <c r="J117" s="25">
         <v>1.96</v>
       </c>
-      <c r="K117" s="23"/>
+      <c r="K117" s="25"/>
       <c r="L117" s="1">
         <f>IF(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&lt;23,
  IF(MOD(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),2)=1,
@@ -5531,28 +5473,28 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="M117" s="23"/>
-      <c r="N117" s="23">
+      <c r="M117" s="25"/>
+      <c r="N117" s="25">
         <f ca="1">IF(SUM(L117:L122)&gt;0,SUM(L117:L122)*I2*J117,0)</f>
-        <v>101.92</v>
-      </c>
-      <c r="O117" s="25" t="s">
+        <v>211.68</v>
+      </c>
+      <c r="O117" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="118" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D118" s="23"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24"/>
       <c r="G118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H118" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
       <c r="L118" s="1">
         <f>IF(INT(LEFT(K2,1))&lt;5,
   IF(MOD(MID(K2,1,1),2)=1,
@@ -5572,23 +5514,23 @@
  )</f>
         <v>1</v>
       </c>
-      <c r="M118" s="23"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="25"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="26"/>
     </row>
     <row r="119" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D119" s="23"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
       <c r="G119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
       <c r="L119" s="1">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
@@ -5608,23 +5550,23 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="M119" s="23"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="25"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="26"/>
     </row>
     <row r="120" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D120" s="23"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
       <c r="G120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="23"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
       <c r="L120" s="1">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
@@ -5644,23 +5586,23 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="M120" s="23"/>
-      <c r="N120" s="23"/>
-      <c r="O120" s="25"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="26"/>
     </row>
     <row r="121" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D121" s="23"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
       <c r="G121" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
       <c r="L121" s="1">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
@@ -5680,21 +5622,21 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="M121" s="23"/>
-      <c r="N121" s="23"/>
-      <c r="O121" s="25"/>
+      <c r="M121" s="25"/>
+      <c r="N121" s="25"/>
+      <c r="O121" s="26"/>
     </row>
     <row r="122" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D122" s="23"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24"/>
       <c r="G122" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H122" s="10"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
       <c r="L122" s="1">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
@@ -5714,18 +5656,18 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="M122" s="23"/>
-      <c r="N122" s="23"/>
-      <c r="O122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="25"/>
+      <c r="O122" s="26"/>
     </row>
     <row r="123" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E123" s="22" t="s">
+      <c r="E123" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="F123" s="24" t="s">
         <v>121</v>
       </c>
       <c r="G123" s="9" t="s">
@@ -5734,204 +5676,204 @@
       <c r="H123" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I123" s="23"/>
-      <c r="J123" s="23">
+      <c r="I123" s="25"/>
+      <c r="J123" s="25">
         <v>2.177</v>
       </c>
-      <c r="K123" s="23"/>
+      <c r="K123" s="25"/>
       <c r="L123" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,2,1),IF(ISNUMBER(FIND("和",H123,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,2,1),IF(ISNUMBER(FIND("龙",H123,1)),1,0),IF(ISNUMBER(FIND("虎",H123,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N123" s="22">
+      <c r="N123" s="24">
         <f ca="1">IF(SUM(L123:L132)&gt;0,IF(SUM(L123:L132)=1000,I2*J128*10,IF(SUM(L123:L132)&gt;=100,LEFT(SUM(L123:L132),1)*I2*J128+RIGHT(SUM(L123:L132),1)*I2*J123,SUM(L123:L132)*J123*I2)),0)</f>
-        <v>283.01</v>
-      </c>
-      <c r="O123" s="25" t="s">
+        <v>587.79</v>
+      </c>
+      <c r="O123" s="26" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="124" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
       <c r="G124" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H124" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I124" s="23"/>
-      <c r="J124" s="23"/>
-      <c r="K124" s="23"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
       <c r="L124" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H124,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H124,1)),1,0),IF(ISNUMBER(FIND("虎",H124,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N124" s="23"/>
-      <c r="O124" s="25"/>
+      <c r="N124" s="25"/>
+      <c r="O124" s="26"/>
     </row>
     <row r="125" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
       <c r="G125" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H125" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
       <c r="L125" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H125,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H125,1)),1,0),IF(ISNUMBER(FIND("虎",H125,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N125" s="23"/>
-      <c r="O125" s="25"/>
+      <c r="N125" s="25"/>
+      <c r="O125" s="26"/>
     </row>
     <row r="126" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
       <c r="G126" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H126" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I126" s="23"/>
-      <c r="J126" s="23"/>
-      <c r="K126" s="23"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
       <c r="L126" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H126,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H126,1)),1,0),IF(ISNUMBER(FIND("虎",H126,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N126" s="23"/>
-      <c r="O126" s="25"/>
+      <c r="N126" s="25"/>
+      <c r="O126" s="26"/>
     </row>
     <row r="127" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
       <c r="G127" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H127" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I127" s="23"/>
-      <c r="J127" s="23"/>
-      <c r="K127" s="23"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
       <c r="L127" s="1">
         <f>IF(MID(K2,2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H127,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H127,1)),1,0),IF(ISNUMBER(FIND("虎",H127,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N127" s="23"/>
-      <c r="O127" s="25"/>
+      <c r="N127" s="25"/>
+      <c r="O127" s="26"/>
     </row>
     <row r="128" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
       <c r="G128" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H128" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23">
+      <c r="I128" s="25"/>
+      <c r="J128" s="25">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K128" s="23"/>
+      <c r="K128" s="25"/>
       <c r="L128" s="1">
         <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H128,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H128,1)),1,0),IF(ISNUMBER(FIND("虎",H128,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N128" s="23"/>
-      <c r="O128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="26"/>
     </row>
     <row r="129" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
       <c r="G129" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H129" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
       <c r="L129" s="1">
         <f>IF(MID(K2,2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H129,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H129,1)),1,0),IF(ISNUMBER(FIND("虎",H129,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N129" s="23"/>
-      <c r="O129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="26"/>
     </row>
     <row r="130" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24"/>
       <c r="G130" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="I130" s="23"/>
-      <c r="J130" s="23"/>
-      <c r="K130" s="23"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
       <c r="L130" s="20">
         <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H130,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H130,1)),1,0),IF(ISNUMBER(FIND("虎",H130,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N130" s="23"/>
-      <c r="O130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="26"/>
     </row>
     <row r="131" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
       <c r="G131" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H131" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="I131" s="23"/>
-      <c r="J131" s="23"/>
-      <c r="K131" s="23"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
       <c r="L131" s="1">
         <f>IF(MID(K2,3,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H131,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H131,1)),1,0),IF(ISNUMBER(FIND("虎",H131,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N131" s="23"/>
-      <c r="O131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="26"/>
     </row>
     <row r="132" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
       <c r="G132" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H132" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="I132" s="23"/>
-      <c r="J132" s="23"/>
-      <c r="K132" s="23"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
       <c r="L132" s="1">
         <f>IF(MID(K2,4,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H132,1)),100,0),IF(MID(K2,4,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H132,1)),1,0),IF(ISNUMBER(FIND("虎",H132,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N132" s="23"/>
-      <c r="O132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="26"/>
     </row>
     <row r="133" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D133" s="9" t="s">
@@ -5949,14 +5891,14 @@
       <c r="H133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I133" s="23"/>
+      <c r="I133" s="25"/>
       <c r="J133" s="1">
         <v>98000</v>
       </c>
-      <c r="K133" s="23"/>
+      <c r="K133" s="25"/>
       <c r="N133" s="1">
         <f ca="1">IF(SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))=LEFT(K2,1)*5,I2*J133,0)</f>
-        <v>1274000</v>
+        <v>2646000</v>
       </c>
       <c r="O133" s="21" t="s">
         <v>192</v>
@@ -5964,41 +5906,67 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="N123:N132"/>
-    <mergeCell ref="O123:O132"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="N111:N113"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="N114:N116"/>
-    <mergeCell ref="O114:O116"/>
-    <mergeCell ref="O111:O113"/>
-    <mergeCell ref="N117:N122"/>
-    <mergeCell ref="M117:M122"/>
-    <mergeCell ref="O117:O122"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N83:N87"/>
-    <mergeCell ref="O83:O87"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="E123:E132"/>
+    <mergeCell ref="D123:D132"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="F123:F132"/>
+    <mergeCell ref="E89:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="D83:D106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E107:E116"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="D70:D82"/>
+    <mergeCell ref="F83:F87"/>
+    <mergeCell ref="J83:J87"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="J70:J73"/>
+    <mergeCell ref="E70:E74"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="D40:D54"/>
+    <mergeCell ref="E40:E45"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E46:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="D55:D69"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="F55:F57"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="N25:N27"/>
     <mergeCell ref="D25:D39"/>
     <mergeCell ref="E25:E30"/>
@@ -6023,71 +5991,45 @@
     <mergeCell ref="O70:O73"/>
     <mergeCell ref="N76:N77"/>
     <mergeCell ref="E61:E67"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="E31:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="D70:D82"/>
-    <mergeCell ref="F83:F87"/>
-    <mergeCell ref="J83:J87"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="J70:J73"/>
-    <mergeCell ref="E70:E74"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="D40:D54"/>
-    <mergeCell ref="E40:E45"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="E46:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D55:D69"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E89:E99"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="D83:D106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E107:E116"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N83:N87"/>
+    <mergeCell ref="O83:O87"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="N123:N132"/>
+    <mergeCell ref="O123:O132"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="N111:N113"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="N114:N116"/>
+    <mergeCell ref="O114:O116"/>
+    <mergeCell ref="O111:O113"/>
+    <mergeCell ref="N117:N122"/>
+    <mergeCell ref="M117:M122"/>
+    <mergeCell ref="O117:O122"/>
     <mergeCell ref="J109:J110"/>
     <mergeCell ref="J111:J113"/>
     <mergeCell ref="J114:J116"/>
     <mergeCell ref="J117:J122"/>
-    <mergeCell ref="E123:E132"/>
-    <mergeCell ref="D123:D132"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="F123:F132"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/BetDatas(1).xlsx
+++ b/BetDatas(1).xlsx
@@ -636,7 +636,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="213">
   <si>
     <t>LotteryType</t>
   </si>
@@ -1497,15 +1497,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有点问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>还有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含对子的情况未考虑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1661,12 +1653,32 @@
     <t>,144</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0,1,2,3,4,5,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二重号位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,4,3,6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2,3,5,6,7,8,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1741,6 +1753,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1769,7 +1789,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1779,8 +1799,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1815,9 +1838,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1862,14 +1882,30 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="警告文本" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2143,12 +2179,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R133"/>
+  <dimension ref="A1:R135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:K133"/>
+      <selection pane="bottomLeft" activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,9 +2197,9 @@
     <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="14.125" style="8" customWidth="1"/>
     <col min="16" max="16" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.625" style="1" customWidth="1"/>
@@ -2207,13 +2243,13 @@
       <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2227,13 +2263,13 @@
       <c r="C2" s="1">
         <v>20180517001</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -2242,139 +2278,120 @@
       <c r="H2" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2" s="27">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>27</v>
-      </c>
-      <c r="J2" s="25">
+        <v>12</v>
+      </c>
+      <c r="J2" s="27">
         <v>19.600000000000001</v>
       </c>
-      <c r="K2" s="25">
-        <v>32145</v>
+      <c r="K2" s="27">
+        <v>19444</v>
       </c>
       <c r="L2" s="1">
         <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H2,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="30">
         <f ca="1">SUM(L2:L6)*I2*J2</f>
-        <v>2646</v>
-      </c>
-      <c r="O2" s="26" t="s">
+        <v>1176</v>
+      </c>
+      <c r="O2" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="15">
-        <f>FIND(LEFT(K2,1),H2,1)</f>
-        <v>7</v>
-      </c>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H3,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="1" t="str">
-        <f>MID(K2,2,1)</f>
-        <v>2</v>
-      </c>
+      <c r="N3" s="30"/>
+      <c r="O3" s="29"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,3,1),H4,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="1" t="str">
-        <f>MID(K2,3,1)</f>
-        <v>1</v>
-      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="1">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,4,1),H5,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="1" t="str">
-        <f>MID(K2,4,1)</f>
-        <v>4</v>
-      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="29"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="1">
         <f>IF(AND(ISNUMBER(FIND(RIGHT(K2,1),H6,1)),LEN(K2)&lt;&gt;0),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="1" t="str">
-        <f>RIGHT(K2,1)</f>
-        <v>5</v>
-      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2383,48 +2400,48 @@
       <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27">
         <v>196</v>
       </c>
-      <c r="K7" s="25"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="1">
         <f>IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25">
+      <c r="M7" s="27"/>
+      <c r="N7" s="30">
         <f ca="1">IF(IF(ISNUMBER(FIND(LEFT(K2,1),H7,1)),1,"0")+IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,"0")=2,I2*J7*1,0)</f>
-        <v>5292</v>
-      </c>
-      <c r="O7" s="26" t="s">
+        <v>2352</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="1">
         <f>IF(ISNUMBER(FIND(MID(K2,2,1),H8,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="29"/>
     </row>
     <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="3" t="s">
         <v>27</v>
       </c>
@@ -2433,19 +2450,19 @@
       </c>
       <c r="H9" s="4" t="str">
         <f ca="1">","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;","&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>,69,05,34,03</v>
-      </c>
-      <c r="I9" s="25"/>
+        <v>,84,99,32,60</v>
+      </c>
+      <c r="I9" s="27"/>
       <c r="J9" s="1">
         <v>196</v>
       </c>
-      <c r="K9" s="25"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="9">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),1,0)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="2">
+      <c r="M9" s="27"/>
+      <c r="N9" s="31">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;LEFT(K2,2),H9,1)),I2*J9,0)</f>
         <v>0</v>
       </c>
@@ -2454,8 +2471,8 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2465,27 +2482,27 @@
       <c r="H10" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="1">
         <v>196</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="8">
         <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),I2*J10,0)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N10" s="31">
+        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H10,1)),I2*J10,0)</f>
+        <v>2352</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R10" s="15"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
@@ -2495,26 +2512,26 @@
       <c r="H11" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="1">
         <v>196</v>
       </c>
-      <c r="K11" s="25"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="1">
         <f>IF(ISNUMBER(FIND(IF(LEFT(K2,1)&gt;MID(K2,2,1),LEFT(K2,1)-MID(K2,2,1),MID(K2,2,1)-LEFT(K2,1)),H11,1)),1,0)</f>
         <v>1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="31">
         <f ca="1">IF(ISNUMBER(FIND(MAX(LEFT(K2,1),MID(K2,2,1))-MIN(LEFT(K2,1),MID(K2,2,1)),H11,1)),I2*J11*1,0)</f>
-        <v>5292</v>
+        <v>2352</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D12" s="27"/>
-      <c r="E12" s="27" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2527,27 +2544,27 @@
         <f>0&amp;123456789</f>
         <v>0123456789</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="1">
         <v>98</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="8">
         <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,1,0),0)</f>
         <v>1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="31">
         <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(IF(ISNUMBER(FIND(LEFT(K2,1),H12,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,2,1),H12,1)),1,0)=2,I2*J12,0),0)</f>
-        <v>2646</v>
+        <v>1176</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="P12" s="16"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="3" t="s">
         <v>35</v>
       </c>
@@ -2557,26 +2574,22 @@
       <c r="H13" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="1">
         <v>98</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="1" t="str">
-        <f>LEFT(K2,2)</f>
-        <v>32</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="K13" s="27"/>
+      <c r="N13" s="31">
         <f>IF(EXACT(LEFT(K2,1),MID(K2,2,1)),0,IF(OR(ISNUMBER(FIND(","&amp;LEFT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;LEFT(K2,1)&amp;",",H13,1))),I2*J13,0))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="27" x14ac:dyDescent="0.15">
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2586,19 +2599,15 @@
       <c r="H14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="1">
         <v>98</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="1" t="str">
-        <f>LEFT(K2,2)</f>
-        <v>32</v>
-      </c>
+      <c r="K14" s="27"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="8">
-        <f>IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H14,1)),I2*J14,0),0)</f>
-        <v>0</v>
+      <c r="N14" s="31">
+        <f ca="1">IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1))&amp;",",H14,1)),I2*J14,0),0)</f>
+        <v>1176</v>
       </c>
       <c r="O14" s="11" t="s">
         <v>136</v>
@@ -2606,8 +2615,8 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="3" t="s">
         <v>37</v>
       </c>
@@ -2617,14 +2626,14 @@
       <c r="H15" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="1">
         <v>98</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="N15" s="1">
+      <c r="K15" s="27"/>
+      <c r="N15" s="31">
         <f ca="1">IF(AND(OR(ISNUMBER(FIND(LEFT(K2,1),H15,1)),ISNUMBER(FIND(MID(K2,2,1),H15,1))),LEFT(K2,1)&lt;&gt;MID(K2,2,1)),I2*J15,0)</f>
-        <v>2646</v>
+        <v>1176</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>136</v>
@@ -2632,13 +2641,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="C16" s="3"/>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="28" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="9" t="s">
@@ -2647,50 +2656,50 @@
       <c r="H16" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25">
+      <c r="I16" s="27"/>
+      <c r="J16" s="27">
         <v>196</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="N16" s="25">
-        <f>IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H17,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H16,1)),1,0)=2,I2*J16*1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="26" t="s">
+      <c r="K16" s="27"/>
+      <c r="N16" s="30">
+        <f ca="1">IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H17,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H16,1)),1,0)=2,I2*J16*1,0)</f>
+        <v>2352</v>
+      </c>
+      <c r="O16" s="29" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
       <c r="G17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="1">
         <v>196</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="N18" s="8">
+      <c r="K18" s="27"/>
+      <c r="N18" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;RIGHT(K2,2),H18,1)),I2*J18,0)</f>
         <v>0</v>
       </c>
@@ -2699,8 +2708,8 @@
       </c>
     </row>
     <row r="19" spans="4:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
       <c r="F19" s="3" t="s">
         <v>29</v>
       </c>
@@ -2710,22 +2719,22 @@
       <c r="H19" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="1">
         <v>196</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="N19" s="8">
+      <c r="K19" s="27"/>
+      <c r="N19" s="31">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(RIGHT(K2,1),MID(K2,4,1))&amp;",",H19,1)),I2*J19,0)</f>
-        <v>5292</v>
+        <v>2352</v>
       </c>
       <c r="O19" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
       <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2735,22 +2744,22 @@
       <c r="H20" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="1">
         <v>196</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="N20" s="8">
-        <f>IF(ISNUMBER(FIND(MAX(MID(K2,4,1),RIGHT(K2,1))-MIN(MID(K2,4,1),RIGHT(K2,1)),H20,1)),I2*J20*1,0)</f>
-        <v>0</v>
+      <c r="K20" s="27"/>
+      <c r="N20" s="31">
+        <f ca="1">IF(ISNUMBER(FIND(MAX(MID(K2,4,1),RIGHT(K2,1))-MIN(MID(K2,4,1),RIGHT(K2,1)),H20,1)),I2*J20*1,0)</f>
+        <v>2352</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2762,44 +2771,44 @@
       <c r="H21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="1">
         <v>98</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="N21" s="8">
-        <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H21,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H21,1)),1,0)=2,I2*J21,0),0)</f>
-        <v>2646</v>
+      <c r="K21" s="27"/>
+      <c r="N21" s="31">
+        <f>IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(IF(ISNUMBER(FIND(RIGHT(K2,1),H21,1)),1,0)+IF(ISNUMBER(FIND(MID(K2,4,1),H21,1)),1,0)=2,I2*J21,0),0)</f>
+        <v>0</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="22" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
       <c r="F22" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="1">
         <v>98</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="N22" s="12">
-        <f ca="1">IF(EXACT(RIGHT(K2,1),MID(K2,4,1)),0,IF(OR(ISNUMBER(FIND(","&amp;RIGHT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;RIGHT(K2,1)&amp;MID(K2,4,1)&amp;",",H13,1))),I2*J13,0))</f>
-        <v>2646</v>
-      </c>
-      <c r="O22" s="13" t="s">
+      <c r="K22" s="27"/>
+      <c r="N22" s="31">
+        <f>IF(EXACT(RIGHT(K2,1),MID(K2,4,1)),0,IF(OR(ISNUMBER(FIND(","&amp;RIGHT(K2,2)&amp;",",H13,1)),ISNUMBER(FIND(","&amp;RIGHT(K2,1)&amp;MID(K2,4,1)&amp;",",H13,1))),I2*J13,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="3" t="s">
         <v>36</v>
       </c>
@@ -2809,26 +2818,22 @@
       <c r="H23" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I23" s="25"/>
+      <c r="I23" s="27"/>
       <c r="J23" s="1">
         <v>98</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="1" t="str">
-        <f>RIGHT(K2,2)</f>
-        <v>45</v>
-      </c>
-      <c r="N23" s="8">
-        <f ca="1">IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,4,1),RIGHT(K2,1))&amp;",",H23,1)),I2*J23,0),0)</f>
-        <v>2646</v>
+      <c r="K23" s="27"/>
+      <c r="N23" s="31">
+        <f>IF(RIGHT(K2,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,4,1),RIGHT(K2,1))&amp;",",H23,1)),I2*J23,0),0)</f>
+        <v>0</v>
       </c>
       <c r="O23" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
       <c r="F24" s="3" t="s">
         <v>37</v>
       </c>
@@ -2838,27 +2843,27 @@
       <c r="H24" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="25"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="1">
         <v>98</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="N24" s="8">
-        <f ca="1">IF(AND(OR(ISNUMBER(FIND(RIGHT(K2,1),H24,1)),ISNUMBER(FIND(MID(K2,4,1),H24,1))),RIGHT(K2,1)&lt;&gt;MID(K2,4,1)),I2*J24,0)</f>
-        <v>2646</v>
+      <c r="K24" s="27"/>
+      <c r="N24" s="31">
+        <f>IF(AND(OR(ISNUMBER(FIND(RIGHT(K2,1),H24,1)),ISNUMBER(FIND(MID(K2,4,1),H24,1))),RIGHT(K2,1)&lt;&gt;MID(K2,4,1)),I2*J24,0)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -2867,66 +2872,66 @@
       <c r="H25" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25">
+      <c r="I25" s="27"/>
+      <c r="J25" s="27">
         <v>1960</v>
       </c>
-      <c r="K25" s="25"/>
+      <c r="K25" s="27"/>
       <c r="L25" s="1" t="b">
         <f>ISNUMBER(FIND(LEFT(K2,1),H25,1))</f>
-        <v>1</v>
-      </c>
-      <c r="N25" s="25">
-        <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H25,1)),ISNUMBER(FIND(MID(K2,2,1),H26,1)),ISNUMBER(FIND(MID(K2,3,1),H27,1))),I2*J25,0)</f>
-        <v>52920</v>
-      </c>
-      <c r="O25" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30">
+        <f>IF(AND(ISNUMBER(FIND(LEFT(K2,1),H25,1)),ISNUMBER(FIND(MID(K2,2,1),H26,1)),ISNUMBER(FIND(MID(K2,3,1),H27,1))),I2*J25,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
       <c r="G26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H26,1))</f>
         <v>1</v>
       </c>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="29"/>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="8" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H27,1))</f>
         <v>1</v>
       </c>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="29"/>
     </row>
     <row r="28" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
       <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
@@ -2936,12 +2941,12 @@
       <c r="H28" s="4">
         <v>123</v>
       </c>
-      <c r="I28" s="25"/>
+      <c r="I28" s="27"/>
       <c r="J28" s="1">
         <v>1960</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="N28" s="8">
+      <c r="K28" s="27"/>
+      <c r="N28" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;LEFT(K2,3),H28,1)),I2*J28,0)</f>
         <v>0</v>
       </c>
@@ -2950,8 +2955,8 @@
       </c>
     </row>
     <row r="29" spans="4:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="3" t="s">
         <v>29</v>
       </c>
@@ -2961,22 +2966,22 @@
       <c r="H29" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="1">
         <v>1960</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="N29" s="8">
-        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H29,1)),I2*J29,0)</f>
-        <v>52920</v>
+      <c r="K29" s="27"/>
+      <c r="N29" s="31">
+        <f>IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H29,1)),I2*J29,0)</f>
+        <v>0</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2986,12 +2991,12 @@
       <c r="H30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="1">
         <v>1960</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="N30" s="8">
+      <c r="K30" s="27"/>
+      <c r="N30" s="31">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1))-MIN(MID(K2,2,1),LEFT(K2,1),MID(K2,3,1)),H30,1)),I2*J30*1,0)</f>
         <v>0</v>
       </c>
@@ -3000,8 +3005,8 @@
       </c>
     </row>
     <row r="31" spans="4:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D31" s="27"/>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -3013,26 +3018,26 @@
       <c r="H31" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K31" s="25"/>
+      <c r="K31" s="27"/>
       <c r="M31" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="31">
         <f ca="1">IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31*2,0),IF(LEFT(K2,1)&lt;&gt;MID(K2,2,1)&lt;&gt;MID(K2,3,1),IF(ISNUMBER(FIND(","&amp;SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1))&amp;",",H31,1)),I2*J31,0)))</f>
-        <v>8819.9549999999999</v>
+        <v>3919.9800000000005</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="3" t="s">
         <v>43</v>
       </c>
@@ -3042,11 +3047,11 @@
       <c r="H32" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K32" s="25"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="1" t="b">
         <f>AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1)),M32)</f>
         <v>0</v>
@@ -3055,7 +3060,7 @@
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="31">
         <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),IF(AND(ISNUMBER(FIND(LEFT(K2,1),H32,1)),ISNUMBER(FIND(MID(K2,2,1),H32,1)),ISNUMBER(FIND(MID(K2,3,1),H32,1))),I2*J32,0),0)</f>
         <v>0</v>
       </c>
@@ -3064,8 +3069,8 @@
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
       <c r="F33" s="3" t="s">
         <v>44</v>
       </c>
@@ -3075,16 +3080,16 @@
       <c r="H33" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K33" s="25"/>
+      <c r="K33" s="27"/>
       <c r="M33" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N33" s="31">
         <f>IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),0,IF(AND(ISNUMBER(FIND(LEFT(K2,1),H33,1)),ISNUMBER(FIND(MID(K2,2,1),H33,1)),ISNUMBER(FIND(MID(K2,3,1),H33,1))),I2*J33,0))</f>
         <v>0</v>
       </c>
@@ -3093,22 +3098,22 @@
       </c>
     </row>
     <row r="34" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
       <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="25"/>
+      <c r="H34" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="I34" s="27"/>
       <c r="J34" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K34" s="25"/>
+      <c r="K34" s="27"/>
       <c r="L34" s="1" t="b">
         <f>AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
   ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H34,1)),
@@ -3117,14 +3122,14 @@
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H34,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H34,1))),
   AND(LEFT(K2,1)+MID(K2,2,1)+MID(K2,3,1)&lt;&gt;MID(K2,3,1)*3))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" s="1" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N34" s="1">
-        <f ca="1">IF(AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
+      <c r="N34" s="31">
+        <f>IF(AND(OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H34,1)),
   ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H34,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H34,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H34,1)),
@@ -3135,15 +3140,15 @@
   I2*J34*2,I2*J34
  ),0
 )</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
       <c r="F35" s="3" t="s">
         <v>37</v>
       </c>
@@ -3153,30 +3158,30 @@
       <c r="H35" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="1">
         <v>326.66500000000002</v>
       </c>
-      <c r="K35" s="25"/>
-      <c r="L35" s="15" t="b">
+      <c r="K35" s="27"/>
+      <c r="L35" s="14" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1)))</f>
         <v>1</v>
       </c>
-      <c r="M35" s="15" t="b">
+      <c r="M35" s="14" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N35" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H35,1)),ISNUMBER(FIND(MID(K2,2,1),H35,1)),ISNUMBER(FIND(MID(K2,3,1),H35,1))),IF(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),I2*J35*2,I2*J35),0)</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O35" s="14" t="s">
+        <v>3919.9800000000005</v>
+      </c>
+      <c r="O35" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="3" t="s">
         <v>46</v>
       </c>
@@ -3184,19 +3189,19 @@
         <v>28</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I36" s="25"/>
+        <v>202</v>
+      </c>
+      <c r="I36" s="27"/>
       <c r="J36" s="1">
         <v>653.33000000000004</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15" t="b">
+      <c r="K36" s="27"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N36" s="31">
         <f>IF(AND(OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1))),
   OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H36,1)),
   ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H36,1)),
@@ -3208,13 +3213,13 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O36" s="21" t="s">
+      <c r="O36" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="37" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
       <c r="F37" s="3" t="s">
         <v>47</v>
       </c>
@@ -3222,35 +3227,35 @@
         <v>28</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" s="25"/>
+        <v>205</v>
+      </c>
+      <c r="I37" s="27"/>
       <c r="J37" s="1">
         <v>326.66000000000003</v>
       </c>
-      <c r="K37" s="25"/>
-      <c r="M37" s="15" t="b">
+      <c r="K37" s="27"/>
+      <c r="M37" s="14" t="b">
         <f>OR(AND(LEFT(K2,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)),AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)=MID(K2,3,1)),AND(MID(K2,3,1)=LEFT(K2,1),LEFT(K2,1)&lt;&gt;MID(K2,2,1)))</f>
         <v>0</v>
       </c>
-      <c r="N37" s="1">
-        <f ca="1">IF(AND(AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1),LEFT(K2,1)&lt;&gt;MID(K2,3,1)),OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H37,1)),
+      <c r="N37" s="31">
+        <f>IF(AND(AND(LEFT(K2,1)&lt;&gt;MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1),LEFT(K2,1)&lt;&gt;MID(K2,3,1)),OR(ISNUMBER(FIND(","&amp;LEFT(K2,3),H37,1)),
   ISNUMBER(FIND(","&amp;LEFT(K2,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H37,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,1,1)&amp;MID(K2,3,1),H37,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,2)&amp;LEFT(K2,1),H37,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;LEFT(K2,2),H37,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;LEFT(K2,1),H37,1)))),
  I2*J37,0)</f>
-        <v>8819.8200000000015</v>
-      </c>
-      <c r="O37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Q37" s="19"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D38" s="27"/>
-      <c r="E38" s="27" t="s">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -3262,26 +3267,26 @@
       <c r="H38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="1">
         <v>7.23</v>
       </c>
-      <c r="K38" s="25"/>
-      <c r="L38" s="15" t="b">
+      <c r="K38" s="27"/>
+      <c r="L38" s="14" t="b">
         <f>OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1)))</f>
         <v>1</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(LEFT(K2,1),H38,1)),ISNUMBER(FIND(MID(K2,2,1),H38,1)),ISNUMBER(FIND(MID(K2,3,1),H38,1))),I2*J38,0)</f>
-        <v>195.21</v>
-      </c>
-      <c r="O38" s="14" t="s">
+        <v>86.76</v>
+      </c>
+      <c r="O38" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
       <c r="F39" s="3" t="s">
         <v>50</v>
       </c>
@@ -3291,99 +3296,99 @@
       <c r="H39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="1">
         <v>36.29</v>
       </c>
-      <c r="K39" s="25"/>
+      <c r="K39" s="27"/>
       <c r="L39" s="1" t="b">
         <f>OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1))))</f>
         <v>1</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="31">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H39,1)),ISNUMBER(FIND(MID(K2,2,1),H39,1))),AND(ISNUMBER(FIND(LEFT(K2,1),H39,1)),ISNUMBER(FIND(MID(K2,3,1),H39,1)))),I2*J39,0)</f>
-        <v>979.82999999999993</v>
-      </c>
-      <c r="O39" s="14" t="s">
+        <v>435.48</v>
+      </c>
+      <c r="O39" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>157</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25">
+      <c r="I40" s="27"/>
+      <c r="J40" s="27">
         <v>1960</v>
       </c>
-      <c r="K40" s="25"/>
-      <c r="L40" s="17" t="b">
+      <c r="K40" s="27"/>
+      <c r="L40" s="16" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H40,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="25">
+        <v>1</v>
+      </c>
+      <c r="N40" s="30">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H40,1)),ISNUMBER(FIND(MID(K2,3,1),H41,1)),ISNUMBER(FIND(MID(K2,4,1),H42,1))),I2*J40,0)</f>
         <v>0</v>
       </c>
-      <c r="O40" s="26" t="s">
+      <c r="O40" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="16" t="s">
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="15" t="s">
         <v>158</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="17" t="b">
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="16" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H41,1))</f>
-        <v>1</v>
-      </c>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="30"/>
+      <c r="O41" s="29"/>
     </row>
     <row r="42" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="16" t="s">
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="15" t="s">
         <v>159</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="17" t="b">
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="16" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H42,1))</f>
         <v>1</v>
       </c>
-      <c r="N42" s="25"/>
-      <c r="O42" s="26"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="29"/>
     </row>
     <row r="43" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
       <c r="F43" s="6" t="s">
         <v>41</v>
       </c>
@@ -3393,26 +3398,26 @@
       <c r="H43" s="4">
         <v>456</v>
       </c>
-      <c r="I43" s="25"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="2">
         <v>1960</v>
       </c>
-      <c r="K43" s="25"/>
+      <c r="K43" s="27"/>
       <c r="L43" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;MID(K2,2,3)&amp;",",H43,1))</f>
         <v>0</v>
       </c>
-      <c r="N43" s="15">
+      <c r="N43" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;MID(K2,2,3)&amp;",",H43,1)),I2*J43,0)</f>
         <v>0</v>
       </c>
-      <c r="O43" s="14" t="s">
+      <c r="O43" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="44" spans="4:17" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
       <c r="F44" s="6" t="s">
         <v>29</v>
       </c>
@@ -3422,26 +3427,26 @@
       <c r="H44" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="25"/>
+      <c r="I44" s="27"/>
       <c r="J44" s="2">
         <v>1960</v>
       </c>
-      <c r="K44" s="25"/>
+      <c r="K44" s="27"/>
       <c r="L44" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H29,1))</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="15">
-        <f>IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H29,1)),I2*J29,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="31">
+        <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H29,1)),I2*J29,0)</f>
+        <v>23520</v>
+      </c>
+      <c r="O44" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="45" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
       <c r="F45" s="6" t="s">
         <v>32</v>
       </c>
@@ -3451,26 +3456,26 @@
       <c r="H45" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="I45" s="25"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="2">
         <v>1960</v>
       </c>
-      <c r="K45" s="25"/>
+      <c r="K45" s="27"/>
       <c r="L45" s="1" t="b">
         <f>ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1))</f>
         <v>0</v>
       </c>
-      <c r="N45" s="15">
+      <c r="N45" s="31">
         <f>IF(ISNUMBER(FIND(MAX(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))-MIN(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1)),H45,1)),I2*J45*1,0)</f>
         <v>0</v>
       </c>
-      <c r="O45" s="14" t="s">
+      <c r="O45" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" spans="4:17" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D46" s="27"/>
-      <c r="E46" s="27" t="s">
+      <c r="D46" s="28"/>
+      <c r="E46" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F46" s="6" t="s">
@@ -3482,26 +3487,26 @@
       <c r="H46" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="25"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K46" s="25"/>
+      <c r="K46" s="27"/>
       <c r="M46" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="15">
+        <v>1</v>
+      </c>
+      <c r="N46" s="31">
         <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46*2,0),IF(MID(K2,2,1)&lt;&gt;MID(K2,3,1)&lt;&gt;MID(K2,4,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,2,1),MID(K2,3,1),MID(K2,4,1))&amp;",",H46,1)),I2*J46,0)))</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O46" s="14" t="s">
+        <v>7839.9600000000009</v>
+      </c>
+      <c r="O46" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="6" t="s">
         <v>43</v>
       </c>
@@ -3511,30 +3516,30 @@
       <c r="H47" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="I47" s="25"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K47" s="25"/>
+      <c r="K47" s="27"/>
       <c r="L47" s="1" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1)),M47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="15">
-        <f>IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1))),I2*J47,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N47" s="31">
+        <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),IF(AND(ISNUMBER(FIND(MID(K2,2,1),H47,1)),ISNUMBER(FIND(MID(K2,3,1),H47,1)),ISNUMBER(FIND(MID(K2,4,1),H47,1))),I2*J47,0),0)</f>
+        <v>7839.9600000000009</v>
+      </c>
+      <c r="O47" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="48" spans="4:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
       <c r="F48" s="6" t="s">
         <v>44</v>
       </c>
@@ -3544,26 +3549,26 @@
       <c r="H48" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="25"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K48" s="25"/>
+      <c r="K48" s="27"/>
       <c r="M48" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="15">
-        <f ca="1">IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,2,1),H48,1)),ISNUMBER(FIND(MID(K2,3,1),H48,1)),ISNUMBER(FIND(MID(K2,4,1),H48,1))),I2*J48,0))</f>
-        <v>8819.8200000000015</v>
-      </c>
-      <c r="O48" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N48" s="31">
+        <f>IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,2,1),H48,1)),ISNUMBER(FIND(MID(K2,3,1),H48,1)),ISNUMBER(FIND(MID(K2,4,1),H48,1))),I2*J48,0))</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="49" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
       <c r="F49" s="6" t="s">
         <v>45</v>
       </c>
@@ -3571,18 +3576,18 @@
         <v>28</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="I49" s="25"/>
+        <v>200</v>
+      </c>
+      <c r="I49" s="27"/>
       <c r="J49" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K49" s="25"/>
+      <c r="K49" s="27"/>
       <c r="M49" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="31">
         <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H49,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H49,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;MID(K2,4,1),H49,1)),
@@ -3596,13 +3601,13 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O49" s="21" t="s">
+      <c r="O49" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="50" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
       <c r="F50" s="6" t="s">
         <v>37</v>
       </c>
@@ -3612,26 +3617,26 @@
       <c r="H50" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I50" s="25"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K50" s="25"/>
+      <c r="K50" s="27"/>
       <c r="M50" s="1" t="b">
         <f>OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1)))</f>
-        <v>0</v>
-      </c>
-      <c r="N50" s="15">
+        <v>1</v>
+      </c>
+      <c r="N50" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H50,1)),ISNUMBER(FIND(MID(K2,3,1),H50,1)),ISNUMBER(FIND(MID(K2,4,1),H50,1))),IF(OR(AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1)),AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1)),AND(MID(K2,4,1)=MID(K2,2,1),MID(K2,2,1)&lt;&gt;MID(K2,3,1))),I2*J50*2,I2*J50),0)</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O50" s="14" t="s">
+        <v>7839.9600000000009</v>
+      </c>
+      <c r="O50" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="51" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
       <c r="F51" s="6" t="s">
         <v>46</v>
       </c>
@@ -3639,14 +3644,14 @@
         <v>28</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I51" s="25"/>
+        <v>203</v>
+      </c>
+      <c r="I51" s="27"/>
       <c r="J51" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="N51" s="20">
+      <c r="K51" s="27"/>
+      <c r="N51" s="31">
         <f>IF(AND(
  OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H51,1)),
  ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H51,1)),
@@ -3659,13 +3664,13 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O51" s="21" t="s">
+      <c r="O51" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="4:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
       <c r="F52" s="6" t="s">
         <v>47</v>
       </c>
@@ -3673,15 +3678,15 @@
         <v>28</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I52" s="25"/>
+        <v>206</v>
+      </c>
+      <c r="I52" s="27"/>
       <c r="J52" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K52" s="25"/>
-      <c r="N52" s="1">
-        <f ca="1">IF(AND(AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,2,1)&lt;&gt;MID(K2,4,1)),
+      <c r="K52" s="27"/>
+      <c r="N52" s="31">
+        <f>IF(AND(AND(MID(K2,2,1)&lt;&gt;MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,2,1)&lt;&gt;MID(K2,4,1)),
   OR(ISNUMBER(FIND(","&amp;MID(K2,2,3),H52,1)),
   ISNUMBER(FIND(","&amp;MID(K2,2,1)&amp;MID(K2,4,1)&amp;MID(K2,3,1),H52,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,2,1)&amp;MID(K2,4,1),H52,1)),
@@ -3689,15 +3694,15 @@
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,2,2),H52,1)),
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,2,1),H52,1)))),
   I2*J52,0)</f>
-        <v>8819.8200000000015</v>
-      </c>
-      <c r="O52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D53" s="27"/>
-      <c r="E53" s="27" t="s">
+      <c r="D53" s="28"/>
+      <c r="E53" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -3709,22 +3714,22 @@
       <c r="H53" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I53" s="25"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="2">
         <v>7.23</v>
       </c>
-      <c r="K53" s="25"/>
-      <c r="N53" s="15">
+      <c r="K53" s="27"/>
+      <c r="N53" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H53,1)),ISNUMBER(FIND(MID(K2,3,1),H53,1)),ISNUMBER(FIND(MID(K2,4,1),H53,1))),I2*J53,0)</f>
-        <v>195.21</v>
-      </c>
-      <c r="O53" s="14" t="s">
+        <v>86.76</v>
+      </c>
+      <c r="O53" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
       <c r="F54" s="6" t="s">
         <v>50</v>
       </c>
@@ -3734,105 +3739,105 @@
       <c r="H54" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="25"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="2">
         <v>36.29</v>
       </c>
-      <c r="K54" s="25"/>
-      <c r="N54" s="1">
+      <c r="K54" s="27"/>
+      <c r="N54" s="31">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,4,1),H54,1)),ISNUMBER(FIND(MID(K2,3,1),H54,1))),AND(ISNUMBER(FIND(MID(K2,2,1),H54,1)),ISNUMBER(FIND(MID(K2,4,1),H54,1)))),I2*J54,0)</f>
-        <v>979.82999999999993</v>
-      </c>
-      <c r="O54" s="14" t="s">
+        <v>435.48</v>
+      </c>
+      <c r="O54" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D55" s="24" t="s">
+      <c r="D55" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="15" t="s">
         <v>169</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25">
+      <c r="I55" s="27"/>
+      <c r="J55" s="27">
         <v>1960</v>
       </c>
-      <c r="K55" s="25"/>
-      <c r="N55" s="25">
+      <c r="K55" s="27"/>
+      <c r="N55" s="30">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,3,1),H55,1)),ISNUMBER(FIND(MID(K2,4,1),H56,1)),ISNUMBER(FIND(MID(K2,5,1),H57,1))),I2*J55,0)</f>
-        <v>52920</v>
-      </c>
-      <c r="O55" s="26" t="s">
+        <v>23520</v>
+      </c>
+      <c r="O55" s="29" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="16" t="s">
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="15" t="s">
         <v>170</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="29"/>
     </row>
     <row r="57" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="16" t="s">
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="15" t="s">
         <v>171</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="29"/>
     </row>
     <row r="58" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
       <c r="F58" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I58" s="25"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="2">
         <v>1960</v>
       </c>
-      <c r="K58" s="25"/>
-      <c r="N58" s="15">
+      <c r="K58" s="27"/>
+      <c r="N58" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;MID(K2,3,3)&amp;",",H58,1)),I2*J58,0)</f>
         <v>0</v>
       </c>
-      <c r="O58" s="14" t="s">
+      <c r="O58" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="59" spans="4:15" ht="27" x14ac:dyDescent="0.15">
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3842,22 +3847,22 @@
       <c r="H59" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I59" s="25"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="2">
         <v>1960</v>
       </c>
-      <c r="K59" s="25"/>
-      <c r="N59" s="15">
+      <c r="K59" s="27"/>
+      <c r="N59" s="31">
         <f ca="1">IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H59,1)),I2*J59,0)</f>
-        <v>52920</v>
-      </c>
-      <c r="O59" s="14" t="s">
+        <v>23520</v>
+      </c>
+      <c r="O59" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
       <c r="F60" s="6" t="s">
         <v>32</v>
       </c>
@@ -3867,22 +3872,22 @@
       <c r="H60" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I60" s="25"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="2">
         <v>1960</v>
       </c>
-      <c r="K60" s="25"/>
-      <c r="N60" s="15">
+      <c r="K60" s="27"/>
+      <c r="N60" s="31">
         <f ca="1">IF(ISNUMBER(FIND(MAX(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))-MIN(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),H60,1)),I2*J60*1,0)</f>
-        <v>52920</v>
-      </c>
-      <c r="O60" s="14" t="s">
+        <v>23520</v>
+      </c>
+      <c r="O60" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="61" spans="4:15" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="D61" s="27"/>
-      <c r="E61" s="27" t="s">
+      <c r="D61" s="28"/>
+      <c r="E61" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="6" t="s">
@@ -3894,22 +3899,22 @@
       <c r="H61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="25"/>
+      <c r="I61" s="27"/>
       <c r="J61" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K61" s="25"/>
-      <c r="N61" s="15">
+      <c r="K61" s="27"/>
+      <c r="N61" s="31">
         <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61*2,0),IF(MID(K2,3,1)&lt;&gt;MID(K2,4,1)&lt;&gt;MID(K2,5,1),IF(ISNUMBER(FIND(","&amp;SUM(MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&amp;",",H61,1)),I2*J61,0)))</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O61" s="14" t="s">
+        <v>3919.9800000000005</v>
+      </c>
+      <c r="O61" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="62" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
       <c r="F62" s="6" t="s">
         <v>43</v>
       </c>
@@ -3919,22 +3924,22 @@
       <c r="H62" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I62" s="25"/>
+      <c r="I62" s="27"/>
       <c r="J62" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K62" s="25"/>
-      <c r="N62" s="15">
+      <c r="K62" s="27"/>
+      <c r="N62" s="31">
         <f>IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),IF(AND(ISNUMBER(FIND(MID(K2,3,1),H62,1)),ISNUMBER(FIND(MID(K2,4,1),H62,1)),ISNUMBER(FIND(MID(K2,5,1),H62,1))),I2*J62,0),0)</f>
         <v>0</v>
       </c>
-      <c r="O62" s="14" t="s">
+      <c r="O62" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="63" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
       <c r="F63" s="6" t="s">
         <v>44</v>
       </c>
@@ -3944,22 +3949,22 @@
       <c r="H63" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I63" s="25"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K63" s="25"/>
-      <c r="N63" s="15">
+      <c r="K63" s="27"/>
+      <c r="N63" s="31">
         <f ca="1">IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),0,IF(AND(ISNUMBER(FIND(MID(K2,3,1),H63,1)),ISNUMBER(FIND(MID(K2,4,1),H63,1)),ISNUMBER(FIND(MID(K2,5,1),H63,1))),I2*J63,0))</f>
-        <v>8819.8200000000015</v>
-      </c>
-      <c r="O63" s="14" t="s">
+        <v>3919.92</v>
+      </c>
+      <c r="O63" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="64" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
       <c r="F64" s="6" t="s">
         <v>45</v>
       </c>
@@ -3967,14 +3972,14 @@
         <v>28</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="I64" s="25"/>
+        <v>201</v>
+      </c>
+      <c r="I64" s="27"/>
       <c r="J64" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K64" s="25"/>
-      <c r="N64" s="15">
+      <c r="K64" s="27"/>
+      <c r="N64" s="31">
         <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H64,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H64,1)),
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,5,1),H64,1)),
@@ -3988,13 +3993,13 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O64" s="21" t="s">
+      <c r="O64" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
       <c r="F65" s="6" t="s">
         <v>37</v>
       </c>
@@ -4004,22 +4009,22 @@
       <c r="H65" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="25"/>
+      <c r="I65" s="27"/>
       <c r="J65" s="2">
         <v>326.66500000000002</v>
       </c>
-      <c r="K65" s="25"/>
-      <c r="N65" s="15">
+      <c r="K65" s="27"/>
+      <c r="N65" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H65,1)),ISNUMBER(FIND(MID(K2,4,1),H65,1)),ISNUMBER(FIND(MID(K2,5,1),H65,1))),IF(OR(AND(MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)=MID(K2,5,1)),AND(MID(K2,5,1)=MID(K2,3,1),MID(K2,3,1)&lt;&gt;MID(K2,4,1))),I17*J65*2,I2*J65),0)</f>
-        <v>8819.9549999999999</v>
-      </c>
-      <c r="O65" s="14" t="s">
+        <v>3919.9800000000005</v>
+      </c>
+      <c r="O65" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="66" spans="4:18" ht="15" x14ac:dyDescent="0.15">
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
       <c r="F66" s="6" t="s">
         <v>46</v>
       </c>
@@ -4027,14 +4032,14 @@
         <v>28</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I66" s="25"/>
+        <v>204</v>
+      </c>
+      <c r="I66" s="27"/>
       <c r="J66" s="2">
         <v>653.33000000000004</v>
       </c>
-      <c r="K66" s="25"/>
-      <c r="N66" s="20">
+      <c r="K66" s="27"/>
+      <c r="N66" s="31">
         <f>IF(AND(OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H66,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H66,1)),
   ISNUMBER(FIND(","&amp;MID(K2,4,1)&amp;MID(K2,3,1)&amp;MID(K2,5,1),H66,1)),
@@ -4046,20 +4051,14 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O66" s="21" t="s">
+      <c r="O66" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Q66" s="1">
-        <v>12351</v>
-      </c>
-      <c r="R66" s="23" t="str">
-        <f>IF(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))&lt;5,"有","无")</f>
-        <v>有</v>
-      </c>
+      <c r="R66" s="22"/>
     </row>
     <row r="67" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
       <c r="F67" s="6" t="s">
         <v>47</v>
       </c>
@@ -4067,14 +4066,14 @@
         <v>28</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="I67" s="25"/>
+        <v>207</v>
+      </c>
+      <c r="I67" s="27"/>
       <c r="J67" s="2">
         <v>326.66000000000003</v>
       </c>
-      <c r="K67" s="25"/>
-      <c r="N67" s="20">
+      <c r="K67" s="27"/>
+      <c r="N67" s="31">
         <f>IF(AND(AND(MID(K2,3,1)&lt;&gt;MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1),MID(K2,3,1)&lt;&gt;MID(K2,5,1)),
   OR(ISNUMBER(FIND(","&amp;MID(K2,3,3),H67,1)),
   ISNUMBER(FIND(","&amp;MID(K2,3,1)&amp;MID(K2,5,1)&amp;MID(K2,4,1),H67,1)),
@@ -4085,17 +4084,13 @@
   I2*J67,0)</f>
         <v>0</v>
       </c>
-      <c r="O67" s="21" t="s">
+      <c r="O67" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="Q67" s="1">
-        <f>SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="68" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D68" s="27"/>
-      <c r="E68" s="27" t="s">
+      <c r="D68" s="28"/>
+      <c r="E68" s="28" t="s">
         <v>48</v>
       </c>
       <c r="F68" s="6" t="s">
@@ -4107,22 +4102,22 @@
       <c r="H68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="25"/>
+      <c r="I68" s="27"/>
       <c r="J68" s="2">
         <v>7.23</v>
       </c>
-      <c r="K68" s="25"/>
-      <c r="N68" s="20">
+      <c r="K68" s="27"/>
+      <c r="N68" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,3,1),H68,1)),ISNUMBER(FIND(MID(K2,4,1),H68,1)),ISNUMBER(FIND(MID(K2,5,1),H68,1))),I2*J68,0)</f>
-        <v>195.21</v>
-      </c>
-      <c r="O68" s="21" t="s">
+        <v>86.76</v>
+      </c>
+      <c r="O68" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="69" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
       <c r="F69" s="6" t="s">
         <v>50</v>
       </c>
@@ -4132,31 +4127,27 @@
       <c r="H69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I69" s="25"/>
+      <c r="I69" s="27"/>
       <c r="J69" s="2">
         <v>36.29</v>
       </c>
-      <c r="K69" s="25"/>
-      <c r="N69" s="20">
+      <c r="K69" s="27"/>
+      <c r="N69" s="31">
         <f ca="1">IF(OR(AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,5,1),H69,1)),ISNUMBER(FIND(MID(K2,4,1),H69,1))),AND(ISNUMBER(FIND(MID(K2,3,1),H69,1)),ISNUMBER(FIND(MID(K2,5,1),H69,1)))),I2*J69,0)</f>
-        <v>979.82999999999993</v>
-      </c>
-      <c r="O69" s="21" t="s">
+        <v>435.48</v>
+      </c>
+      <c r="O69" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="R69" s="1">
-        <f>SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,Q66))))</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="70" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="24" t="s">
+      <c r="E70" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="26" t="s">
         <v>55</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4165,89 +4156,89 @@
       <c r="H70" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25">
+      <c r="I70" s="27"/>
+      <c r="J70" s="27">
         <v>19600</v>
       </c>
-      <c r="K70" s="25"/>
-      <c r="L70" s="15" t="b">
+      <c r="K70" s="27"/>
+      <c r="L70" s="14" t="b">
         <f>ISNUMBER(FIND(MID(K2,2,1),H70,1))</f>
         <v>1</v>
       </c>
-      <c r="M70" s="17"/>
-      <c r="N70" s="25">
+      <c r="M70" s="16"/>
+      <c r="N70" s="30">
         <f>IF(AND(ISNUMBER(FIND(MID(K2,2,1),H70,1)),ISNUMBER(FIND(MID(K2,3,1),H71,1)),ISNUMBER(FIND(MID(K2,4,1),H72,1)),ISNUMBER(FIND(RIGHT(K2,1),H73,1))),I2*J70,0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="26" t="s">
+      <c r="O70" s="29" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="71" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="15" t="b">
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="14" t="b">
         <f>ISNUMBER(FIND(MID(K2,3,1),H71,1))</f>
         <v>1</v>
       </c>
-      <c r="M71" s="17"/>
-      <c r="N71" s="25"/>
-      <c r="O71" s="26"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="29"/>
     </row>
     <row r="72" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
       <c r="G72" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="15" t="b">
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="14" t="b">
         <f>ISNUMBER(FIND(MID(K2,4,1),H72,1))</f>
         <v>0</v>
       </c>
-      <c r="M72" s="17"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="26"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="29"/>
     </row>
     <row r="73" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
       <c r="G73" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="15" t="b">
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="14" t="b">
         <f>ISNUMBER(FIND(RIGHT(K2,1),H73,1))</f>
         <v>1</v>
       </c>
-      <c r="N73" s="25"/>
-      <c r="O73" s="26"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="29"/>
     </row>
     <row r="74" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
       <c r="F74" s="9" t="s">
         <v>56</v>
       </c>
@@ -4257,26 +4248,26 @@
       <c r="H74" s="4">
         <v>7113</v>
       </c>
-      <c r="I74" s="25"/>
+      <c r="I74" s="27"/>
       <c r="J74" s="2">
         <v>19600</v>
       </c>
-      <c r="K74" s="25"/>
+      <c r="K74" s="27"/>
       <c r="L74" s="1" t="b">
         <f>ISNUMBER(FIND(","&amp;RIGHT(K2,4)&amp;",",H74,1))</f>
         <v>0</v>
       </c>
-      <c r="N74" s="20">
+      <c r="N74" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;RIGHT(K2,4)&amp;",",H74,1)),I2*J74,0)</f>
         <v>0</v>
       </c>
-      <c r="O74" s="21" t="s">
+      <c r="O74" s="20" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D75" s="24"/>
-      <c r="E75" s="24" t="s">
+      <c r="D75" s="26"/>
+      <c r="E75" s="26" t="s">
         <v>58</v>
       </c>
       <c r="F75" s="9" t="s">
@@ -4288,30 +4279,28 @@
       <c r="H75" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="I75" s="25"/>
+      <c r="I75" s="27"/>
       <c r="J75" s="1">
         <v>816.66</v>
       </c>
-      <c r="K75" s="25"/>
-      <c r="L75" s="15" t="b">
+      <c r="K75" s="27"/>
+      <c r="L75" s="14" t="b">
         <f>AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1)))</f>
         <v>1</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="31">
         <f ca="1">IF(AND(ISNUMBER(FIND(MID(K2,2,1),H75,1)),ISNUMBER(FIND(MID(K2,3,1),H75,1)),ISNUMBER(FIND(MID(K2,4,1),H75,1)),ISNUMBER(FIND(MID(K2,5,1),H75,1))),I2*J75,0)</f>
-        <v>22049.82</v>
-      </c>
-      <c r="O75" s="21" t="s">
+        <v>9799.92</v>
+      </c>
+      <c r="O75" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="P75" s="16" t="s">
-        <v>183</v>
-      </c>
+      <c r="P75" s="15"/>
     </row>
     <row r="76" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24" t="s">
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26" t="s">
         <v>61</v>
       </c>
       <c r="G76" s="9" t="s">
@@ -4320,16 +4309,16 @@
       <c r="H76" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25">
+      <c r="I76" s="27"/>
+      <c r="J76" s="27">
         <v>1633.33</v>
       </c>
-      <c r="K76" s="25"/>
-      <c r="M76" s="25" t="b">
+      <c r="K76" s="27"/>
+      <c r="M76" s="27" t="b">
         <f>EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1)</f>
         <v>0</v>
       </c>
-      <c r="N76" s="25">
+      <c r="N76" s="30">
         <f>IF(
  EXACT(SUM(DELTA(MID(K2,2,1),MID(K2,3,1)),DELTA(MID(K2,2,1),MID(K2,4,1)),DELTA(MID(K2,2,1),MID(K2,5,1)),DELTA(MID(K2,3,1),MID(K2,4,1)),DELTA(MID(K2,3,1),MID(K2,5,1)),DELTA(MID(K2,4,1),MID(K2,5,1))),1),
   IF(
@@ -4377,30 +4366,30 @@
  )</f>
         <v>0</v>
       </c>
-      <c r="O76" s="26" t="s">
+      <c r="O76" s="29" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
       <c r="G77" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="M77" s="25"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="26"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="27"/>
+      <c r="M77" s="27"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="29"/>
     </row>
     <row r="78" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D78" s="24"/>
-      <c r="E78" s="24"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="9" t="s">
         <v>64</v>
       </c>
@@ -4410,12 +4399,12 @@
       <c r="H78" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I78" s="25"/>
+      <c r="I78" s="27"/>
       <c r="J78" s="1">
         <v>3266.66</v>
       </c>
-      <c r="K78" s="25"/>
-      <c r="N78" s="15">
+      <c r="K78" s="27"/>
+      <c r="N78" s="31">
         <f>IF(
  OR(
   AND(EXACT(MID(K2,2,1),MID(K2,3,1)),EXACT(MID(K2,4,1),MID(K2,5,1)),MID(K2,2,1)&lt;&gt;MID(K2,4,1)),
@@ -4431,16 +4420,16 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="O78" s="14" t="s">
+      <c r="O78" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="R78" s="15"/>
+      <c r="P78" s="14"/>
+      <c r="R78" s="14"/>
     </row>
     <row r="79" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D79" s="24"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24" t="s">
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26" t="s">
         <v>65</v>
       </c>
       <c r="G79" s="9" t="s">
@@ -4449,13 +4438,13 @@
       <c r="H79" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25">
+      <c r="I79" s="27"/>
+      <c r="J79" s="27">
         <v>4900</v>
       </c>
-      <c r="K79" s="25"/>
-      <c r="N79" s="25">
-        <f>IF(
+      <c r="K79" s="27"/>
+      <c r="N79" s="30">
+        <f ca="1">IF(
  OR(
   AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)=MID(K2,4,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),
   AND(MID(K2,2,1)=MID(K2,3,1),MID(K2,3,1)=MID(K2,5,1),MID(K2,4,1)&lt;&gt;MID(K2,5,1)),
@@ -4471,34 +4460,34 @@
   ),I2*J79,0
  ),0
 )</f>
-        <v>0</v>
-      </c>
-      <c r="O79" s="26" t="s">
+        <v>58800</v>
+      </c>
+      <c r="O79" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="P79" s="15"/>
-      <c r="R79" s="15"/>
+      <c r="P79" s="14"/>
+      <c r="R79" s="14"/>
     </row>
     <row r="80" spans="4:18" x14ac:dyDescent="0.15">
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
       <c r="G80" s="9" t="s">
         <v>66</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="26"/>
-      <c r="P80" s="15"/>
-    </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D81" s="24"/>
-      <c r="E81" s="24" t="s">
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="14"/>
+    </row>
+    <row r="81" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D81" s="26"/>
+      <c r="E81" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F81" s="9" t="s">
@@ -4510,23 +4499,23 @@
       <c r="H81" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I81" s="25"/>
+      <c r="I81" s="27"/>
       <c r="J81" s="1">
         <v>5.69</v>
       </c>
-      <c r="K81" s="25"/>
-      <c r="N81" s="15">
+      <c r="K81" s="27"/>
+      <c r="N81" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,2,1),H81,1)),ISNUMBER(FIND(MID(K2,3,1),H81,1)),ISNUMBER(FIND(MID(K2,4,1),H81,1)),ISNUMBER(FIND(MID(K2,5,1),H81,1))),I2*J81,0)</f>
-        <v>153.63000000000002</v>
-      </c>
-      <c r="O81" s="14" t="s">
+        <v>68.28</v>
+      </c>
+      <c r="O81" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="P81" s="15"/>
-    </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
       <c r="F82" s="9" t="s">
         <v>70</v>
       </c>
@@ -4536,12 +4525,12 @@
       <c r="H82" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I82" s="25"/>
+      <c r="I82" s="27"/>
       <c r="J82" s="1">
         <v>20.12</v>
       </c>
-      <c r="K82" s="25"/>
-      <c r="N82" s="15">
+      <c r="K82" s="27"/>
+      <c r="N82" s="31">
         <f ca="1">IF(
  OR(
   AND(ISNUMBER(FIND(MID(K2,2,1),H82,1)),ISNUMBER(FIND(MID(K2,3,1),H82,1))),
@@ -4552,21 +4541,21 @@
   AND(ISNUMBER(FIND(MID(K2,4,1),H82,1)),ISNUMBER(FIND(MID(K2,5,1),H82,1)))
  ),I2*J69,0
 )</f>
-        <v>979.82999999999993</v>
-      </c>
-      <c r="O82" s="14" t="s">
+        <v>435.48</v>
+      </c>
+      <c r="O82" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="P82" s="15"/>
-    </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D83" s="24" t="s">
+      <c r="P82" s="14"/>
+    </row>
+    <row r="83" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D83" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="24" t="s">
+      <c r="F83" s="26" t="s">
         <v>74</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4575,91 +4564,93 @@
       <c r="H83" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25">
+      <c r="I83" s="27"/>
+      <c r="J83" s="27">
         <v>196000</v>
       </c>
-      <c r="K83" s="25"/>
-      <c r="N83" s="25">
+      <c r="K83" s="27"/>
+      <c r="N83" s="30">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H83,1)),ISNUMBER(FIND(MID(K2,2,1),H84,1)),ISNUMBER(FIND(MID(K2,3,1),H85,1)),ISNUMBER(FIND(MID(K2,4,1),H86,1)),ISNUMBER(FIND(RIGHT(K2,1),H87,1))),I2*J83,0)</f>
-        <v>5292000</v>
-      </c>
-      <c r="O83" s="26" t="s">
+        <v>2352000</v>
+      </c>
+      <c r="O83" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="P83" s="15"/>
-    </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D84" s="24"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
       <c r="G84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="N84" s="25"/>
-      <c r="O84" s="26"/>
-      <c r="P84" s="15"/>
-    </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="14"/>
+    </row>
+    <row r="85" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="15"/>
-    </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D86" s="24"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="27"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="14"/>
+    </row>
+    <row r="86" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
       <c r="G86" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="15"/>
-    </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D87" s="24"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="23"/>
+    </row>
+    <row r="87" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
       <c r="G87" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="15"/>
-    </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D88" s="24"/>
-      <c r="E88" s="24"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="24"/>
+    </row>
+    <row r="88" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
       <c r="F88" s="9" t="s">
         <v>75</v>
       </c>
@@ -4669,23 +4660,24 @@
       <c r="H88" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="I88" s="25"/>
+      <c r="I88" s="27"/>
       <c r="J88" s="1">
         <v>196000</v>
       </c>
-      <c r="K88" s="25"/>
-      <c r="N88" s="15">
+      <c r="K88" s="27"/>
+      <c r="N88" s="31">
         <f>IF(ISNUMBER(FIND(","&amp;K2&amp;",",H88,1)),I2*J88,0)</f>
         <v>0</v>
       </c>
-      <c r="O88" s="14" t="s">
+      <c r="O88" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="P88" s="15"/>
-    </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D89" s="24"/>
-      <c r="E89" s="24" t="s">
+      <c r="P88" s="14"/>
+      <c r="Q88" s="24"/>
+    </row>
+    <row r="89" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D89" s="26"/>
+      <c r="E89" s="26" t="s">
         <v>77</v>
       </c>
       <c r="F89" s="9" t="s">
@@ -4697,70 +4689,90 @@
       <c r="H89" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I89" s="25"/>
+      <c r="I89" s="27"/>
       <c r="J89" s="1">
         <v>1633.33</v>
       </c>
-      <c r="K89" s="25"/>
-      <c r="N89" s="15">
+      <c r="K89" s="27"/>
+      <c r="N89" s="31">
         <f ca="1">IF(AND(ISNUMBER(FIND(LEFT(K2,1),H89,1)),ISNUMBER(FIND(MID(K2,2,1),H89,1)),ISNUMBER(FIND(MID(K2,3,1),H89,1)),ISNUMBER(FIND(MID(K2,4,1),H89,1)),ISNUMBER(FIND(MID(K2,5,1),H89,1))),I2*J89,0)</f>
-        <v>44099.909999999996</v>
-      </c>
-      <c r="O89" s="14" t="s">
+        <v>19599.96</v>
+      </c>
+      <c r="O89" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="P89" s="15"/>
-    </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D90" s="24"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24" t="s">
+      <c r="P89" s="14"/>
+      <c r="Q89" s="24"/>
+    </row>
+    <row r="90" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="26" t="s">
         <v>79</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="H90" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25">
+      <c r="H90" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27">
         <v>3266.66</v>
       </c>
-      <c r="K90" s="25"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="25">
-        <v>65146</v>
-      </c>
-      <c r="P90" s="15" t="str">
-        <f>IF(MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),{0,1,2,3,4,5,6,7,8,9}))=1,"组六","组三")</f>
-        <v>组三</v>
-      </c>
-      <c r="Q90" s="1">
-        <f>MAX(FREQUENCY(-MID(O90,{1,2,3,4,5},1),-MID(O90,{1,2,3,4,5},1)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="1" t="b">
+        <f>AND(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,K2))))=4,ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H90,1)))</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="30">
+        <f>IF(
+ AND(LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=60,
+ ISNUMBER(FIND(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1,1),H91,1)),
+ ISNUMBER(FIND(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),2,1),H91,1)),
+ ISNUMBER(FIND(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),3,1),H91,1)),
+ ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H90,1))),I2*J90,0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="24"/>
+    </row>
+    <row r="91" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="26"/>
       <c r="G91" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="25"/>
-    </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24" t="s">
+      <c r="H91" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="1" t="b">
+        <f>SUM(
+  N(AND(INT(MID(K2,1,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,1,1),H91,1)))),
+  N(AND(INT(MID(K2,2,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,2,1),H91,1)))),
+  N(AND(INT(MID(K2,3,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,3,1),H91,1)))),
+  N(AND(INT(MID(K2,4,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,4,1),H91,1)))),
+  N(AND(INT(MID(K2,5,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,5,1),H91,1)))))=3</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="30"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="24"/>
+      <c r="R91" s="23"/>
+    </row>
+    <row r="92" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="26" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="9" t="s">
@@ -4769,141 +4781,266 @@
       <c r="H92" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25">
+      <c r="I92" s="27"/>
+      <c r="J92" s="27">
         <v>6533.33</v>
       </c>
-      <c r="K92" s="25"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="25"/>
-    </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
+      <c r="K92" s="27"/>
+      <c r="L92" s="24" t="b">
+        <f>AND(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,K2))))=3,AND(ISNUMBER(FIND(Q90,H92,1)),ISNUMBER(FIND(Q91,H92,1))),Q90&lt;&gt;Q91)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="30">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=30,
+ IF(AND(
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H92,1)),
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(
+         INT(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1)),
+         INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),2,1)),
+         INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),3,1))),H92,1)),
+   ISNUMBER(FIND(SUBSTITUTE(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),
+      _xlfn.MODE.SNGL(INT(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1)),
+          INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),2,1)),
+          INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),3,1))),),H93,1))
+  ),I2*J92,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P92" s="24"/>
+    </row>
+    <row r="93" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
       <c r="G93" s="9" t="s">
         <v>63</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="N93" s="25"/>
-      <c r="O93" s="25"/>
-    </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24" t="s">
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="1" t="b">
+        <f>AND(ISNUMBER(FIND(SUM(P90:P94)-SUM(Q90:Q91)*2,H93,1)),Q90&lt;&gt;Q91)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="1">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=30,
+ IF(AND(
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H92,1)),
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(
+         INT(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1)),
+         INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),2,1)),
+         INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),3,1))),H92,1)),
+   ISNUMBER(FIND(SUBSTITUTE(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),
+      _xlfn.MODE.SNGL(INT(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1)),
+          INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),2,1)),
+          INT(MID(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),3,1))),),H93,1))
+  ),I2*J92,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="30"/>
+      <c r="O93" s="29"/>
+      <c r="P93" s="24"/>
+    </row>
+    <row r="94" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26" t="s">
         <v>81</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="H94" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25">
+      <c r="H94" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27">
         <v>9800</v>
       </c>
-      <c r="K94" s="25"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="25"/>
-    </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="1" t="b">
+        <f>AND(SUMPRODUCT(N(ISNUMBER(FIND(ROW($1:$10)-1,K2))))=3,ISNUMBER(FIND(Q90,H94,1)),Q90=Q91)</f>
+        <v>1</v>
+      </c>
+      <c r="N94" s="30">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=20,
+ IF(
+  AND(ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H94,1)),
+   ISNUMBER(FIND(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H95,1)),
+   ISNUMBER(FIND(RIGHT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H95,1))
+  ),I2*J94,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="P94" s="24"/>
+    </row>
+    <row r="95" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
       <c r="G95" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H95" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="25"/>
-    </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24" t="s">
+      <c r="H95" s="10">
+        <v>71</v>
+      </c>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="1" t="b">
+        <f>SUM(N(AND(INT(MID(K2,1,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,1,1),H95,1)))),
+ N(AND(INT(MID(K2,2,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,2,1),H95,1)))),
+ N(AND(INT(MID(K2,3,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,3,1),H95,1)))),
+ N(AND(INT(MID(K2,4,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,4,1),H95,1)))),
+ N(AND(INT(MID(K2,5,1))&lt;&gt;_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),ISNUMBER(FIND(MID(K2,5,1),H95,1)))))=2</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=20,
+ IF(
+  AND(ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H94,1)),
+   ISNUMBER(FIND(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H95,1)),
+   ISNUMBER(FIND(RIGHT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H95,1))
+  ),I2*J94,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="30"/>
+      <c r="O95" s="29"/>
+    </row>
+    <row r="96" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26" t="s">
         <v>82</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H96" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25">
+      <c r="H96" s="7">
+        <v>4</v>
+      </c>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27">
         <v>19600</v>
       </c>
-      <c r="K96" s="25"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="25"/>
-    </row>
-    <row r="97" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
+      <c r="K96" s="27"/>
+      <c r="N96" s="30">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=10,
+ IF(
+  AND(
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H96,1)),
+   ISNUMBER(FIND(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H97,1))
+  ),I2*J96,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
       <c r="G97" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="N97" s="25"/>
-      <c r="O97" s="25"/>
-    </row>
-    <row r="98" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="H97" s="7">
+        <v>1</v>
+      </c>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="27"/>
+      <c r="M97" s="1">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=10,
+ IF(
+  AND(
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H96,1)),
+   ISNUMBER(FIND(LEFT(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),1),H97,1))
+  ),I2*J96,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="30"/>
+      <c r="O97" s="29"/>
+    </row>
+    <row r="98" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26" t="s">
         <v>83</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H98" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25">
+      <c r="H98" s="7">
+        <v>4</v>
+      </c>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27">
         <v>39200</v>
       </c>
-      <c r="K98" s="25"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="25"/>
-    </row>
-    <row r="99" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
+      <c r="K98" s="27"/>
+      <c r="N98" s="30">
+        <f>IF(
+ LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=5,
+ IF(
+  AND(
+   ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H98,1)),
+   ISNUMBER(FIND(SUBSTITUTE(K2,_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),),H99,1))
+  ),I2*J98,0
+ ),0
+)</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="R98" s="23"/>
+    </row>
+    <row r="99" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
       <c r="G99" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H99" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="25"/>
-    </row>
-    <row r="100" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D100" s="24"/>
-      <c r="E100" s="24" t="s">
+      <c r="H99" s="7">
+        <v>1</v>
+      </c>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="29"/>
+      <c r="R99" s="23"/>
+    </row>
+    <row r="100" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D100" s="26"/>
+      <c r="E100" s="26" t="s">
         <v>68</v>
       </c>
       <c r="F100" s="9" t="s">
@@ -4915,56 +5052,54 @@
       <c r="H100" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I100" s="25"/>
+      <c r="I100" s="27"/>
       <c r="J100" s="1">
         <v>4.78</v>
       </c>
-      <c r="K100" s="25"/>
-      <c r="N100" s="15">
+      <c r="K100" s="27"/>
+      <c r="N100" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H100,1)),ISNUMBER(FIND(MID(K2,2,1),H100,1)),ISNUMBER(FIND(MID(K2,3,1),H100,1)),ISNUMBER(FIND(MID(K2,4,1),H100,1)),ISNUMBER(FIND(MID(K2,5,1),H100,1))),I2*J100,0)</f>
-        <v>129.06</v>
-      </c>
-      <c r="O100" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="101" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
+        <v>57.36</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
       <c r="F101" s="9" t="s">
         <v>91</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H101" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I101" s="25"/>
+      <c r="H101" s="7">
+        <v>123</v>
+      </c>
+      <c r="I101" s="27"/>
       <c r="J101" s="1">
         <v>13.36</v>
       </c>
-      <c r="K101" s="25"/>
-      <c r="N101" s="10">
-        <f ca="1">IF(
+      <c r="K101" s="27"/>
+      <c r="N101" s="31">
+        <f>IF(
   SUM(IF(ISNUMBER(FIND(MID(K2,1,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,2,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,3,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,4,1),H101,1)),1,0),
    IF(ISNUMBER(FIND(MID(K2,5,1),H101,1)),1,0)
   )&gt;=2,I2*J101,0)</f>
-        <v>360.71999999999997</v>
-      </c>
-      <c r="O101" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="P101" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="102" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="P101" s="15"/>
+    </row>
+    <row r="102" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="9" t="s">
         <v>92</v>
       </c>
@@ -4974,16 +5109,16 @@
       <c r="H102" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I102" s="25"/>
+      <c r="I102" s="27"/>
       <c r="J102" s="1">
         <v>45.05</v>
       </c>
-      <c r="K102" s="25"/>
-      <c r="N102" s="10"/>
-    </row>
-    <row r="103" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D103" s="24"/>
-      <c r="E103" s="24" t="s">
+      <c r="K102" s="27"/>
+      <c r="N102" s="31"/>
+    </row>
+    <row r="103" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D103" s="26"/>
+      <c r="E103" s="26" t="s">
         <v>94</v>
       </c>
       <c r="F103" s="9" t="s">
@@ -4995,22 +5130,22 @@
       <c r="H103" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I103" s="25"/>
+      <c r="I103" s="27"/>
       <c r="J103" s="1">
         <v>4.78</v>
       </c>
-      <c r="K103" s="25"/>
-      <c r="N103" s="1">
+      <c r="K103" s="27"/>
+      <c r="N103" s="31">
         <f ca="1">IF(OR(ISNUMBER(FIND(MID(K2,1,1),H103,1)),ISNUMBER(FIND(MID(K2,2,1),H103,1)),ISNUMBER(FIND(MID(K2,3,1),H103,1)),ISNUMBER(FIND(MID(K2,4,1),H103,1)),ISNUMBER(FIND(MID(K2,5,1),H103,1))),I2*J103,0)</f>
-        <v>129.06</v>
-      </c>
-      <c r="O103" s="14" t="s">
+        <v>57.36</v>
+      </c>
+      <c r="O103" s="13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D104" s="24"/>
-      <c r="E104" s="24"/>
+    <row r="104" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
       <c r="F104" s="9" t="s">
         <v>96</v>
       </c>
@@ -5020,33 +5155,45 @@
       <c r="H104" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I104" s="25"/>
+      <c r="I104" s="27"/>
       <c r="J104" s="1">
         <v>24.06</v>
       </c>
-      <c r="K104" s="25"/>
-    </row>
-    <row r="105" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D105" s="24"/>
-      <c r="E105" s="24"/>
+      <c r="K104" s="27"/>
+      <c r="N104" s="31"/>
+      <c r="Q104" s="24"/>
+    </row>
+    <row r="105" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
       <c r="F105" s="9" t="s">
         <v>97</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="H105" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I105" s="25"/>
+      <c r="H105" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I105" s="27"/>
       <c r="J105" s="1">
         <v>228.97</v>
       </c>
-      <c r="K105" s="25"/>
-    </row>
-    <row r="106" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D106" s="24"/>
-      <c r="E106" s="24"/>
+      <c r="K105" s="27"/>
+      <c r="N105" s="31">
+        <f>IF(OR(LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=20,
+LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=10),
+IF(ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H105,1)),I2*J105,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O105" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q105" s="24"/>
+    </row>
+    <row r="106" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
       <c r="F106" s="9" t="s">
         <v>98</v>
       </c>
@@ -5056,35 +5203,45 @@
       <c r="H106" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I106" s="25"/>
+      <c r="I106" s="27"/>
       <c r="J106" s="1">
         <v>4260.8599999999997</v>
       </c>
-      <c r="K106" s="25"/>
-      <c r="P106" s="16"/>
-    </row>
-    <row r="107" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="K106" s="27"/>
+      <c r="N106" s="31">
+        <f>IF(LOOKUP(SUM(LEN(SUBSTITUTE(K2,MID(K2,{1,2,3,4,5},1),))),{8,12,14,16,18,20;5,10,20,30,60,120})=5,
+ IF(ISNUMBER(FIND(_xlfn.MODE.SNGL(INT(LEFT(K2,1)),INT(MID(K2,2,1)),INT(MID(K2,3,1)),INT(MID(K2,4,1)),INT(MID(K2,5,1))),H106,1)),I2*J106,0
+ ),0)</f>
+        <v>0</v>
+      </c>
+      <c r="O106" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="24"/>
+    </row>
+    <row r="107" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D107" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F107" s="24" t="s">
+      <c r="F107" s="26" t="s">
         <v>101</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>102</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25">
+        <v>185</v>
+      </c>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27">
         <v>7.84</v>
       </c>
-      <c r="K107" s="25"/>
-      <c r="L107" s="15" t="b">
+      <c r="K107" s="27"/>
+      <c r="L107" s="14" t="b">
         <f>IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("单",H107,1))),TRUE,FALSE),
@@ -5095,8 +5252,8 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="M107" s="16"/>
-      <c r="N107" s="24">
+      <c r="M107" s="15"/>
+      <c r="N107" s="30">
         <f>IF(IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H107,1)),ISNUMBER(FIND("单",H107,1))),1,0),
@@ -5114,24 +5271,24 @@
 )=2,I2*J107,0)</f>
         <v>0</v>
       </c>
-      <c r="O107" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="P107" s="20"/>
-      <c r="Q107" s="20"/>
-    </row>
-    <row r="108" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
+      <c r="O107" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="24"/>
+    </row>
+    <row r="108" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E108" s="26"/>
+      <c r="F108" s="26"/>
       <c r="G108" s="9" t="s">
         <v>103</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
+        <v>186</v>
+      </c>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="27"/>
       <c r="L108" s="1" t="b">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
@@ -5143,26 +5300,26 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N108" s="24"/>
-      <c r="O108" s="26"/>
-      <c r="Q108" s="20"/>
-    </row>
-    <row r="109" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E109" s="24"/>
-      <c r="F109" s="24" t="s">
+      <c r="N108" s="30"/>
+      <c r="O108" s="29"/>
+      <c r="Q108" s="24"/>
+    </row>
+    <row r="109" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E109" s="26"/>
+      <c r="F109" s="26" t="s">
         <v>105</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>106</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25">
+        <v>189</v>
+      </c>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27">
         <v>7.84</v>
       </c>
-      <c r="K109" s="25"/>
+      <c r="K109" s="27"/>
       <c r="L109" s="1" t="b">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
@@ -5174,8 +5331,8 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N109" s="25">
-        <f>IF(IF(INT(MID(K2,4,1))&lt;5,
+      <c r="N109" s="30">
+        <f ca="1">IF(IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("单",H109,1))),1,0),
    IF(OR(ISNUMBER(FIND("小",H109,1)),ISNUMBER(FIND("双",H109,1))),1,0)),
@@ -5190,26 +5347,26 @@
   IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("单",H110,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("双",H110,1))),1,0))
 )=2,I2*J109,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O109" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="P109" s="20"/>
-      <c r="Q109" s="20"/>
-    </row>
-    <row r="110" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E110" s="24"/>
-      <c r="F110" s="24"/>
+        <v>94.08</v>
+      </c>
+      <c r="O109" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="24"/>
+    </row>
+    <row r="110" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
       <c r="G110" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
+        <v>185</v>
+      </c>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="27"/>
       <c r="L110" s="1" t="b">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
@@ -5219,15 +5376,15 @@
   IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("单",H110,1))),TRUE,FALSE),
    IF(OR(ISNUMBER(FIND("大",H110,1)),ISNUMBER(FIND("双",H110,1))),TRUE,FALSE))
 )</f>
-        <v>0</v>
-      </c>
-      <c r="N110" s="25"/>
-      <c r="O110" s="26"/>
-      <c r="Q110" s="20"/>
-    </row>
-    <row r="111" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E111" s="24"/>
-      <c r="F111" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="N110" s="30"/>
+      <c r="O110" s="29"/>
+      <c r="Q110" s="24"/>
+    </row>
+    <row r="111" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E111" s="26"/>
+      <c r="F111" s="26" t="s">
         <v>108</v>
       </c>
       <c r="G111" s="9" t="s">
@@ -5236,11 +5393,11 @@
       <c r="H111" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25">
+      <c r="I111" s="27"/>
+      <c r="J111" s="27">
         <v>15.68</v>
       </c>
-      <c r="K111" s="25"/>
+      <c r="K111" s="27"/>
       <c r="L111" s="1" t="b">
         <f>IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
@@ -5252,7 +5409,7 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N111" s="25">
+      <c r="N111" s="30">
         <f ca="1">IF(IF(INT(LEFT(K2,1))&lt;5,
  IF(MOD(LEFT(K2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H111,1)),ISNUMBER(FIND("单",H111,1))),1,0),
@@ -5275,25 +5432,26 @@
   IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("单",H113,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H113,1)),ISNUMBER(FIND("双",H113,1))),1,0))
 )=3,I2*J111,0)</f>
-        <v>423.36</v>
-      </c>
-      <c r="O111" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
+        <v>188.16</v>
+      </c>
+      <c r="O111" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q111" s="24"/>
+    </row>
+    <row r="112" spans="4:18" x14ac:dyDescent="0.15">
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
       <c r="G112" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H112" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="20" t="b">
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="19" t="b">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H112,1)),ISNUMBER(FIND("单",H112,1))),TRUE,FALSE),
@@ -5304,21 +5462,22 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N112" s="25"/>
-      <c r="O112" s="26"/>
-    </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="29"/>
+      <c r="Q112" s="24"/>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
       <c r="G113" s="9" t="s">
         <v>111</v>
       </c>
       <c r="H113" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
       <c r="L113" s="1" t="b">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
@@ -5330,12 +5489,13 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N113" s="25"/>
-      <c r="O113" s="26"/>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E114" s="24"/>
-      <c r="F114" s="24" t="s">
+      <c r="N113" s="30"/>
+      <c r="O113" s="29"/>
+      <c r="Q113" s="24"/>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E114" s="26"/>
+      <c r="F114" s="26" t="s">
         <v>52</v>
       </c>
       <c r="G114" s="9" t="s">
@@ -5344,12 +5504,12 @@
       <c r="H114" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25">
+      <c r="I114" s="27"/>
+      <c r="J114" s="27">
         <v>15.68</v>
       </c>
-      <c r="K114" s="25"/>
-      <c r="L114" s="20" t="b">
+      <c r="K114" s="27"/>
+      <c r="L114" s="19" t="b">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("单",H114,1))),TRUE,FALSE),
@@ -5360,7 +5520,7 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N114" s="25">
+      <c r="N114" s="30">
         <f ca="1">IF(IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H114,1)),ISNUMBER(FIND("单",H114,1))),1,0),
@@ -5383,25 +5543,26 @@
   IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("单",H116,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H116,1)),ISNUMBER(FIND("双",H116,1))),1,0))
 )=3,I2*J114,0)</f>
-        <v>423.36</v>
-      </c>
-      <c r="O114" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
+        <v>188.16</v>
+      </c>
+      <c r="O114" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q114" s="24"/>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
       <c r="G115" s="9" t="s">
         <v>113</v>
       </c>
       <c r="H115" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="20" t="b">
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="19" t="b">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H115,1)),ISNUMBER(FIND("单",H115,1))),TRUE,FALSE),
@@ -5412,22 +5573,22 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N115" s="25"/>
-      <c r="O115" s="26"/>
-    </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="29"/>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
       <c r="G116" s="9" t="s">
         <v>107</v>
       </c>
       <c r="H116" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="20" t="b">
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="19" t="b">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
   IF(OR(ISNUMBER(FIND("小",H116,1)),ISNUMBER(FIND("单",H116,1))),TRUE,FALSE),
@@ -5438,30 +5599,30 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="N116" s="25"/>
-      <c r="O116" s="26"/>
-    </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D117" s="25" t="s">
+      <c r="N116" s="30"/>
+      <c r="O116" s="29"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D117" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E117" s="24" t="s">
+      <c r="E117" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F117" s="24" t="s">
+      <c r="F117" s="26" t="s">
         <v>114</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>116</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25">
+        <v>191</v>
+      </c>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27">
         <v>1.96</v>
       </c>
-      <c r="K117" s="25"/>
+      <c r="K117" s="27"/>
       <c r="L117" s="1">
         <f>IF(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))&lt;23,
  IF(MOD(SUM(MID(K2,1,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1)),2)=1,
@@ -5471,30 +5632,30 @@
   IF(OR(ISNUMBER(FIND("和大",H117,1)),ISNUMBER(FIND("和单",H117,1))),1,0),
   IF(OR(ISNUMBER(FIND("和大",H117,1)),ISNUMBER(FIND("和双",H117,1))),1,0))
 )</f>
-        <v>0</v>
-      </c>
-      <c r="M117" s="25"/>
-      <c r="N117" s="25">
+        <v>1</v>
+      </c>
+      <c r="M117" s="27"/>
+      <c r="N117" s="30">
         <f ca="1">IF(SUM(L117:L122)&gt;0,SUM(L117:L122)*I2*J117,0)</f>
-        <v>211.68</v>
-      </c>
-      <c r="O117" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D118" s="25"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
+        <v>94.08</v>
+      </c>
+      <c r="O117" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D118" s="27"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
       <c r="G118" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
+        <v>192</v>
+      </c>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
+      <c r="K118" s="27"/>
       <c r="L118" s="1">
         <f>IF(INT(LEFT(K2,1))&lt;5,
   IF(MOD(MID(K2,1,1),2)=1,
@@ -5514,23 +5675,23 @@
  )</f>
         <v>1</v>
       </c>
-      <c r="M118" s="25"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="26"/>
-    </row>
-    <row r="119" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D119" s="25"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
+      <c r="M118" s="27"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="29"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D119" s="27"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
       <c r="G119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
+        <v>193</v>
+      </c>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
       <c r="L119" s="1">
         <f>IF(INT(MID(K2,2,1))&lt;5,
  IF(MOD(MID(K2,2,1),2)=1,
@@ -5548,25 +5709,25 @@
    IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("质",H119,1))),1,0),
    IF(OR(ISNUMBER(FIND("大",H119,1)),ISNUMBER(FIND("双",H119,1)),ISNUMBER(FIND("合",H119,1))),1,0)))
 )</f>
-        <v>1</v>
-      </c>
-      <c r="M119" s="25"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="26"/>
-    </row>
-    <row r="120" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D120" s="25"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="27"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="29"/>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D120" s="27"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
       <c r="G120" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H120" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
+      <c r="K120" s="27"/>
       <c r="L120" s="1">
         <f>IF(INT(MID(K2,3,1))&lt;5,
  IF(MOD(MID(K2,3,1),2)=1,
@@ -5586,23 +5747,23 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="M120" s="25"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="26"/>
-    </row>
-    <row r="121" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D121" s="25"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
+      <c r="M120" s="27"/>
+      <c r="N120" s="30"/>
+      <c r="O120" s="29"/>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D121" s="27"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
       <c r="G121" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
+        <v>184</v>
+      </c>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
+      <c r="K121" s="27"/>
       <c r="L121" s="1">
         <f>IF(INT(MID(K2,4,1))&lt;5,
  IF(MOD(MID(K2,4,1),2)=1,
@@ -5622,21 +5783,21 @@
 )</f>
         <v>1</v>
       </c>
-      <c r="M121" s="25"/>
-      <c r="N121" s="25"/>
-      <c r="O121" s="26"/>
-    </row>
-    <row r="122" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D122" s="25"/>
-      <c r="E122" s="24"/>
-      <c r="F122" s="24"/>
+      <c r="M121" s="27"/>
+      <c r="N121" s="30"/>
+      <c r="O121" s="29"/>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D122" s="27"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
       <c r="G122" s="6" t="s">
         <v>23</v>
       </c>
       <c r="H122" s="10"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="27"/>
       <c r="L122" s="1">
         <f>IF(INT(MID(K2,5,1))&lt;5,
  IF(MOD(MID(K2,5,1),2)=1,
@@ -5656,224 +5817,224 @@
 )</f>
         <v>0</v>
       </c>
-      <c r="M122" s="25"/>
-      <c r="N122" s="25"/>
-      <c r="O122" s="26"/>
-    </row>
-    <row r="123" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D123" s="24" t="s">
+      <c r="M122" s="27"/>
+      <c r="N122" s="30"/>
+      <c r="O122" s="29"/>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D123" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F123" s="24" t="s">
+      <c r="F123" s="26" t="s">
         <v>121</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>122</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25">
+        <v>194</v>
+      </c>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27">
         <v>2.177</v>
       </c>
-      <c r="K123" s="25"/>
+      <c r="K123" s="27"/>
       <c r="L123" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,2,1),IF(ISNUMBER(FIND("和",H123,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,2,1),IF(ISNUMBER(FIND("龙",H123,1)),1,0),IF(ISNUMBER(FIND("虎",H123,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N123" s="24">
+      <c r="N123" s="30">
         <f ca="1">IF(SUM(L123:L132)&gt;0,IF(SUM(L123:L132)=1000,I2*J128*10,IF(SUM(L123:L132)&gt;=100,LEFT(SUM(L123:L132),1)*I2*J128+RIGHT(SUM(L123:L132),1)*I2*J123,SUM(L123:L132)*J123*I2)),0)</f>
-        <v>587.79</v>
-      </c>
-      <c r="O123" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D124" s="24"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
+        <v>627.14400000000001</v>
+      </c>
+      <c r="O123" s="29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
       <c r="G124" s="9" t="s">
         <v>123</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
+      <c r="K124" s="27"/>
       <c r="L124" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H124,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H124,1)),1,0),IF(ISNUMBER(FIND("虎",H124,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N124" s="25"/>
-      <c r="O124" s="26"/>
-    </row>
-    <row r="125" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D125" s="24"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="29"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
       <c r="G125" s="9" t="s">
         <v>124</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
+      <c r="K125" s="27"/>
       <c r="L125" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H125,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H125,1)),1,0),IF(ISNUMBER(FIND("虎",H125,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N125" s="25"/>
-      <c r="O125" s="26"/>
-    </row>
-    <row r="126" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D126" s="24"/>
-      <c r="E126" s="24"/>
-      <c r="F126" s="24"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="29"/>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
+      <c r="F126" s="26"/>
       <c r="G126" s="9" t="s">
         <v>125</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
+      <c r="K126" s="27"/>
       <c r="L126" s="1">
         <f>IF(LEFT(K2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H126,1)),100,0),IF(LEFT(K2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H126,1)),1,0),IF(ISNUMBER(FIND("虎",H126,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N126" s="25"/>
-      <c r="O126" s="26"/>
-    </row>
-    <row r="127" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D127" s="24"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="29"/>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="26"/>
       <c r="G127" s="9" t="s">
         <v>126</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
+        <v>196</v>
+      </c>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
       <c r="L127" s="1">
         <f>IF(MID(K2,2,1)=MID(K2,3,1),IF(ISNUMBER(FIND("和",H127,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,3,1),IF(ISNUMBER(FIND("龙",H127,1)),1,0),IF(ISNUMBER(FIND("虎",H127,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N127" s="25"/>
-      <c r="O127" s="26"/>
-    </row>
-    <row r="128" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
+      <c r="N127" s="30"/>
+      <c r="O127" s="29"/>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="26"/>
       <c r="G128" s="9" t="s">
         <v>127</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25">
+        <v>196</v>
+      </c>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="K128" s="25"/>
+      <c r="K128" s="27"/>
       <c r="L128" s="1">
         <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H128,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H128,1)),1,0),IF(ISNUMBER(FIND("虎",H128,1)),1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="N128" s="25"/>
-      <c r="O128" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="N128" s="30"/>
+      <c r="O128" s="29"/>
     </row>
     <row r="129" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="26"/>
       <c r="G129" s="9" t="s">
         <v>128</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
+      <c r="K129" s="27"/>
       <c r="L129" s="1">
         <f>IF(MID(K2,2,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H129,1)),100,0),IF(MID(K2,2,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H129,1)),1,0),IF(ISNUMBER(FIND("虎",H129,1)),1,0)))</f>
         <v>1</v>
       </c>
-      <c r="N129" s="25"/>
-      <c r="O129" s="26"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="29"/>
     </row>
     <row r="130" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D130" s="24"/>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="26"/>
       <c r="G130" s="9" t="s">
         <v>129</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="20">
+        <v>197</v>
+      </c>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="19">
         <f>IF(MID(K2,3,1)=MID(K2,4,1),IF(ISNUMBER(FIND("和",H130,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,4,1),IF(ISNUMBER(FIND("龙",H130,1)),1,0),IF(ISNUMBER(FIND("虎",H130,1)),1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="N130" s="25"/>
-      <c r="O130" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="N130" s="30"/>
+      <c r="O130" s="29"/>
     </row>
     <row r="131" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D131" s="24"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="26"/>
       <c r="G131" s="9" t="s">
         <v>130</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
+        <v>195</v>
+      </c>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
+      <c r="K131" s="27"/>
       <c r="L131" s="1">
         <f>IF(MID(K2,3,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H131,1)),100,0),IF(MID(K2,3,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H131,1)),1,0),IF(ISNUMBER(FIND("虎",H131,1)),1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="N131" s="25"/>
-      <c r="O131" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="N131" s="30"/>
+      <c r="O131" s="29"/>
     </row>
     <row r="132" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D132" s="24"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
+      <c r="F132" s="26"/>
       <c r="G132" s="9" t="s">
         <v>131</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
+        <v>194</v>
+      </c>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
+      <c r="K132" s="27"/>
       <c r="L132" s="1">
         <f>IF(MID(K2,4,1)=MID(K2,5,1),IF(ISNUMBER(FIND("和",H132,1)),100,0),IF(MID(K2,4,1)&gt;MID(K2,5,1),IF(ISNUMBER(FIND("龙",H132,1)),1,0),IF(ISNUMBER(FIND("虎",H132,1)),1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="N132" s="25"/>
-      <c r="O132" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="N132" s="30"/>
+      <c r="O132" s="29"/>
     </row>
     <row r="133" spans="4:15" x14ac:dyDescent="0.15">
       <c r="D133" s="9" t="s">
@@ -5891,41 +6052,107 @@
       <c r="H133" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I133" s="25"/>
+      <c r="I133" s="27"/>
       <c r="J133" s="1">
         <v>98000</v>
       </c>
-      <c r="K133" s="25"/>
-      <c r="N133" s="1">
-        <f ca="1">IF(SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))=LEFT(K2,1)*5,I2*J133,0)</f>
-        <v>2646000</v>
-      </c>
-      <c r="O133" s="21" t="s">
-        <v>192</v>
-      </c>
+      <c r="K133" s="27"/>
+      <c r="N133" s="31">
+        <f>IF(SUM(LEFT(K2,1),MID(K2,2,1),MID(K2,3,1),MID(K2,4,1),MID(K2,5,1))=LEFT(K2,1)*5,I2*J133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O133" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="134" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="K134" s="23"/>
+    </row>
+    <row r="135" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="K135" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="E123:E132"/>
-    <mergeCell ref="D123:D132"/>
-    <mergeCell ref="F117:F122"/>
-    <mergeCell ref="E117:E122"/>
-    <mergeCell ref="D117:D122"/>
-    <mergeCell ref="F123:F132"/>
-    <mergeCell ref="E89:E99"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="D83:D106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E107:E116"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="F111:F113"/>
-    <mergeCell ref="F114:F116"/>
+    <mergeCell ref="N123:N132"/>
+    <mergeCell ref="O123:O132"/>
+    <mergeCell ref="J123:J127"/>
+    <mergeCell ref="J128:J132"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="N96:N97"/>
+    <mergeCell ref="N98:N99"/>
+    <mergeCell ref="N111:N113"/>
+    <mergeCell ref="N109:N110"/>
+    <mergeCell ref="O109:O110"/>
+    <mergeCell ref="N114:N116"/>
+    <mergeCell ref="O114:O116"/>
+    <mergeCell ref="O111:O113"/>
+    <mergeCell ref="N117:N122"/>
+    <mergeCell ref="M117:M122"/>
+    <mergeCell ref="O117:O122"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J113"/>
+    <mergeCell ref="J114:J116"/>
+    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="O76:O77"/>
+    <mergeCell ref="N40:N42"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="O55:O57"/>
+    <mergeCell ref="N107:N108"/>
+    <mergeCell ref="O107:O108"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="N83:N87"/>
+    <mergeCell ref="O83:O87"/>
+    <mergeCell ref="O98:O99"/>
+    <mergeCell ref="O96:O97"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="D25:D39"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="K2:K133"/>
+    <mergeCell ref="I2:I133"/>
+    <mergeCell ref="O2:O6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N2:N6"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="O70:O73"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="E61:E67"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D16:D24"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="D70:D82"/>
     <mergeCell ref="F83:F87"/>
     <mergeCell ref="J83:J87"/>
@@ -5950,86 +6177,26 @@
     <mergeCell ref="D55:D69"/>
     <mergeCell ref="E55:E60"/>
     <mergeCell ref="F55:F57"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="E31:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="D25:D39"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="O25:O27"/>
-    <mergeCell ref="K2:K133"/>
-    <mergeCell ref="I2:I133"/>
-    <mergeCell ref="O2:O6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N2:N6"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="O70:O73"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="E61:E67"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="O76:O77"/>
-    <mergeCell ref="N40:N42"/>
-    <mergeCell ref="O40:O42"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="O55:O57"/>
-    <mergeCell ref="N107:N108"/>
-    <mergeCell ref="O107:O108"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="N83:N87"/>
-    <mergeCell ref="O83:O87"/>
-    <mergeCell ref="O98:O99"/>
-    <mergeCell ref="O96:O97"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="N123:N132"/>
-    <mergeCell ref="O123:O132"/>
-    <mergeCell ref="J123:J127"/>
-    <mergeCell ref="J128:J132"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="N96:N97"/>
-    <mergeCell ref="N98:N99"/>
-    <mergeCell ref="N111:N113"/>
-    <mergeCell ref="N109:N110"/>
-    <mergeCell ref="O109:O110"/>
-    <mergeCell ref="N114:N116"/>
-    <mergeCell ref="O114:O116"/>
-    <mergeCell ref="O111:O113"/>
-    <mergeCell ref="N117:N122"/>
-    <mergeCell ref="M117:M122"/>
-    <mergeCell ref="O117:O122"/>
-    <mergeCell ref="J109:J110"/>
-    <mergeCell ref="J111:J113"/>
-    <mergeCell ref="J114:J116"/>
-    <mergeCell ref="J117:J122"/>
+    <mergeCell ref="E123:E132"/>
+    <mergeCell ref="D123:D132"/>
+    <mergeCell ref="F117:F122"/>
+    <mergeCell ref="E117:E122"/>
+    <mergeCell ref="D117:D122"/>
+    <mergeCell ref="F123:F132"/>
+    <mergeCell ref="E89:E99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="D83:D106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E107:E116"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="F111:F113"/>
+    <mergeCell ref="F114:F116"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
